--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -715,25 +715,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10106200</v>
+        <v>9516000</v>
       </c>
       <c r="E8" s="3">
-        <v>8727600</v>
+        <v>8217900</v>
       </c>
       <c r="F8" s="3">
-        <v>8556000</v>
+        <v>8056300</v>
       </c>
       <c r="G8" s="3">
-        <v>8324800</v>
+        <v>7838600</v>
       </c>
       <c r="H8" s="3">
-        <v>7716900</v>
+        <v>7266200</v>
       </c>
       <c r="I8" s="3">
-        <v>6946900</v>
+        <v>6541200</v>
       </c>
       <c r="J8" s="3">
-        <v>6301800</v>
+        <v>5933700</v>
       </c>
       <c r="K8" s="3">
         <v>5494100</v>
@@ -909,25 +909,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-132800</v>
+        <v>-125000</v>
       </c>
       <c r="E15" s="3">
-        <v>-129500</v>
+        <v>-121900</v>
       </c>
       <c r="F15" s="3">
-        <v>-128000</v>
+        <v>-120500</v>
       </c>
       <c r="G15" s="3">
-        <v>-118400</v>
+        <v>-111500</v>
       </c>
       <c r="H15" s="3">
-        <v>-112100</v>
+        <v>-105500</v>
       </c>
       <c r="I15" s="3">
-        <v>-101000</v>
+        <v>-95100</v>
       </c>
       <c r="J15" s="3">
-        <v>-87800</v>
+        <v>-82700</v>
       </c>
       <c r="K15" s="3">
         <v>-97100</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8322900</v>
+        <v>7836800</v>
       </c>
       <c r="E17" s="3">
-        <v>7060200</v>
+        <v>6647800</v>
       </c>
       <c r="F17" s="3">
-        <v>7101600</v>
+        <v>6686800</v>
       </c>
       <c r="G17" s="3">
-        <v>5856800</v>
+        <v>5514800</v>
       </c>
       <c r="H17" s="3">
-        <v>5047200</v>
+        <v>4752400</v>
       </c>
       <c r="I17" s="3">
-        <v>4519800</v>
+        <v>4255800</v>
       </c>
       <c r="J17" s="3">
-        <v>4189100</v>
+        <v>3944400</v>
       </c>
       <c r="K17" s="3">
         <v>3768900</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1783300</v>
+        <v>1679100</v>
       </c>
       <c r="E18" s="3">
-        <v>1667400</v>
+        <v>1570000</v>
       </c>
       <c r="F18" s="3">
-        <v>1454400</v>
+        <v>1369400</v>
       </c>
       <c r="G18" s="3">
-        <v>2468000</v>
+        <v>2323900</v>
       </c>
       <c r="H18" s="3">
-        <v>2669700</v>
+        <v>2513800</v>
       </c>
       <c r="I18" s="3">
-        <v>2427100</v>
+        <v>2285300</v>
       </c>
       <c r="J18" s="3">
-        <v>2112700</v>
+        <v>1989300</v>
       </c>
       <c r="K18" s="3">
         <v>1725200</v>
@@ -1024,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-743200</v>
+        <v>-699800</v>
       </c>
       <c r="E20" s="3">
-        <v>-126100</v>
+        <v>-118700</v>
       </c>
       <c r="F20" s="3">
-        <v>484500</v>
+        <v>456200</v>
       </c>
       <c r="G20" s="3">
-        <v>-459700</v>
+        <v>-432800</v>
       </c>
       <c r="H20" s="3">
-        <v>-95600</v>
+        <v>-90000</v>
       </c>
       <c r="I20" s="3">
-        <v>-141100</v>
+        <v>-132900</v>
       </c>
       <c r="J20" s="3">
-        <v>-200900</v>
+        <v>-189200</v>
       </c>
       <c r="K20" s="3">
         <v>-179900</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1187000</v>
+        <v>1117200</v>
       </c>
       <c r="E21" s="3">
-        <v>1687400</v>
+        <v>1588300</v>
       </c>
       <c r="F21" s="3">
-        <v>2085600</v>
+        <v>1963300</v>
       </c>
       <c r="G21" s="3">
-        <v>2142800</v>
+        <v>2017100</v>
       </c>
       <c r="H21" s="3">
-        <v>2702000</v>
+        <v>2543700</v>
       </c>
       <c r="I21" s="3">
-        <v>2404200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2014500</v>
+        <v>2263400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>1654500</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1040100</v>
+        <v>979400</v>
       </c>
       <c r="E23" s="3">
-        <v>1541400</v>
+        <v>1451400</v>
       </c>
       <c r="F23" s="3">
-        <v>1938800</v>
+        <v>1825600</v>
       </c>
       <c r="G23" s="3">
-        <v>2008300</v>
+        <v>1891000</v>
       </c>
       <c r="H23" s="3">
-        <v>2574100</v>
+        <v>2423700</v>
       </c>
       <c r="I23" s="3">
-        <v>2285900</v>
+        <v>2152400</v>
       </c>
       <c r="J23" s="3">
-        <v>1911800</v>
+        <v>1800100</v>
       </c>
       <c r="K23" s="3">
         <v>1545300</v>
@@ -1144,25 +1144,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241400</v>
+        <v>227300</v>
       </c>
       <c r="E24" s="3">
-        <v>263800</v>
+        <v>248400</v>
       </c>
       <c r="F24" s="3">
-        <v>346700</v>
+        <v>326400</v>
       </c>
       <c r="G24" s="3">
-        <v>474200</v>
+        <v>446500</v>
       </c>
       <c r="H24" s="3">
-        <v>757000</v>
+        <v>712800</v>
       </c>
       <c r="I24" s="3">
-        <v>647200</v>
+        <v>609400</v>
       </c>
       <c r="J24" s="3">
-        <v>489600</v>
+        <v>461000</v>
       </c>
       <c r="K24" s="3">
         <v>397500</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>798800</v>
+        <v>752100</v>
       </c>
       <c r="E26" s="3">
-        <v>1277600</v>
+        <v>1203000</v>
       </c>
       <c r="F26" s="3">
-        <v>1592200</v>
+        <v>1499200</v>
       </c>
       <c r="G26" s="3">
-        <v>1534100</v>
+        <v>1444500</v>
       </c>
       <c r="H26" s="3">
-        <v>1817100</v>
+        <v>1711000</v>
       </c>
       <c r="I26" s="3">
-        <v>1638700</v>
+        <v>1543000</v>
       </c>
       <c r="J26" s="3">
-        <v>1422200</v>
+        <v>1339200</v>
       </c>
       <c r="K26" s="3">
         <v>1147800</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>597300</v>
+        <v>562400</v>
       </c>
       <c r="E27" s="3">
-        <v>1082800</v>
+        <v>1019600</v>
       </c>
       <c r="F27" s="3">
-        <v>1430400</v>
+        <v>1346900</v>
       </c>
       <c r="G27" s="3">
-        <v>1429300</v>
+        <v>1345800</v>
       </c>
       <c r="H27" s="3">
-        <v>1719500</v>
+        <v>1619000</v>
       </c>
       <c r="I27" s="3">
-        <v>1549500</v>
+        <v>1459000</v>
       </c>
       <c r="J27" s="3">
-        <v>1418800</v>
+        <v>1335900</v>
       </c>
       <c r="K27" s="3">
         <v>1023900</v>
@@ -1384,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>743200</v>
+        <v>699800</v>
       </c>
       <c r="E32" s="3">
-        <v>126100</v>
+        <v>118700</v>
       </c>
       <c r="F32" s="3">
-        <v>-484500</v>
+        <v>-456200</v>
       </c>
       <c r="G32" s="3">
-        <v>459700</v>
+        <v>432800</v>
       </c>
       <c r="H32" s="3">
-        <v>95600</v>
+        <v>90000</v>
       </c>
       <c r="I32" s="3">
-        <v>141100</v>
+        <v>132900</v>
       </c>
       <c r="J32" s="3">
-        <v>200900</v>
+        <v>189200</v>
       </c>
       <c r="K32" s="3">
         <v>179900</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>597300</v>
+        <v>562400</v>
       </c>
       <c r="E33" s="3">
-        <v>1082800</v>
+        <v>1019600</v>
       </c>
       <c r="F33" s="3">
-        <v>1430400</v>
+        <v>1346900</v>
       </c>
       <c r="G33" s="3">
-        <v>1429300</v>
+        <v>1345800</v>
       </c>
       <c r="H33" s="3">
-        <v>1719500</v>
+        <v>1619000</v>
       </c>
       <c r="I33" s="3">
-        <v>1549500</v>
+        <v>1459000</v>
       </c>
       <c r="J33" s="3">
-        <v>1418800</v>
+        <v>1335900</v>
       </c>
       <c r="K33" s="3">
         <v>1023900</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>597300</v>
+        <v>562400</v>
       </c>
       <c r="E35" s="3">
-        <v>1082800</v>
+        <v>1019600</v>
       </c>
       <c r="F35" s="3">
-        <v>1430400</v>
+        <v>1346900</v>
       </c>
       <c r="G35" s="3">
-        <v>1429300</v>
+        <v>1345800</v>
       </c>
       <c r="H35" s="3">
-        <v>1719500</v>
+        <v>1619000</v>
       </c>
       <c r="I35" s="3">
-        <v>1549500</v>
+        <v>1459000</v>
       </c>
       <c r="J35" s="3">
-        <v>1418800</v>
+        <v>1335900</v>
       </c>
       <c r="K35" s="3">
         <v>1023900</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8052700</v>
+        <v>7588100</v>
       </c>
       <c r="E41" s="3">
-        <v>7822600</v>
+        <v>7371300</v>
       </c>
       <c r="F41" s="3">
-        <v>8147400</v>
+        <v>7677400</v>
       </c>
       <c r="G41" s="3">
-        <v>7126000</v>
+        <v>6714900</v>
       </c>
       <c r="H41" s="3">
-        <v>6498600</v>
+        <v>6123600</v>
       </c>
       <c r="I41" s="3">
-        <v>6130100</v>
+        <v>5776400</v>
       </c>
       <c r="J41" s="3">
-        <v>2710600</v>
+        <v>2554200</v>
       </c>
       <c r="K41" s="3">
         <v>2997300</v>
@@ -1597,22 +1597,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33400900</v>
+        <v>31473900</v>
       </c>
       <c r="E42" s="3">
-        <v>31292500</v>
+        <v>29487100</v>
       </c>
       <c r="F42" s="3">
-        <v>32539800</v>
+        <v>30662500</v>
       </c>
       <c r="G42" s="3">
-        <v>21533700</v>
+        <v>20291400</v>
       </c>
       <c r="H42" s="3">
-        <v>23098500</v>
+        <v>21765900</v>
       </c>
       <c r="I42" s="3">
-        <v>22032000</v>
+        <v>20760900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102400</v>
+        <v>96500</v>
       </c>
       <c r="E47" s="3">
-        <v>69900</v>
+        <v>65900</v>
       </c>
       <c r="F47" s="3">
-        <v>52800</v>
+        <v>49700</v>
       </c>
       <c r="G47" s="3">
-        <v>51900</v>
+        <v>48900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -1777,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1356300</v>
+        <v>1278100</v>
       </c>
       <c r="E48" s="3">
-        <v>1328900</v>
+        <v>1252200</v>
       </c>
       <c r="F48" s="3">
-        <v>1311000</v>
+        <v>1235400</v>
       </c>
       <c r="G48" s="3">
-        <v>1223400</v>
+        <v>1152800</v>
       </c>
       <c r="H48" s="3">
-        <v>824300</v>
+        <v>776800</v>
       </c>
       <c r="I48" s="3">
-        <v>773200</v>
+        <v>728600</v>
       </c>
       <c r="J48" s="3">
-        <v>768500</v>
+        <v>724100</v>
       </c>
       <c r="K48" s="3">
         <v>785500</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17700</v>
+        <v>16700</v>
       </c>
       <c r="E49" s="3">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="F49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G49" s="3">
         <v>16600</v>
       </c>
-      <c r="G49" s="3">
-        <v>17600</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="J49" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="K49" s="3">
         <v>20700</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1535600</v>
+        <v>1447000</v>
       </c>
       <c r="E52" s="3">
-        <v>1097700</v>
+        <v>1034400</v>
       </c>
       <c r="F52" s="3">
-        <v>1576100</v>
+        <v>1485100</v>
       </c>
       <c r="G52" s="3">
-        <v>696600</v>
+        <v>656400</v>
       </c>
       <c r="H52" s="3">
-        <v>226500</v>
+        <v>213500</v>
       </c>
       <c r="I52" s="3">
-        <v>130500</v>
+        <v>123000</v>
       </c>
       <c r="J52" s="3">
-        <v>376400</v>
+        <v>354600</v>
       </c>
       <c r="K52" s="3">
         <v>405400</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>173927000</v>
+        <v>163892000</v>
       </c>
       <c r="E54" s="3">
-        <v>157849000</v>
+        <v>148742000</v>
       </c>
       <c r="F54" s="3">
-        <v>138396000</v>
+        <v>130411000</v>
       </c>
       <c r="G54" s="3">
-        <v>128993000</v>
+        <v>121551000</v>
       </c>
       <c r="H54" s="3">
-        <v>115982000</v>
+        <v>109290000</v>
       </c>
       <c r="I54" s="3">
-        <v>104986000</v>
+        <v>98929000</v>
       </c>
       <c r="J54" s="3">
-        <v>94745000</v>
+        <v>89278900</v>
       </c>
       <c r="K54" s="3">
         <v>89548900</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5245400</v>
+        <v>4942700</v>
       </c>
       <c r="E57" s="3">
-        <v>4425800</v>
+        <v>4170400</v>
       </c>
       <c r="F57" s="3">
-        <v>3722900</v>
+        <v>3508100</v>
       </c>
       <c r="G57" s="3">
-        <v>2802100</v>
+        <v>2640400</v>
       </c>
       <c r="H57" s="3">
-        <v>2486500</v>
+        <v>2343100</v>
       </c>
       <c r="I57" s="3">
-        <v>2695200</v>
+        <v>2539700</v>
       </c>
       <c r="J57" s="3">
-        <v>2769000</v>
+        <v>2609300</v>
       </c>
       <c r="K57" s="3">
         <v>2105500</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F59" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G59" s="3">
-        <v>461400</v>
+        <v>434800</v>
       </c>
       <c r="H59" s="3">
-        <v>459100</v>
+        <v>432600</v>
       </c>
       <c r="I59" s="3">
-        <v>415900</v>
+        <v>391900</v>
       </c>
       <c r="J59" s="3">
-        <v>370400</v>
+        <v>349000</v>
       </c>
       <c r="K59" s="3">
         <v>311500</v>
@@ -2135,25 +2135,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29261400</v>
+        <v>27573200</v>
       </c>
       <c r="E61" s="3">
-        <v>32026900</v>
+        <v>30179200</v>
       </c>
       <c r="F61" s="3">
-        <v>26266000</v>
+        <v>24750600</v>
       </c>
       <c r="G61" s="3">
-        <v>30818900</v>
+        <v>29040800</v>
       </c>
       <c r="H61" s="3">
-        <v>29659800</v>
+        <v>27948600</v>
       </c>
       <c r="I61" s="3">
-        <v>25769300</v>
+        <v>24282600</v>
       </c>
       <c r="J61" s="3">
-        <v>24273500</v>
+        <v>22873100</v>
       </c>
       <c r="K61" s="3">
         <v>23323500</v>
@@ -2165,22 +2165,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>442200</v>
+        <v>416700</v>
       </c>
       <c r="E62" s="3">
-        <v>401200</v>
+        <v>378000</v>
       </c>
       <c r="F62" s="3">
-        <v>358300</v>
+        <v>337600</v>
       </c>
       <c r="G62" s="3">
-        <v>409700</v>
+        <v>386000</v>
       </c>
       <c r="H62" s="3">
-        <v>358100</v>
+        <v>337500</v>
       </c>
       <c r="I62" s="3">
-        <v>301100</v>
+        <v>283700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157886000</v>
+        <v>148777000</v>
       </c>
       <c r="E66" s="3">
-        <v>142317000</v>
+        <v>134106000</v>
       </c>
       <c r="F66" s="3">
-        <v>123705000</v>
+        <v>116569000</v>
       </c>
       <c r="G66" s="3">
-        <v>115780000</v>
+        <v>109101000</v>
       </c>
       <c r="H66" s="3">
-        <v>104089000</v>
+        <v>98083900</v>
       </c>
       <c r="I66" s="3">
-        <v>94255100</v>
+        <v>88817300</v>
       </c>
       <c r="J66" s="3">
-        <v>85090700</v>
+        <v>80181600</v>
       </c>
       <c r="K66" s="3">
         <v>80688300</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10358000</v>
+        <v>9760400</v>
       </c>
       <c r="E72" s="3">
-        <v>10063400</v>
+        <v>9482800</v>
       </c>
       <c r="F72" s="3">
-        <v>9276800</v>
+        <v>8741600</v>
       </c>
       <c r="G72" s="3">
-        <v>7849300</v>
+        <v>7396500</v>
       </c>
       <c r="H72" s="3">
-        <v>6925700</v>
+        <v>6526200</v>
       </c>
       <c r="I72" s="3">
-        <v>5762100</v>
+        <v>5429700</v>
       </c>
       <c r="J72" s="3">
-        <v>4848000</v>
+        <v>4568300</v>
       </c>
       <c r="K72" s="3">
         <v>4003000</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16041200</v>
+        <v>15115700</v>
       </c>
       <c r="E76" s="3">
-        <v>15532400</v>
+        <v>14636300</v>
       </c>
       <c r="F76" s="3">
-        <v>14690300</v>
+        <v>13842800</v>
       </c>
       <c r="G76" s="3">
-        <v>13213100</v>
+        <v>12450800</v>
       </c>
       <c r="H76" s="3">
-        <v>11892500</v>
+        <v>11206400</v>
       </c>
       <c r="I76" s="3">
-        <v>10730800</v>
+        <v>10111700</v>
       </c>
       <c r="J76" s="3">
-        <v>9654200</v>
+        <v>9097300</v>
       </c>
       <c r="K76" s="3">
         <v>8860600</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>597300</v>
+        <v>562400</v>
       </c>
       <c r="E81" s="3">
-        <v>1082800</v>
+        <v>1019600</v>
       </c>
       <c r="F81" s="3">
-        <v>1430400</v>
+        <v>1346900</v>
       </c>
       <c r="G81" s="3">
-        <v>1429300</v>
+        <v>1345800</v>
       </c>
       <c r="H81" s="3">
-        <v>1719500</v>
+        <v>1619000</v>
       </c>
       <c r="I81" s="3">
-        <v>1549500</v>
+        <v>1459000</v>
       </c>
       <c r="J81" s="3">
-        <v>1418800</v>
+        <v>1335900</v>
       </c>
       <c r="K81" s="3">
         <v>1023900</v>
@@ -2708,25 +2708,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>146800</v>
+        <v>138200</v>
       </c>
       <c r="E83" s="3">
-        <v>145900</v>
+        <v>137400</v>
       </c>
       <c r="F83" s="3">
-        <v>146600</v>
+        <v>138100</v>
       </c>
       <c r="G83" s="3">
-        <v>134300</v>
+        <v>126500</v>
       </c>
       <c r="H83" s="3">
-        <v>127800</v>
+        <v>120300</v>
       </c>
       <c r="I83" s="3">
-        <v>118200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>102600</v>
+        <v>111300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>109100</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6833400</v>
+        <v>6434300</v>
       </c>
       <c r="E89" s="3">
-        <v>2721400</v>
+        <v>2562400</v>
       </c>
       <c r="F89" s="3">
-        <v>7390000</v>
+        <v>6958400</v>
       </c>
       <c r="G89" s="3">
-        <v>3319800</v>
+        <v>3125900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1723100</v>
+        <v>-1622500</v>
       </c>
       <c r="I89" s="3">
-        <v>949800</v>
+        <v>894300</v>
       </c>
       <c r="J89" s="3">
-        <v>2456200</v>
+        <v>2312700</v>
       </c>
       <c r="K89" s="3">
         <v>-985300</v>
@@ -2932,25 +2932,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161200</v>
+        <v>-151800</v>
       </c>
       <c r="E91" s="3">
-        <v>-146300</v>
+        <v>-137800</v>
       </c>
       <c r="F91" s="3">
-        <v>-184900</v>
+        <v>-174100</v>
       </c>
       <c r="G91" s="3">
-        <v>-119100</v>
+        <v>-112200</v>
       </c>
       <c r="H91" s="3">
-        <v>-174700</v>
+        <v>-164500</v>
       </c>
       <c r="I91" s="3">
-        <v>-117600</v>
+        <v>-110700</v>
       </c>
       <c r="J91" s="3">
-        <v>-87700</v>
+        <v>-82600</v>
       </c>
       <c r="K91" s="3">
         <v>-87500</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4232700</v>
+        <v>-3985500</v>
       </c>
       <c r="E94" s="3">
-        <v>-7100500</v>
+        <v>-6685800</v>
       </c>
       <c r="F94" s="3">
-        <v>-225400</v>
+        <v>-212300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1659400</v>
+        <v>-1562500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1815600</v>
+        <v>-1709600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2340100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2688400</v>
+        <v>-2203500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>-3074600</v>
@@ -3066,25 +3066,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-164100</v>
+        <v>-154500</v>
       </c>
       <c r="E96" s="3">
-        <v>-240900</v>
+        <v>-226900</v>
       </c>
       <c r="F96" s="3">
-        <v>-480600</v>
+        <v>-452500</v>
       </c>
       <c r="G96" s="3">
-        <v>-484700</v>
+        <v>-456400</v>
       </c>
       <c r="H96" s="3">
-        <v>-433000</v>
+        <v>-407700</v>
       </c>
       <c r="I96" s="3">
-        <v>-379600</v>
+        <v>-357500</v>
       </c>
       <c r="J96" s="3">
-        <v>-311600</v>
+        <v>-293400</v>
       </c>
       <c r="K96" s="3">
         <v>-274900</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2807600</v>
+        <v>-2643700</v>
       </c>
       <c r="E100" s="3">
-        <v>5570500</v>
+        <v>5245200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4979900</v>
+        <v>-4689100</v>
       </c>
       <c r="G100" s="3">
-        <v>816300</v>
+        <v>768600</v>
       </c>
       <c r="H100" s="3">
-        <v>3485700</v>
+        <v>3282200</v>
       </c>
       <c r="I100" s="3">
-        <v>1105300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1303400</v>
+        <v>1040700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>4256900</v>
@@ -3216,25 +3216,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18900</v>
+        <v>-17800</v>
       </c>
       <c r="E101" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
-        <v>-14800</v>
+        <v>-13900</v>
       </c>
       <c r="G101" s="3">
-        <v>-33900</v>
+        <v>-31900</v>
       </c>
       <c r="H101" s="3">
-        <v>-34200</v>
+        <v>-32200</v>
       </c>
       <c r="I101" s="3">
-        <v>128900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>82200</v>
+        <v>121300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>59100</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-225800</v>
+        <v>-212600</v>
       </c>
       <c r="E102" s="3">
-        <v>1194600</v>
+        <v>1124800</v>
       </c>
       <c r="F102" s="3">
-        <v>2169900</v>
+        <v>2043100</v>
       </c>
       <c r="G102" s="3">
-        <v>2442800</v>
+        <v>2300100</v>
       </c>
       <c r="H102" s="3">
-        <v>-87200</v>
+        <v>-82100</v>
       </c>
       <c r="I102" s="3">
-        <v>-156200</v>
+        <v>-147100</v>
       </c>
       <c r="J102" s="3">
-        <v>1153300</v>
+        <v>1086000</v>
       </c>
       <c r="K102" s="3">
         <v>256100</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,88 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9516000</v>
+        <v>11427400</v>
       </c>
       <c r="E8" s="3">
-        <v>8217900</v>
+        <v>9695900</v>
       </c>
       <c r="F8" s="3">
-        <v>8056300</v>
+        <v>8373300</v>
       </c>
       <c r="G8" s="3">
-        <v>7838600</v>
+        <v>8208600</v>
       </c>
       <c r="H8" s="3">
-        <v>7266200</v>
+        <v>7986900</v>
       </c>
       <c r="I8" s="3">
-        <v>6541200</v>
+        <v>7403700</v>
       </c>
       <c r="J8" s="3">
+        <v>6664900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5933700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5494100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-125000</v>
+        <v>-157800</v>
       </c>
       <c r="E15" s="3">
-        <v>-121900</v>
+        <v>-127400</v>
       </c>
       <c r="F15" s="3">
-        <v>-120500</v>
+        <v>-124200</v>
       </c>
       <c r="G15" s="3">
-        <v>-111500</v>
+        <v>-122800</v>
       </c>
       <c r="H15" s="3">
-        <v>-105500</v>
+        <v>-113600</v>
       </c>
       <c r="I15" s="3">
-        <v>-95100</v>
+        <v>-107500</v>
       </c>
       <c r="J15" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-82700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-97100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7836800</v>
+        <v>7427500</v>
       </c>
       <c r="E17" s="3">
-        <v>6647800</v>
+        <v>7985000</v>
       </c>
       <c r="F17" s="3">
-        <v>6686800</v>
+        <v>6773500</v>
       </c>
       <c r="G17" s="3">
-        <v>5514800</v>
+        <v>6813300</v>
       </c>
       <c r="H17" s="3">
-        <v>4752400</v>
+        <v>5619100</v>
       </c>
       <c r="I17" s="3">
-        <v>4255800</v>
+        <v>4842300</v>
       </c>
       <c r="J17" s="3">
+        <v>4336300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3944400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3768900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1679100</v>
+        <v>3999900</v>
       </c>
       <c r="E18" s="3">
-        <v>1570000</v>
+        <v>1710900</v>
       </c>
       <c r="F18" s="3">
-        <v>1369400</v>
+        <v>1599700</v>
       </c>
       <c r="G18" s="3">
-        <v>2323900</v>
+        <v>1395300</v>
       </c>
       <c r="H18" s="3">
-        <v>2513800</v>
+        <v>2367800</v>
       </c>
       <c r="I18" s="3">
-        <v>2285300</v>
+        <v>2561300</v>
       </c>
       <c r="J18" s="3">
+        <v>2328500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1989300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1725200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-699800</v>
+        <v>-1496000</v>
       </c>
       <c r="E20" s="3">
-        <v>-118700</v>
+        <v>-713000</v>
       </c>
       <c r="F20" s="3">
-        <v>456200</v>
+        <v>-120900</v>
       </c>
       <c r="G20" s="3">
-        <v>-432800</v>
+        <v>464800</v>
       </c>
       <c r="H20" s="3">
-        <v>-90000</v>
+        <v>-441000</v>
       </c>
       <c r="I20" s="3">
-        <v>-132900</v>
+        <v>-91800</v>
       </c>
       <c r="J20" s="3">
+        <v>-135400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-189200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-179900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1117200</v>
+        <v>2688500</v>
       </c>
       <c r="E21" s="3">
-        <v>1588300</v>
+        <v>1138800</v>
       </c>
       <c r="F21" s="3">
-        <v>1963300</v>
+        <v>1618900</v>
       </c>
       <c r="G21" s="3">
-        <v>2017100</v>
+        <v>2000900</v>
       </c>
       <c r="H21" s="3">
-        <v>2543700</v>
+        <v>2055800</v>
       </c>
       <c r="I21" s="3">
-        <v>2263400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>2592300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2306600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1654500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>979400</v>
+        <v>2503900</v>
       </c>
       <c r="E23" s="3">
-        <v>1451400</v>
+        <v>997900</v>
       </c>
       <c r="F23" s="3">
-        <v>1825600</v>
+        <v>1478800</v>
       </c>
       <c r="G23" s="3">
-        <v>1891000</v>
+        <v>1860100</v>
       </c>
       <c r="H23" s="3">
-        <v>2423700</v>
+        <v>1926800</v>
       </c>
       <c r="I23" s="3">
-        <v>2152400</v>
+        <v>2469600</v>
       </c>
       <c r="J23" s="3">
+        <v>2193100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1545300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227300</v>
+        <v>591700</v>
       </c>
       <c r="E24" s="3">
-        <v>248400</v>
+        <v>231600</v>
       </c>
       <c r="F24" s="3">
-        <v>326400</v>
+        <v>253100</v>
       </c>
       <c r="G24" s="3">
-        <v>446500</v>
+        <v>332600</v>
       </c>
       <c r="H24" s="3">
-        <v>712800</v>
+        <v>454900</v>
       </c>
       <c r="I24" s="3">
-        <v>609400</v>
+        <v>726300</v>
       </c>
       <c r="J24" s="3">
+        <v>620900</v>
+      </c>
+      <c r="K24" s="3">
         <v>461000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>397500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>752100</v>
+        <v>1912100</v>
       </c>
       <c r="E26" s="3">
-        <v>1203000</v>
+        <v>766300</v>
       </c>
       <c r="F26" s="3">
-        <v>1499200</v>
+        <v>1225700</v>
       </c>
       <c r="G26" s="3">
-        <v>1444500</v>
+        <v>1527500</v>
       </c>
       <c r="H26" s="3">
-        <v>1711000</v>
+        <v>1471900</v>
       </c>
       <c r="I26" s="3">
-        <v>1543000</v>
+        <v>1743300</v>
       </c>
       <c r="J26" s="3">
+        <v>1572200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1339200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1147800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>562400</v>
+        <v>1688700</v>
       </c>
       <c r="E27" s="3">
-        <v>1019600</v>
+        <v>573000</v>
       </c>
       <c r="F27" s="3">
-        <v>1346900</v>
+        <v>1038800</v>
       </c>
       <c r="G27" s="3">
-        <v>1345800</v>
+        <v>1372400</v>
       </c>
       <c r="H27" s="3">
-        <v>1619000</v>
+        <v>1371200</v>
       </c>
       <c r="I27" s="3">
-        <v>1459000</v>
+        <v>1649700</v>
       </c>
       <c r="J27" s="3">
+        <v>1486600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1335900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1023900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,39 +1344,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-400100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>699800</v>
+        <v>1496000</v>
       </c>
       <c r="E32" s="3">
-        <v>118700</v>
+        <v>713000</v>
       </c>
       <c r="F32" s="3">
-        <v>-456200</v>
+        <v>120900</v>
       </c>
       <c r="G32" s="3">
-        <v>432800</v>
+        <v>-464800</v>
       </c>
       <c r="H32" s="3">
-        <v>90000</v>
+        <v>441000</v>
       </c>
       <c r="I32" s="3">
-        <v>132900</v>
+        <v>91800</v>
       </c>
       <c r="J32" s="3">
+        <v>135400</v>
+      </c>
+      <c r="K32" s="3">
         <v>189200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>179900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>562400</v>
+        <v>1288600</v>
       </c>
       <c r="E33" s="3">
-        <v>1019600</v>
+        <v>573000</v>
       </c>
       <c r="F33" s="3">
-        <v>1346900</v>
+        <v>1038800</v>
       </c>
       <c r="G33" s="3">
-        <v>1345800</v>
+        <v>1372400</v>
       </c>
       <c r="H33" s="3">
-        <v>1619000</v>
+        <v>1371200</v>
       </c>
       <c r="I33" s="3">
-        <v>1459000</v>
+        <v>1649700</v>
       </c>
       <c r="J33" s="3">
+        <v>1486600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1335900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1023900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>562400</v>
+        <v>1288600</v>
       </c>
       <c r="E35" s="3">
-        <v>1019600</v>
+        <v>573000</v>
       </c>
       <c r="F35" s="3">
-        <v>1346900</v>
+        <v>1038800</v>
       </c>
       <c r="G35" s="3">
-        <v>1345800</v>
+        <v>1372400</v>
       </c>
       <c r="H35" s="3">
-        <v>1619000</v>
+        <v>1371200</v>
       </c>
       <c r="I35" s="3">
-        <v>1459000</v>
+        <v>1649700</v>
       </c>
       <c r="J35" s="3">
+        <v>1486600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1335900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1023900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,68 +1646,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7588100</v>
+        <v>6841200</v>
       </c>
       <c r="E41" s="3">
-        <v>7371300</v>
+        <v>7725800</v>
       </c>
       <c r="F41" s="3">
-        <v>7677400</v>
+        <v>7505000</v>
       </c>
       <c r="G41" s="3">
-        <v>6714900</v>
+        <v>7816600</v>
       </c>
       <c r="H41" s="3">
-        <v>6123600</v>
+        <v>6836700</v>
       </c>
       <c r="I41" s="3">
-        <v>5776400</v>
+        <v>6234700</v>
       </c>
       <c r="J41" s="3">
+        <v>5881200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2554200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2997300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31473900</v>
+        <v>70605000</v>
       </c>
       <c r="E42" s="3">
-        <v>29487100</v>
+        <v>32044900</v>
       </c>
       <c r="F42" s="3">
-        <v>30662500</v>
+        <v>30022100</v>
       </c>
       <c r="G42" s="3">
-        <v>20291400</v>
+        <v>31218700</v>
       </c>
       <c r="H42" s="3">
-        <v>21765900</v>
+        <v>20659500</v>
       </c>
       <c r="I42" s="3">
-        <v>20760900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+        <v>23114800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21888100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96500</v>
+        <v>94000</v>
       </c>
       <c r="E47" s="3">
-        <v>65900</v>
+        <v>98200</v>
       </c>
       <c r="F47" s="3">
-        <v>49700</v>
+        <v>67100</v>
       </c>
       <c r="G47" s="3">
-        <v>48900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>50600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>49800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1770,69 +1874,78 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1278100</v>
+        <v>1402000</v>
       </c>
       <c r="E48" s="3">
-        <v>1252200</v>
+        <v>1301300</v>
       </c>
       <c r="F48" s="3">
-        <v>1235400</v>
+        <v>1274900</v>
       </c>
       <c r="G48" s="3">
-        <v>1152800</v>
+        <v>1257800</v>
       </c>
       <c r="H48" s="3">
-        <v>776800</v>
+        <v>1173700</v>
       </c>
       <c r="I48" s="3">
-        <v>728600</v>
+        <v>790900</v>
       </c>
       <c r="J48" s="3">
+        <v>741800</v>
+      </c>
+      <c r="K48" s="3">
         <v>724100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>785500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E49" s="3">
-        <v>15600</v>
+        <v>17000</v>
       </c>
       <c r="F49" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="G49" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K49" s="3">
         <v>18900</v>
       </c>
-      <c r="J49" s="3">
-        <v>18900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1447000</v>
+        <v>1186300</v>
       </c>
       <c r="E52" s="3">
-        <v>1034400</v>
+        <v>1473300</v>
       </c>
       <c r="F52" s="3">
-        <v>1485100</v>
+        <v>1053100</v>
       </c>
       <c r="G52" s="3">
-        <v>656400</v>
+        <v>1512100</v>
       </c>
       <c r="H52" s="3">
-        <v>213500</v>
+        <v>668300</v>
       </c>
       <c r="I52" s="3">
-        <v>123000</v>
+        <v>217300</v>
       </c>
       <c r="J52" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K52" s="3">
         <v>354600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>405400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163892000</v>
+        <v>185521000</v>
       </c>
       <c r="E54" s="3">
-        <v>148742000</v>
+        <v>166866000</v>
       </c>
       <c r="F54" s="3">
-        <v>130411000</v>
+        <v>151441000</v>
       </c>
       <c r="G54" s="3">
-        <v>121551000</v>
+        <v>132777000</v>
       </c>
       <c r="H54" s="3">
-        <v>109290000</v>
+        <v>123757000</v>
       </c>
       <c r="I54" s="3">
-        <v>98929000</v>
+        <v>111273000</v>
       </c>
       <c r="J54" s="3">
+        <v>100724000</v>
+      </c>
+      <c r="K54" s="3">
         <v>89278900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89548900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,38 +2138,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4942700</v>
+        <v>5134800</v>
       </c>
       <c r="E57" s="3">
-        <v>4170400</v>
+        <v>5032400</v>
       </c>
       <c r="F57" s="3">
-        <v>3508100</v>
+        <v>4246100</v>
       </c>
       <c r="G57" s="3">
-        <v>2640400</v>
+        <v>3571700</v>
       </c>
       <c r="H57" s="3">
-        <v>2343100</v>
+        <v>2688300</v>
       </c>
       <c r="I57" s="3">
-        <v>2539700</v>
+        <v>2385600</v>
       </c>
       <c r="J57" s="3">
+        <v>2585800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2609300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2105500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,39 +2201,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
-        <v>10400</v>
-      </c>
       <c r="G59" s="3">
-        <v>434800</v>
+        <v>10600</v>
       </c>
       <c r="H59" s="3">
-        <v>432600</v>
+        <v>442700</v>
       </c>
       <c r="I59" s="3">
-        <v>391900</v>
+        <v>440500</v>
       </c>
       <c r="J59" s="3">
+        <v>399000</v>
+      </c>
+      <c r="K59" s="3">
         <v>349000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>311500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,69 +2267,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27573200</v>
+        <v>28369800</v>
       </c>
       <c r="E61" s="3">
-        <v>30179200</v>
+        <v>28073400</v>
       </c>
       <c r="F61" s="3">
-        <v>24750600</v>
+        <v>30726600</v>
       </c>
       <c r="G61" s="3">
-        <v>29040800</v>
+        <v>25199600</v>
       </c>
       <c r="H61" s="3">
-        <v>27948600</v>
+        <v>29567700</v>
       </c>
       <c r="I61" s="3">
-        <v>24282600</v>
+        <v>28455600</v>
       </c>
       <c r="J61" s="3">
+        <v>24723100</v>
+      </c>
+      <c r="K61" s="3">
         <v>22873100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23323500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>416700</v>
+        <v>892200</v>
       </c>
       <c r="E62" s="3">
-        <v>378000</v>
+        <v>424300</v>
       </c>
       <c r="F62" s="3">
-        <v>337600</v>
+        <v>384900</v>
       </c>
       <c r="G62" s="3">
-        <v>386000</v>
+        <v>343700</v>
       </c>
       <c r="H62" s="3">
-        <v>337500</v>
+        <v>393000</v>
       </c>
       <c r="I62" s="3">
-        <v>283700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+        <v>343600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>288800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>148777000</v>
+        <v>168959000</v>
       </c>
       <c r="E66" s="3">
-        <v>134106000</v>
+        <v>151476000</v>
       </c>
       <c r="F66" s="3">
-        <v>116569000</v>
+        <v>136539000</v>
       </c>
       <c r="G66" s="3">
-        <v>109101000</v>
+        <v>118683000</v>
       </c>
       <c r="H66" s="3">
-        <v>98083900</v>
+        <v>111080000</v>
       </c>
       <c r="I66" s="3">
-        <v>88817300</v>
+        <v>99863200</v>
       </c>
       <c r="J66" s="3">
+        <v>90428500</v>
+      </c>
+      <c r="K66" s="3">
         <v>80181600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80688300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9760400</v>
+        <v>10911100</v>
       </c>
       <c r="E72" s="3">
-        <v>9482800</v>
+        <v>9937500</v>
       </c>
       <c r="F72" s="3">
-        <v>8741600</v>
+        <v>9654800</v>
       </c>
       <c r="G72" s="3">
-        <v>7396500</v>
+        <v>8900200</v>
       </c>
       <c r="H72" s="3">
-        <v>6526200</v>
+        <v>7530600</v>
       </c>
       <c r="I72" s="3">
-        <v>5429700</v>
+        <v>6644600</v>
       </c>
       <c r="J72" s="3">
+        <v>5528200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4568300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4003000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15115700</v>
+        <v>16562700</v>
       </c>
       <c r="E76" s="3">
-        <v>14636300</v>
+        <v>15389900</v>
       </c>
       <c r="F76" s="3">
-        <v>13842800</v>
+        <v>14901800</v>
       </c>
       <c r="G76" s="3">
-        <v>12450800</v>
+        <v>14093900</v>
       </c>
       <c r="H76" s="3">
-        <v>11206400</v>
+        <v>12676700</v>
       </c>
       <c r="I76" s="3">
-        <v>10111700</v>
+        <v>11409700</v>
       </c>
       <c r="J76" s="3">
+        <v>10295100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9097300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8860600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>562400</v>
+        <v>1288600</v>
       </c>
       <c r="E81" s="3">
-        <v>1019600</v>
+        <v>573000</v>
       </c>
       <c r="F81" s="3">
-        <v>1346900</v>
+        <v>1038800</v>
       </c>
       <c r="G81" s="3">
-        <v>1345800</v>
+        <v>1372400</v>
       </c>
       <c r="H81" s="3">
-        <v>1619000</v>
+        <v>1371200</v>
       </c>
       <c r="I81" s="3">
-        <v>1459000</v>
+        <v>1649700</v>
       </c>
       <c r="J81" s="3">
+        <v>1486600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1335900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1023900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>138200</v>
+        <v>184500</v>
       </c>
       <c r="E83" s="3">
-        <v>137400</v>
+        <v>140800</v>
       </c>
       <c r="F83" s="3">
-        <v>138100</v>
+        <v>140000</v>
       </c>
       <c r="G83" s="3">
-        <v>126500</v>
+        <v>140700</v>
       </c>
       <c r="H83" s="3">
-        <v>120300</v>
+        <v>128900</v>
       </c>
       <c r="I83" s="3">
-        <v>111300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>122600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>109100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6434300</v>
+        <v>10717400</v>
       </c>
       <c r="E89" s="3">
-        <v>2562400</v>
+        <v>6556000</v>
       </c>
       <c r="F89" s="3">
-        <v>6958400</v>
+        <v>2610900</v>
       </c>
       <c r="G89" s="3">
-        <v>3125900</v>
+        <v>7090000</v>
       </c>
       <c r="H89" s="3">
-        <v>-1622500</v>
+        <v>3185000</v>
       </c>
       <c r="I89" s="3">
-        <v>894300</v>
+        <v>-1653200</v>
       </c>
       <c r="J89" s="3">
+        <v>911200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2312700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-985300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-151800</v>
+        <v>-252400</v>
       </c>
       <c r="E91" s="3">
-        <v>-137800</v>
+        <v>-154700</v>
       </c>
       <c r="F91" s="3">
-        <v>-174100</v>
+        <v>-140400</v>
       </c>
       <c r="G91" s="3">
-        <v>-112200</v>
+        <v>-177400</v>
       </c>
       <c r="H91" s="3">
-        <v>-164500</v>
+        <v>-114300</v>
       </c>
       <c r="I91" s="3">
-        <v>-110700</v>
+        <v>-167700</v>
       </c>
       <c r="J91" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3985500</v>
+        <v>-5698900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6685800</v>
+        <v>-4060800</v>
       </c>
       <c r="F94" s="3">
-        <v>-212300</v>
+        <v>-6812200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1562500</v>
+        <v>-216300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1709600</v>
+        <v>-1592100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2203500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-1741900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2245100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3074600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-154500</v>
+        <v>-119400</v>
       </c>
       <c r="E96" s="3">
-        <v>-226900</v>
+        <v>-157400</v>
       </c>
       <c r="F96" s="3">
-        <v>-452500</v>
+        <v>-231200</v>
       </c>
       <c r="G96" s="3">
-        <v>-456400</v>
+        <v>-461100</v>
       </c>
       <c r="H96" s="3">
-        <v>-407700</v>
+        <v>-465100</v>
       </c>
       <c r="I96" s="3">
-        <v>-357500</v>
+        <v>-415400</v>
       </c>
       <c r="J96" s="3">
+        <v>-364200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-293400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-274900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2643700</v>
+        <v>403000</v>
       </c>
       <c r="E100" s="3">
-        <v>5245200</v>
+        <v>-2693700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4689100</v>
+        <v>5344400</v>
       </c>
       <c r="G100" s="3">
-        <v>768600</v>
+        <v>-4777700</v>
       </c>
       <c r="H100" s="3">
-        <v>3282200</v>
+        <v>783100</v>
       </c>
       <c r="I100" s="3">
-        <v>1040700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>3344200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>4256900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17800</v>
+        <v>28800</v>
       </c>
       <c r="E101" s="3">
-        <v>3000</v>
+        <v>-18100</v>
       </c>
       <c r="F101" s="3">
-        <v>-13900</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-31900</v>
+        <v>-14200</v>
       </c>
       <c r="H101" s="3">
-        <v>-32200</v>
+        <v>-32500</v>
       </c>
       <c r="I101" s="3">
-        <v>121300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>59100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-212600</v>
+        <v>5450200</v>
       </c>
       <c r="E102" s="3">
-        <v>1124800</v>
+        <v>-216600</v>
       </c>
       <c r="F102" s="3">
-        <v>2043100</v>
+        <v>1146100</v>
       </c>
       <c r="G102" s="3">
-        <v>2300100</v>
+        <v>2081800</v>
       </c>
       <c r="H102" s="3">
-        <v>-82100</v>
+        <v>2343600</v>
       </c>
       <c r="I102" s="3">
-        <v>-147100</v>
+        <v>-83700</v>
       </c>
       <c r="J102" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1086000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>256100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11427400</v>
+        <v>11478300</v>
       </c>
       <c r="E8" s="3">
-        <v>9695900</v>
+        <v>9739100</v>
       </c>
       <c r="F8" s="3">
-        <v>8373300</v>
+        <v>8410600</v>
       </c>
       <c r="G8" s="3">
-        <v>8208600</v>
+        <v>8245200</v>
       </c>
       <c r="H8" s="3">
-        <v>7986900</v>
+        <v>8022400</v>
       </c>
       <c r="I8" s="3">
-        <v>7403700</v>
+        <v>7436600</v>
       </c>
       <c r="J8" s="3">
-        <v>6664900</v>
+        <v>6694500</v>
       </c>
       <c r="K8" s="3">
         <v>5933700</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-157800</v>
+        <v>-158500</v>
       </c>
       <c r="E15" s="3">
-        <v>-127400</v>
+        <v>-128000</v>
       </c>
       <c r="F15" s="3">
-        <v>-124200</v>
+        <v>-124800</v>
       </c>
       <c r="G15" s="3">
-        <v>-122800</v>
+        <v>-123300</v>
       </c>
       <c r="H15" s="3">
-        <v>-113600</v>
+        <v>-114100</v>
       </c>
       <c r="I15" s="3">
-        <v>-107500</v>
+        <v>-108000</v>
       </c>
       <c r="J15" s="3">
-        <v>-96900</v>
+        <v>-97300</v>
       </c>
       <c r="K15" s="3">
         <v>-82700</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7427500</v>
+        <v>7460600</v>
       </c>
       <c r="E17" s="3">
-        <v>7985000</v>
+        <v>8020600</v>
       </c>
       <c r="F17" s="3">
-        <v>6773500</v>
+        <v>6803700</v>
       </c>
       <c r="G17" s="3">
-        <v>6813300</v>
+        <v>6843600</v>
       </c>
       <c r="H17" s="3">
-        <v>5619100</v>
+        <v>5644100</v>
       </c>
       <c r="I17" s="3">
-        <v>4842300</v>
+        <v>4863900</v>
       </c>
       <c r="J17" s="3">
-        <v>4336300</v>
+        <v>4355600</v>
       </c>
       <c r="K17" s="3">
         <v>3944400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3999900</v>
+        <v>4017700</v>
       </c>
       <c r="E18" s="3">
-        <v>1710900</v>
+        <v>1718500</v>
       </c>
       <c r="F18" s="3">
-        <v>1599700</v>
+        <v>1606900</v>
       </c>
       <c r="G18" s="3">
-        <v>1395300</v>
+        <v>1401500</v>
       </c>
       <c r="H18" s="3">
-        <v>2367800</v>
+        <v>2378400</v>
       </c>
       <c r="I18" s="3">
-        <v>2561300</v>
+        <v>2572700</v>
       </c>
       <c r="J18" s="3">
-        <v>2328500</v>
+        <v>2338900</v>
       </c>
       <c r="K18" s="3">
         <v>1989300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1496000</v>
+        <v>-1502700</v>
       </c>
       <c r="E20" s="3">
-        <v>-713000</v>
+        <v>-716200</v>
       </c>
       <c r="F20" s="3">
-        <v>-120900</v>
+        <v>-121500</v>
       </c>
       <c r="G20" s="3">
-        <v>464800</v>
+        <v>466900</v>
       </c>
       <c r="H20" s="3">
-        <v>-441000</v>
+        <v>-443000</v>
       </c>
       <c r="I20" s="3">
-        <v>-91800</v>
+        <v>-92200</v>
       </c>
       <c r="J20" s="3">
-        <v>-135400</v>
+        <v>-136000</v>
       </c>
       <c r="K20" s="3">
         <v>-189200</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2688500</v>
+        <v>2700500</v>
       </c>
       <c r="E21" s="3">
-        <v>1138800</v>
+        <v>1143900</v>
       </c>
       <c r="F21" s="3">
-        <v>1618900</v>
+        <v>1626100</v>
       </c>
       <c r="G21" s="3">
-        <v>2000900</v>
+        <v>2009800</v>
       </c>
       <c r="H21" s="3">
-        <v>2055800</v>
+        <v>2064900</v>
       </c>
       <c r="I21" s="3">
-        <v>2592300</v>
+        <v>2603800</v>
       </c>
       <c r="J21" s="3">
-        <v>2306600</v>
+        <v>2316900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2503900</v>
+        <v>2515000</v>
       </c>
       <c r="E23" s="3">
-        <v>997900</v>
+        <v>1002300</v>
       </c>
       <c r="F23" s="3">
-        <v>1478800</v>
+        <v>1485400</v>
       </c>
       <c r="G23" s="3">
-        <v>1860100</v>
+        <v>1868400</v>
       </c>
       <c r="H23" s="3">
-        <v>1926800</v>
+        <v>1935400</v>
       </c>
       <c r="I23" s="3">
-        <v>2469600</v>
+        <v>2480600</v>
       </c>
       <c r="J23" s="3">
-        <v>2193100</v>
+        <v>2202900</v>
       </c>
       <c r="K23" s="3">
         <v>1800100</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>591700</v>
+        <v>594400</v>
       </c>
       <c r="E24" s="3">
-        <v>231600</v>
+        <v>232600</v>
       </c>
       <c r="F24" s="3">
-        <v>253100</v>
+        <v>254200</v>
       </c>
       <c r="G24" s="3">
-        <v>332600</v>
+        <v>334100</v>
       </c>
       <c r="H24" s="3">
-        <v>454900</v>
+        <v>457000</v>
       </c>
       <c r="I24" s="3">
-        <v>726300</v>
+        <v>729500</v>
       </c>
       <c r="J24" s="3">
-        <v>620900</v>
+        <v>623700</v>
       </c>
       <c r="K24" s="3">
         <v>461000</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1912100</v>
+        <v>1920700</v>
       </c>
       <c r="E26" s="3">
-        <v>766300</v>
+        <v>769700</v>
       </c>
       <c r="F26" s="3">
-        <v>1225700</v>
+        <v>1231200</v>
       </c>
       <c r="G26" s="3">
-        <v>1527500</v>
+        <v>1534300</v>
       </c>
       <c r="H26" s="3">
-        <v>1471900</v>
+        <v>1478400</v>
       </c>
       <c r="I26" s="3">
-        <v>1743300</v>
+        <v>1751100</v>
       </c>
       <c r="J26" s="3">
-        <v>1572200</v>
+        <v>1579200</v>
       </c>
       <c r="K26" s="3">
         <v>1339200</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1688700</v>
+        <v>1696200</v>
       </c>
       <c r="E27" s="3">
-        <v>573000</v>
+        <v>575600</v>
       </c>
       <c r="F27" s="3">
-        <v>1038800</v>
+        <v>1043500</v>
       </c>
       <c r="G27" s="3">
-        <v>1372400</v>
+        <v>1378500</v>
       </c>
       <c r="H27" s="3">
-        <v>1371200</v>
+        <v>1377300</v>
       </c>
       <c r="I27" s="3">
-        <v>1649700</v>
+        <v>1657000</v>
       </c>
       <c r="J27" s="3">
-        <v>1486600</v>
+        <v>1493200</v>
       </c>
       <c r="K27" s="3">
         <v>1335900</v>
@@ -1354,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-400100</v>
+        <v>-401900</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1496000</v>
+        <v>1502700</v>
       </c>
       <c r="E32" s="3">
-        <v>713000</v>
+        <v>716200</v>
       </c>
       <c r="F32" s="3">
-        <v>120900</v>
+        <v>121500</v>
       </c>
       <c r="G32" s="3">
-        <v>-464800</v>
+        <v>-466900</v>
       </c>
       <c r="H32" s="3">
-        <v>441000</v>
+        <v>443000</v>
       </c>
       <c r="I32" s="3">
-        <v>91800</v>
+        <v>92200</v>
       </c>
       <c r="J32" s="3">
-        <v>135400</v>
+        <v>136000</v>
       </c>
       <c r="K32" s="3">
         <v>189200</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1288600</v>
+        <v>1294300</v>
       </c>
       <c r="E33" s="3">
-        <v>573000</v>
+        <v>575600</v>
       </c>
       <c r="F33" s="3">
-        <v>1038800</v>
+        <v>1043500</v>
       </c>
       <c r="G33" s="3">
-        <v>1372400</v>
+        <v>1378500</v>
       </c>
       <c r="H33" s="3">
-        <v>1371200</v>
+        <v>1377300</v>
       </c>
       <c r="I33" s="3">
-        <v>1649700</v>
+        <v>1657000</v>
       </c>
       <c r="J33" s="3">
-        <v>1486600</v>
+        <v>1493200</v>
       </c>
       <c r="K33" s="3">
         <v>1335900</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1288600</v>
+        <v>1294300</v>
       </c>
       <c r="E35" s="3">
-        <v>573000</v>
+        <v>575600</v>
       </c>
       <c r="F35" s="3">
-        <v>1038800</v>
+        <v>1043500</v>
       </c>
       <c r="G35" s="3">
-        <v>1372400</v>
+        <v>1378500</v>
       </c>
       <c r="H35" s="3">
-        <v>1371200</v>
+        <v>1377300</v>
       </c>
       <c r="I35" s="3">
-        <v>1649700</v>
+        <v>1657000</v>
       </c>
       <c r="J35" s="3">
-        <v>1486600</v>
+        <v>1493200</v>
       </c>
       <c r="K35" s="3">
         <v>1335900</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6841200</v>
+        <v>6871700</v>
       </c>
       <c r="E41" s="3">
-        <v>7725800</v>
+        <v>7760200</v>
       </c>
       <c r="F41" s="3">
-        <v>7505000</v>
+        <v>7538400</v>
       </c>
       <c r="G41" s="3">
-        <v>7816600</v>
+        <v>7851400</v>
       </c>
       <c r="H41" s="3">
-        <v>6836700</v>
+        <v>6867200</v>
       </c>
       <c r="I41" s="3">
-        <v>6234700</v>
+        <v>6262500</v>
       </c>
       <c r="J41" s="3">
-        <v>5881200</v>
+        <v>5907400</v>
       </c>
       <c r="K41" s="3">
         <v>2554200</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70605000</v>
+        <v>70919500</v>
       </c>
       <c r="E42" s="3">
-        <v>32044900</v>
+        <v>32187600</v>
       </c>
       <c r="F42" s="3">
-        <v>30022100</v>
+        <v>30155800</v>
       </c>
       <c r="G42" s="3">
-        <v>31218700</v>
+        <v>31357800</v>
       </c>
       <c r="H42" s="3">
-        <v>20659500</v>
+        <v>20751500</v>
       </c>
       <c r="I42" s="3">
-        <v>23114800</v>
+        <v>23217800</v>
       </c>
       <c r="J42" s="3">
-        <v>21888100</v>
+        <v>21985600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="E47" s="3">
-        <v>98200</v>
+        <v>98700</v>
       </c>
       <c r="F47" s="3">
-        <v>67100</v>
+        <v>67400</v>
       </c>
       <c r="G47" s="3">
-        <v>50600</v>
+        <v>50900</v>
       </c>
       <c r="H47" s="3">
-        <v>49800</v>
+        <v>50000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1402000</v>
+        <v>1408300</v>
       </c>
       <c r="E48" s="3">
-        <v>1301300</v>
+        <v>1307100</v>
       </c>
       <c r="F48" s="3">
-        <v>1274900</v>
+        <v>1280600</v>
       </c>
       <c r="G48" s="3">
-        <v>1257800</v>
+        <v>1263400</v>
       </c>
       <c r="H48" s="3">
-        <v>1173700</v>
+        <v>1178900</v>
       </c>
       <c r="I48" s="3">
-        <v>790900</v>
+        <v>794400</v>
       </c>
       <c r="J48" s="3">
-        <v>741800</v>
+        <v>745100</v>
       </c>
       <c r="K48" s="3">
         <v>724100</v>
@@ -1923,19 +1923,19 @@
         <v>17000</v>
       </c>
       <c r="F49" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="G49" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="H49" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="K49" s="3">
         <v>18900</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1186300</v>
+        <v>1191600</v>
       </c>
       <c r="E52" s="3">
-        <v>1473300</v>
+        <v>1479800</v>
       </c>
       <c r="F52" s="3">
-        <v>1053100</v>
+        <v>1057800</v>
       </c>
       <c r="G52" s="3">
-        <v>1512100</v>
+        <v>1518800</v>
       </c>
       <c r="H52" s="3">
-        <v>668300</v>
+        <v>671200</v>
       </c>
       <c r="I52" s="3">
-        <v>217300</v>
+        <v>218300</v>
       </c>
       <c r="J52" s="3">
-        <v>125200</v>
+        <v>125800</v>
       </c>
       <c r="K52" s="3">
         <v>354600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185521000</v>
+        <v>186348000</v>
       </c>
       <c r="E54" s="3">
-        <v>166866000</v>
+        <v>167609000</v>
       </c>
       <c r="F54" s="3">
-        <v>151441000</v>
+        <v>152115000</v>
       </c>
       <c r="G54" s="3">
-        <v>132777000</v>
+        <v>133369000</v>
       </c>
       <c r="H54" s="3">
-        <v>123757000</v>
+        <v>124308000</v>
       </c>
       <c r="I54" s="3">
-        <v>111273000</v>
+        <v>111769000</v>
       </c>
       <c r="J54" s="3">
-        <v>100724000</v>
+        <v>101172000</v>
       </c>
       <c r="K54" s="3">
         <v>89278900</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5134800</v>
+        <v>5157700</v>
       </c>
       <c r="E57" s="3">
-        <v>5032400</v>
+        <v>5054800</v>
       </c>
       <c r="F57" s="3">
-        <v>4246100</v>
+        <v>4265000</v>
       </c>
       <c r="G57" s="3">
-        <v>3571700</v>
+        <v>3587600</v>
       </c>
       <c r="H57" s="3">
-        <v>2688300</v>
+        <v>2700300</v>
       </c>
       <c r="I57" s="3">
-        <v>2385600</v>
+        <v>2396200</v>
       </c>
       <c r="J57" s="3">
-        <v>2585800</v>
+        <v>2597300</v>
       </c>
       <c r="K57" s="3">
         <v>2609300</v>
@@ -2217,19 +2217,19 @@
         <v>1700</v>
       </c>
       <c r="F59" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G59" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="H59" s="3">
-        <v>442700</v>
+        <v>444600</v>
       </c>
       <c r="I59" s="3">
-        <v>440500</v>
+        <v>442400</v>
       </c>
       <c r="J59" s="3">
-        <v>399000</v>
+        <v>400800</v>
       </c>
       <c r="K59" s="3">
         <v>349000</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28369800</v>
+        <v>28496200</v>
       </c>
       <c r="E61" s="3">
-        <v>28073400</v>
+        <v>28198500</v>
       </c>
       <c r="F61" s="3">
-        <v>30726600</v>
+        <v>30863500</v>
       </c>
       <c r="G61" s="3">
-        <v>25199600</v>
+        <v>25311900</v>
       </c>
       <c r="H61" s="3">
-        <v>29567700</v>
+        <v>29699400</v>
       </c>
       <c r="I61" s="3">
-        <v>28455600</v>
+        <v>28582400</v>
       </c>
       <c r="J61" s="3">
-        <v>24723100</v>
+        <v>24833200</v>
       </c>
       <c r="K61" s="3">
         <v>22873100</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>892200</v>
+        <v>896200</v>
       </c>
       <c r="E62" s="3">
-        <v>424300</v>
+        <v>426100</v>
       </c>
       <c r="F62" s="3">
-        <v>384900</v>
+        <v>386600</v>
       </c>
       <c r="G62" s="3">
-        <v>343700</v>
+        <v>345300</v>
       </c>
       <c r="H62" s="3">
-        <v>393000</v>
+        <v>394800</v>
       </c>
       <c r="I62" s="3">
-        <v>343600</v>
+        <v>345100</v>
       </c>
       <c r="J62" s="3">
-        <v>288800</v>
+        <v>290100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>168959000</v>
+        <v>169711000</v>
       </c>
       <c r="E66" s="3">
-        <v>151476000</v>
+        <v>152150000</v>
       </c>
       <c r="F66" s="3">
-        <v>136539000</v>
+        <v>137147000</v>
       </c>
       <c r="G66" s="3">
-        <v>118683000</v>
+        <v>119212000</v>
       </c>
       <c r="H66" s="3">
-        <v>111080000</v>
+        <v>111575000</v>
       </c>
       <c r="I66" s="3">
-        <v>99863200</v>
+        <v>100308000</v>
       </c>
       <c r="J66" s="3">
-        <v>90428500</v>
+        <v>90831300</v>
       </c>
       <c r="K66" s="3">
         <v>80181600</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10911100</v>
+        <v>10959700</v>
       </c>
       <c r="E72" s="3">
-        <v>9937500</v>
+        <v>9981700</v>
       </c>
       <c r="F72" s="3">
-        <v>9654800</v>
+        <v>9697800</v>
       </c>
       <c r="G72" s="3">
-        <v>8900200</v>
+        <v>8939800</v>
       </c>
       <c r="H72" s="3">
-        <v>7530600</v>
+        <v>7564200</v>
       </c>
       <c r="I72" s="3">
-        <v>6644600</v>
+        <v>6674200</v>
       </c>
       <c r="J72" s="3">
-        <v>5528200</v>
+        <v>5552800</v>
       </c>
       <c r="K72" s="3">
         <v>4568300</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16562700</v>
+        <v>16636500</v>
       </c>
       <c r="E76" s="3">
-        <v>15389900</v>
+        <v>15458500</v>
       </c>
       <c r="F76" s="3">
-        <v>14901800</v>
+        <v>14968200</v>
       </c>
       <c r="G76" s="3">
-        <v>14093900</v>
+        <v>14156700</v>
       </c>
       <c r="H76" s="3">
-        <v>12676700</v>
+        <v>12733200</v>
       </c>
       <c r="I76" s="3">
-        <v>11409700</v>
+        <v>11460500</v>
       </c>
       <c r="J76" s="3">
-        <v>10295100</v>
+        <v>10341000</v>
       </c>
       <c r="K76" s="3">
         <v>9097300</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1288600</v>
+        <v>1294300</v>
       </c>
       <c r="E81" s="3">
-        <v>573000</v>
+        <v>575600</v>
       </c>
       <c r="F81" s="3">
-        <v>1038800</v>
+        <v>1043500</v>
       </c>
       <c r="G81" s="3">
-        <v>1372400</v>
+        <v>1378500</v>
       </c>
       <c r="H81" s="3">
-        <v>1371200</v>
+        <v>1377300</v>
       </c>
       <c r="I81" s="3">
-        <v>1649700</v>
+        <v>1657000</v>
       </c>
       <c r="J81" s="3">
-        <v>1486600</v>
+        <v>1493200</v>
       </c>
       <c r="K81" s="3">
         <v>1335900</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>184500</v>
+        <v>185300</v>
       </c>
       <c r="E83" s="3">
-        <v>140800</v>
+        <v>141400</v>
       </c>
       <c r="F83" s="3">
-        <v>140000</v>
+        <v>140600</v>
       </c>
       <c r="G83" s="3">
-        <v>140700</v>
+        <v>141300</v>
       </c>
       <c r="H83" s="3">
-        <v>128900</v>
+        <v>129400</v>
       </c>
       <c r="I83" s="3">
-        <v>122600</v>
+        <v>123200</v>
       </c>
       <c r="J83" s="3">
-        <v>113400</v>
+        <v>113900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10717400</v>
+        <v>10765100</v>
       </c>
       <c r="E89" s="3">
-        <v>6556000</v>
+        <v>6585200</v>
       </c>
       <c r="F89" s="3">
-        <v>2610900</v>
+        <v>2622500</v>
       </c>
       <c r="G89" s="3">
-        <v>7090000</v>
+        <v>7121600</v>
       </c>
       <c r="H89" s="3">
-        <v>3185000</v>
+        <v>3199200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1653200</v>
+        <v>-1660600</v>
       </c>
       <c r="J89" s="3">
-        <v>911200</v>
+        <v>915300</v>
       </c>
       <c r="K89" s="3">
         <v>2312700</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-252400</v>
+        <v>-253500</v>
       </c>
       <c r="E91" s="3">
-        <v>-154700</v>
+        <v>-155300</v>
       </c>
       <c r="F91" s="3">
-        <v>-140400</v>
+        <v>-141000</v>
       </c>
       <c r="G91" s="3">
-        <v>-177400</v>
+        <v>-178200</v>
       </c>
       <c r="H91" s="3">
-        <v>-114300</v>
+        <v>-114800</v>
       </c>
       <c r="I91" s="3">
-        <v>-167700</v>
+        <v>-168400</v>
       </c>
       <c r="J91" s="3">
-        <v>-112800</v>
+        <v>-113300</v>
       </c>
       <c r="K91" s="3">
         <v>-82600</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5698900</v>
+        <v>-5724300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4060800</v>
+        <v>-4078900</v>
       </c>
       <c r="F94" s="3">
-        <v>-6812200</v>
+        <v>-6842600</v>
       </c>
       <c r="G94" s="3">
-        <v>-216300</v>
+        <v>-217300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1592100</v>
+        <v>-1599100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1741900</v>
+        <v>-1749700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2245100</v>
+        <v>-2255100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119400</v>
+        <v>-119900</v>
       </c>
       <c r="E96" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="F96" s="3">
-        <v>-231200</v>
+        <v>-232200</v>
       </c>
       <c r="G96" s="3">
-        <v>-461100</v>
+        <v>-463100</v>
       </c>
       <c r="H96" s="3">
-        <v>-465100</v>
+        <v>-467100</v>
       </c>
       <c r="I96" s="3">
-        <v>-415400</v>
+        <v>-417300</v>
       </c>
       <c r="J96" s="3">
-        <v>-364200</v>
+        <v>-365900</v>
       </c>
       <c r="K96" s="3">
         <v>-293400</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>403000</v>
+        <v>404800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2693700</v>
+        <v>-2705700</v>
       </c>
       <c r="F100" s="3">
-        <v>5344400</v>
+        <v>5368200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4777700</v>
+        <v>-4799000</v>
       </c>
       <c r="H100" s="3">
-        <v>783100</v>
+        <v>786600</v>
       </c>
       <c r="I100" s="3">
-        <v>3344200</v>
+        <v>3359100</v>
       </c>
       <c r="J100" s="3">
-        <v>1060400</v>
+        <v>1065100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="E101" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="F101" s="3">
         <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="H101" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="I101" s="3">
-        <v>-32800</v>
+        <v>-32900</v>
       </c>
       <c r="J101" s="3">
-        <v>123600</v>
+        <v>124200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5450200</v>
+        <v>5474500</v>
       </c>
       <c r="E102" s="3">
-        <v>-216600</v>
+        <v>-217600</v>
       </c>
       <c r="F102" s="3">
-        <v>1146100</v>
+        <v>1151200</v>
       </c>
       <c r="G102" s="3">
-        <v>2081800</v>
+        <v>2091000</v>
       </c>
       <c r="H102" s="3">
-        <v>2343600</v>
+        <v>2354100</v>
       </c>
       <c r="I102" s="3">
-        <v>-83700</v>
+        <v>-84000</v>
       </c>
       <c r="J102" s="3">
-        <v>-149900</v>
+        <v>-150500</v>
       </c>
       <c r="K102" s="3">
         <v>1086000</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11478300</v>
+        <v>11673400</v>
       </c>
       <c r="E8" s="3">
-        <v>9739100</v>
+        <v>9904700</v>
       </c>
       <c r="F8" s="3">
-        <v>8410600</v>
+        <v>8553500</v>
       </c>
       <c r="G8" s="3">
-        <v>8245200</v>
+        <v>8385300</v>
       </c>
       <c r="H8" s="3">
-        <v>8022400</v>
+        <v>8158800</v>
       </c>
       <c r="I8" s="3">
-        <v>7436600</v>
+        <v>7563000</v>
       </c>
       <c r="J8" s="3">
-        <v>6694500</v>
+        <v>6808300</v>
       </c>
       <c r="K8" s="3">
         <v>5933700</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-158500</v>
+        <v>-161200</v>
       </c>
       <c r="E15" s="3">
-        <v>-128000</v>
+        <v>-130100</v>
       </c>
       <c r="F15" s="3">
-        <v>-124800</v>
+        <v>-126900</v>
       </c>
       <c r="G15" s="3">
-        <v>-123300</v>
+        <v>-125400</v>
       </c>
       <c r="H15" s="3">
-        <v>-114100</v>
+        <v>-116000</v>
       </c>
       <c r="I15" s="3">
-        <v>-108000</v>
+        <v>-109800</v>
       </c>
       <c r="J15" s="3">
-        <v>-97300</v>
+        <v>-99000</v>
       </c>
       <c r="K15" s="3">
         <v>-82700</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7460600</v>
+        <v>7587400</v>
       </c>
       <c r="E17" s="3">
-        <v>8020600</v>
+        <v>8157000</v>
       </c>
       <c r="F17" s="3">
-        <v>6803700</v>
+        <v>6919400</v>
       </c>
       <c r="G17" s="3">
-        <v>6843600</v>
+        <v>6960000</v>
       </c>
       <c r="H17" s="3">
-        <v>5644100</v>
+        <v>5740000</v>
       </c>
       <c r="I17" s="3">
-        <v>4863900</v>
+        <v>4946600</v>
       </c>
       <c r="J17" s="3">
-        <v>4355600</v>
+        <v>4429700</v>
       </c>
       <c r="K17" s="3">
         <v>3944400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4017700</v>
+        <v>4086000</v>
       </c>
       <c r="E18" s="3">
-        <v>1718500</v>
+        <v>1747700</v>
       </c>
       <c r="F18" s="3">
-        <v>1606900</v>
+        <v>1634200</v>
       </c>
       <c r="G18" s="3">
-        <v>1401500</v>
+        <v>1425400</v>
       </c>
       <c r="H18" s="3">
-        <v>2378400</v>
+        <v>2418800</v>
       </c>
       <c r="I18" s="3">
-        <v>2572700</v>
+        <v>2616500</v>
       </c>
       <c r="J18" s="3">
-        <v>2338900</v>
+        <v>2378700</v>
       </c>
       <c r="K18" s="3">
         <v>1989300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1502700</v>
+        <v>-1528200</v>
       </c>
       <c r="E20" s="3">
-        <v>-716200</v>
+        <v>-728300</v>
       </c>
       <c r="F20" s="3">
-        <v>-121500</v>
+        <v>-123500</v>
       </c>
       <c r="G20" s="3">
-        <v>466900</v>
+        <v>474800</v>
       </c>
       <c r="H20" s="3">
-        <v>-443000</v>
+        <v>-450500</v>
       </c>
       <c r="I20" s="3">
-        <v>-92200</v>
+        <v>-93700</v>
       </c>
       <c r="J20" s="3">
-        <v>-136000</v>
+        <v>-138300</v>
       </c>
       <c r="K20" s="3">
         <v>-189200</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2700500</v>
+        <v>2746500</v>
       </c>
       <c r="E21" s="3">
-        <v>1143900</v>
+        <v>1163400</v>
       </c>
       <c r="F21" s="3">
-        <v>1626100</v>
+        <v>1653800</v>
       </c>
       <c r="G21" s="3">
-        <v>2009800</v>
+        <v>2044100</v>
       </c>
       <c r="H21" s="3">
-        <v>2064900</v>
+        <v>2100100</v>
       </c>
       <c r="I21" s="3">
-        <v>2603800</v>
+        <v>2648200</v>
       </c>
       <c r="J21" s="3">
-        <v>2316900</v>
+        <v>2356300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2515000</v>
+        <v>2557800</v>
       </c>
       <c r="E23" s="3">
-        <v>1002300</v>
+        <v>1019400</v>
       </c>
       <c r="F23" s="3">
-        <v>1485400</v>
+        <v>1510600</v>
       </c>
       <c r="G23" s="3">
-        <v>1868400</v>
+        <v>1900200</v>
       </c>
       <c r="H23" s="3">
-        <v>1935400</v>
+        <v>1968300</v>
       </c>
       <c r="I23" s="3">
-        <v>2480600</v>
+        <v>2522700</v>
       </c>
       <c r="J23" s="3">
-        <v>2202900</v>
+        <v>2240300</v>
       </c>
       <c r="K23" s="3">
         <v>1800100</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>594400</v>
+        <v>604500</v>
       </c>
       <c r="E24" s="3">
-        <v>232600</v>
+        <v>236500</v>
       </c>
       <c r="F24" s="3">
-        <v>254200</v>
+        <v>258500</v>
       </c>
       <c r="G24" s="3">
-        <v>334100</v>
+        <v>339700</v>
       </c>
       <c r="H24" s="3">
-        <v>457000</v>
+        <v>464700</v>
       </c>
       <c r="I24" s="3">
-        <v>729500</v>
+        <v>741900</v>
       </c>
       <c r="J24" s="3">
-        <v>623700</v>
+        <v>634300</v>
       </c>
       <c r="K24" s="3">
         <v>461000</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1920700</v>
+        <v>1953300</v>
       </c>
       <c r="E26" s="3">
-        <v>769700</v>
+        <v>782800</v>
       </c>
       <c r="F26" s="3">
-        <v>1231200</v>
+        <v>1252100</v>
       </c>
       <c r="G26" s="3">
-        <v>1534300</v>
+        <v>1560400</v>
       </c>
       <c r="H26" s="3">
-        <v>1478400</v>
+        <v>1503500</v>
       </c>
       <c r="I26" s="3">
-        <v>1751100</v>
+        <v>1780900</v>
       </c>
       <c r="J26" s="3">
-        <v>1579200</v>
+        <v>1606100</v>
       </c>
       <c r="K26" s="3">
         <v>1339200</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1696200</v>
+        <v>1725000</v>
       </c>
       <c r="E27" s="3">
-        <v>575600</v>
+        <v>585400</v>
       </c>
       <c r="F27" s="3">
-        <v>1043500</v>
+        <v>1061200</v>
       </c>
       <c r="G27" s="3">
-        <v>1378500</v>
+        <v>1401900</v>
       </c>
       <c r="H27" s="3">
-        <v>1377300</v>
+        <v>1400800</v>
       </c>
       <c r="I27" s="3">
-        <v>1657000</v>
+        <v>1685200</v>
       </c>
       <c r="J27" s="3">
-        <v>1493200</v>
+        <v>1518600</v>
       </c>
       <c r="K27" s="3">
         <v>1335900</v>
@@ -1354,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-401900</v>
+        <v>-408700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1502700</v>
+        <v>1528200</v>
       </c>
       <c r="E32" s="3">
-        <v>716200</v>
+        <v>728300</v>
       </c>
       <c r="F32" s="3">
-        <v>121500</v>
+        <v>123500</v>
       </c>
       <c r="G32" s="3">
-        <v>-466900</v>
+        <v>-474800</v>
       </c>
       <c r="H32" s="3">
-        <v>443000</v>
+        <v>450500</v>
       </c>
       <c r="I32" s="3">
-        <v>92200</v>
+        <v>93700</v>
       </c>
       <c r="J32" s="3">
-        <v>136000</v>
+        <v>138300</v>
       </c>
       <c r="K32" s="3">
         <v>189200</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1294300</v>
+        <v>1316300</v>
       </c>
       <c r="E33" s="3">
-        <v>575600</v>
+        <v>585400</v>
       </c>
       <c r="F33" s="3">
-        <v>1043500</v>
+        <v>1061200</v>
       </c>
       <c r="G33" s="3">
-        <v>1378500</v>
+        <v>1401900</v>
       </c>
       <c r="H33" s="3">
-        <v>1377300</v>
+        <v>1400800</v>
       </c>
       <c r="I33" s="3">
-        <v>1657000</v>
+        <v>1685200</v>
       </c>
       <c r="J33" s="3">
-        <v>1493200</v>
+        <v>1518600</v>
       </c>
       <c r="K33" s="3">
         <v>1335900</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1294300</v>
+        <v>1316300</v>
       </c>
       <c r="E35" s="3">
-        <v>575600</v>
+        <v>585400</v>
       </c>
       <c r="F35" s="3">
-        <v>1043500</v>
+        <v>1061200</v>
       </c>
       <c r="G35" s="3">
-        <v>1378500</v>
+        <v>1401900</v>
       </c>
       <c r="H35" s="3">
-        <v>1377300</v>
+        <v>1400800</v>
       </c>
       <c r="I35" s="3">
-        <v>1657000</v>
+        <v>1685200</v>
       </c>
       <c r="J35" s="3">
-        <v>1493200</v>
+        <v>1518600</v>
       </c>
       <c r="K35" s="3">
         <v>1335900</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6871700</v>
+        <v>6988500</v>
       </c>
       <c r="E41" s="3">
-        <v>7760200</v>
+        <v>7892100</v>
       </c>
       <c r="F41" s="3">
-        <v>7538400</v>
+        <v>7666600</v>
       </c>
       <c r="G41" s="3">
-        <v>7851400</v>
+        <v>7984900</v>
       </c>
       <c r="H41" s="3">
-        <v>6867200</v>
+        <v>6983900</v>
       </c>
       <c r="I41" s="3">
-        <v>6262500</v>
+        <v>6369000</v>
       </c>
       <c r="J41" s="3">
-        <v>5907400</v>
+        <v>6007800</v>
       </c>
       <c r="K41" s="3">
         <v>2554200</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70919500</v>
+        <v>72125100</v>
       </c>
       <c r="E42" s="3">
-        <v>32187600</v>
+        <v>32734800</v>
       </c>
       <c r="F42" s="3">
-        <v>30155800</v>
+        <v>30668400</v>
       </c>
       <c r="G42" s="3">
-        <v>31357800</v>
+        <v>31890900</v>
       </c>
       <c r="H42" s="3">
-        <v>20751500</v>
+        <v>21104300</v>
       </c>
       <c r="I42" s="3">
-        <v>23217800</v>
+        <v>23612500</v>
       </c>
       <c r="J42" s="3">
-        <v>21985600</v>
+        <v>22359300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94400</v>
+        <v>96000</v>
       </c>
       <c r="E47" s="3">
-        <v>98700</v>
+        <v>100400</v>
       </c>
       <c r="F47" s="3">
-        <v>67400</v>
+        <v>68500</v>
       </c>
       <c r="G47" s="3">
+        <v>51700</v>
+      </c>
+      <c r="H47" s="3">
         <v>50900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>50000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1408300</v>
+        <v>1432200</v>
       </c>
       <c r="E48" s="3">
-        <v>1307100</v>
+        <v>1329300</v>
       </c>
       <c r="F48" s="3">
-        <v>1280600</v>
+        <v>1302400</v>
       </c>
       <c r="G48" s="3">
-        <v>1263400</v>
+        <v>1284900</v>
       </c>
       <c r="H48" s="3">
-        <v>1178900</v>
+        <v>1199000</v>
       </c>
       <c r="I48" s="3">
-        <v>794400</v>
+        <v>807900</v>
       </c>
       <c r="J48" s="3">
-        <v>745100</v>
+        <v>757700</v>
       </c>
       <c r="K48" s="3">
         <v>724100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E49" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="F49" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="G49" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="H49" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="K49" s="3">
         <v>18900</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1191600</v>
+        <v>1211800</v>
       </c>
       <c r="E52" s="3">
-        <v>1479800</v>
+        <v>1505000</v>
       </c>
       <c r="F52" s="3">
-        <v>1057800</v>
+        <v>1075800</v>
       </c>
       <c r="G52" s="3">
-        <v>1518800</v>
+        <v>1544600</v>
       </c>
       <c r="H52" s="3">
-        <v>671200</v>
+        <v>682700</v>
       </c>
       <c r="I52" s="3">
-        <v>218300</v>
+        <v>222000</v>
       </c>
       <c r="J52" s="3">
-        <v>125800</v>
+        <v>127900</v>
       </c>
       <c r="K52" s="3">
         <v>354600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>186348000</v>
+        <v>189515000</v>
       </c>
       <c r="E54" s="3">
-        <v>167609000</v>
+        <v>170458000</v>
       </c>
       <c r="F54" s="3">
-        <v>152115000</v>
+        <v>154701000</v>
       </c>
       <c r="G54" s="3">
-        <v>133369000</v>
+        <v>135636000</v>
       </c>
       <c r="H54" s="3">
-        <v>124308000</v>
+        <v>126421000</v>
       </c>
       <c r="I54" s="3">
-        <v>111769000</v>
+        <v>113669000</v>
       </c>
       <c r="J54" s="3">
-        <v>101172000</v>
+        <v>102892000</v>
       </c>
       <c r="K54" s="3">
         <v>89278900</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5157700</v>
+        <v>5245400</v>
       </c>
       <c r="E57" s="3">
-        <v>5054800</v>
+        <v>5140700</v>
       </c>
       <c r="F57" s="3">
-        <v>4265000</v>
+        <v>4337500</v>
       </c>
       <c r="G57" s="3">
-        <v>3587600</v>
+        <v>3648600</v>
       </c>
       <c r="H57" s="3">
-        <v>2700300</v>
+        <v>2746200</v>
       </c>
       <c r="I57" s="3">
-        <v>2396200</v>
+        <v>2436900</v>
       </c>
       <c r="J57" s="3">
-        <v>2597300</v>
+        <v>2641500</v>
       </c>
       <c r="K57" s="3">
         <v>2609300</v>
@@ -2214,22 +2214,22 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G59" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="H59" s="3">
-        <v>444600</v>
+        <v>452200</v>
       </c>
       <c r="I59" s="3">
-        <v>442400</v>
+        <v>449900</v>
       </c>
       <c r="J59" s="3">
-        <v>400800</v>
+        <v>407600</v>
       </c>
       <c r="K59" s="3">
         <v>349000</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28496200</v>
+        <v>28980600</v>
       </c>
       <c r="E61" s="3">
-        <v>28198500</v>
+        <v>28677800</v>
       </c>
       <c r="F61" s="3">
-        <v>30863500</v>
+        <v>31388200</v>
       </c>
       <c r="G61" s="3">
-        <v>25311900</v>
+        <v>25742200</v>
       </c>
       <c r="H61" s="3">
-        <v>29699400</v>
+        <v>30204200</v>
       </c>
       <c r="I61" s="3">
-        <v>28582400</v>
+        <v>29068300</v>
       </c>
       <c r="J61" s="3">
-        <v>24833200</v>
+        <v>25255400</v>
       </c>
       <c r="K61" s="3">
         <v>22873100</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>896200</v>
+        <v>911400</v>
       </c>
       <c r="E62" s="3">
-        <v>426100</v>
+        <v>433400</v>
       </c>
       <c r="F62" s="3">
-        <v>386600</v>
+        <v>393200</v>
       </c>
       <c r="G62" s="3">
-        <v>345300</v>
+        <v>351100</v>
       </c>
       <c r="H62" s="3">
-        <v>394800</v>
+        <v>401500</v>
       </c>
       <c r="I62" s="3">
-        <v>345100</v>
+        <v>351000</v>
       </c>
       <c r="J62" s="3">
-        <v>290100</v>
+        <v>295100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169711000</v>
+        <v>172596000</v>
       </c>
       <c r="E66" s="3">
-        <v>152150000</v>
+        <v>154737000</v>
       </c>
       <c r="F66" s="3">
-        <v>137147000</v>
+        <v>139478000</v>
       </c>
       <c r="G66" s="3">
-        <v>119212000</v>
+        <v>121238000</v>
       </c>
       <c r="H66" s="3">
-        <v>111575000</v>
+        <v>113471000</v>
       </c>
       <c r="I66" s="3">
-        <v>100308000</v>
+        <v>102013000</v>
       </c>
       <c r="J66" s="3">
-        <v>90831300</v>
+        <v>92375400</v>
       </c>
       <c r="K66" s="3">
         <v>80181600</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10959700</v>
+        <v>11146100</v>
       </c>
       <c r="E72" s="3">
-        <v>9981700</v>
+        <v>10151400</v>
       </c>
       <c r="F72" s="3">
-        <v>9697800</v>
+        <v>9862700</v>
       </c>
       <c r="G72" s="3">
-        <v>8939800</v>
+        <v>9091800</v>
       </c>
       <c r="H72" s="3">
-        <v>7564200</v>
+        <v>7692800</v>
       </c>
       <c r="I72" s="3">
-        <v>6674200</v>
+        <v>6787600</v>
       </c>
       <c r="J72" s="3">
-        <v>5552800</v>
+        <v>5647200</v>
       </c>
       <c r="K72" s="3">
         <v>4568300</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16636500</v>
+        <v>16919300</v>
       </c>
       <c r="E76" s="3">
-        <v>15458500</v>
+        <v>15721300</v>
       </c>
       <c r="F76" s="3">
-        <v>14968200</v>
+        <v>15222600</v>
       </c>
       <c r="G76" s="3">
-        <v>14156700</v>
+        <v>14397400</v>
       </c>
       <c r="H76" s="3">
-        <v>12733200</v>
+        <v>12949600</v>
       </c>
       <c r="I76" s="3">
-        <v>11460500</v>
+        <v>11655300</v>
       </c>
       <c r="J76" s="3">
-        <v>10341000</v>
+        <v>10516700</v>
       </c>
       <c r="K76" s="3">
         <v>9097300</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1294300</v>
+        <v>1316300</v>
       </c>
       <c r="E81" s="3">
-        <v>575600</v>
+        <v>585400</v>
       </c>
       <c r="F81" s="3">
-        <v>1043500</v>
+        <v>1061200</v>
       </c>
       <c r="G81" s="3">
-        <v>1378500</v>
+        <v>1401900</v>
       </c>
       <c r="H81" s="3">
-        <v>1377300</v>
+        <v>1400800</v>
       </c>
       <c r="I81" s="3">
-        <v>1657000</v>
+        <v>1685200</v>
       </c>
       <c r="J81" s="3">
-        <v>1493200</v>
+        <v>1518600</v>
       </c>
       <c r="K81" s="3">
         <v>1335900</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185300</v>
+        <v>188500</v>
       </c>
       <c r="E83" s="3">
-        <v>141400</v>
+        <v>143800</v>
       </c>
       <c r="F83" s="3">
-        <v>140600</v>
+        <v>143000</v>
       </c>
       <c r="G83" s="3">
-        <v>141300</v>
+        <v>143700</v>
       </c>
       <c r="H83" s="3">
-        <v>129400</v>
+        <v>131600</v>
       </c>
       <c r="I83" s="3">
-        <v>123200</v>
+        <v>125300</v>
       </c>
       <c r="J83" s="3">
-        <v>113900</v>
+        <v>115800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10765100</v>
+        <v>10948100</v>
       </c>
       <c r="E89" s="3">
-        <v>6585200</v>
+        <v>6697100</v>
       </c>
       <c r="F89" s="3">
-        <v>2622500</v>
+        <v>2667100</v>
       </c>
       <c r="G89" s="3">
-        <v>7121600</v>
+        <v>7242600</v>
       </c>
       <c r="H89" s="3">
-        <v>3199200</v>
+        <v>3253600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1660600</v>
+        <v>-1688800</v>
       </c>
       <c r="J89" s="3">
-        <v>915300</v>
+        <v>930800</v>
       </c>
       <c r="K89" s="3">
         <v>2312700</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-253500</v>
+        <v>-257800</v>
       </c>
       <c r="E91" s="3">
-        <v>-155300</v>
+        <v>-158000</v>
       </c>
       <c r="F91" s="3">
-        <v>-141000</v>
+        <v>-143400</v>
       </c>
       <c r="G91" s="3">
-        <v>-178200</v>
+        <v>-181200</v>
       </c>
       <c r="H91" s="3">
-        <v>-114800</v>
+        <v>-116700</v>
       </c>
       <c r="I91" s="3">
-        <v>-168400</v>
+        <v>-171300</v>
       </c>
       <c r="J91" s="3">
-        <v>-113300</v>
+        <v>-115200</v>
       </c>
       <c r="K91" s="3">
         <v>-82600</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5724300</v>
+        <v>-5821600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4078900</v>
+        <v>-4148300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6842600</v>
+        <v>-6958900</v>
       </c>
       <c r="G94" s="3">
-        <v>-217300</v>
+        <v>-220900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1599100</v>
+        <v>-1626300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1749700</v>
+        <v>-1779400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2255100</v>
+        <v>-2293500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119900</v>
+        <v>-122000</v>
       </c>
       <c r="E96" s="3">
-        <v>-158100</v>
+        <v>-160800</v>
       </c>
       <c r="F96" s="3">
-        <v>-232200</v>
+        <v>-236100</v>
       </c>
       <c r="G96" s="3">
-        <v>-463100</v>
+        <v>-471000</v>
       </c>
       <c r="H96" s="3">
-        <v>-467100</v>
+        <v>-475100</v>
       </c>
       <c r="I96" s="3">
-        <v>-417300</v>
+        <v>-424400</v>
       </c>
       <c r="J96" s="3">
-        <v>-365900</v>
+        <v>-372100</v>
       </c>
       <c r="K96" s="3">
         <v>-293400</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>404800</v>
+        <v>411700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2705700</v>
+        <v>-2751600</v>
       </c>
       <c r="F100" s="3">
-        <v>5368200</v>
+        <v>5459400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4799000</v>
+        <v>-4880600</v>
       </c>
       <c r="H100" s="3">
-        <v>786600</v>
+        <v>800000</v>
       </c>
       <c r="I100" s="3">
-        <v>3359100</v>
+        <v>3416200</v>
       </c>
       <c r="J100" s="3">
-        <v>1065100</v>
+        <v>1083200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="E101" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F101" s="3">
         <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="H101" s="3">
-        <v>-32600</v>
+        <v>-33200</v>
       </c>
       <c r="I101" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="J101" s="3">
-        <v>124200</v>
+        <v>126300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5474500</v>
+        <v>5567600</v>
       </c>
       <c r="E102" s="3">
-        <v>-217600</v>
+        <v>-221300</v>
       </c>
       <c r="F102" s="3">
-        <v>1151200</v>
+        <v>1170700</v>
       </c>
       <c r="G102" s="3">
-        <v>2091000</v>
+        <v>2126600</v>
       </c>
       <c r="H102" s="3">
-        <v>2354100</v>
+        <v>2394100</v>
       </c>
       <c r="I102" s="3">
-        <v>-84000</v>
+        <v>-85500</v>
       </c>
       <c r="J102" s="3">
-        <v>-150500</v>
+        <v>-153100</v>
       </c>
       <c r="K102" s="3">
         <v>1086000</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11673400</v>
+        <v>11656400</v>
       </c>
       <c r="E8" s="3">
-        <v>9904700</v>
+        <v>9890300</v>
       </c>
       <c r="F8" s="3">
-        <v>8553500</v>
+        <v>8541100</v>
       </c>
       <c r="G8" s="3">
-        <v>8385300</v>
+        <v>8373200</v>
       </c>
       <c r="H8" s="3">
-        <v>8158800</v>
+        <v>8147000</v>
       </c>
       <c r="I8" s="3">
-        <v>7563000</v>
+        <v>7552100</v>
       </c>
       <c r="J8" s="3">
-        <v>6808300</v>
+        <v>6798400</v>
       </c>
       <c r="K8" s="3">
         <v>5933700</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-161200</v>
+        <v>-160900</v>
       </c>
       <c r="E15" s="3">
-        <v>-130100</v>
+        <v>-130000</v>
       </c>
       <c r="F15" s="3">
-        <v>-126900</v>
+        <v>-126700</v>
       </c>
       <c r="G15" s="3">
-        <v>-125400</v>
+        <v>-125300</v>
       </c>
       <c r="H15" s="3">
-        <v>-116000</v>
+        <v>-115800</v>
       </c>
       <c r="I15" s="3">
-        <v>-109800</v>
+        <v>-109700</v>
       </c>
       <c r="J15" s="3">
-        <v>-99000</v>
+        <v>-98800</v>
       </c>
       <c r="K15" s="3">
         <v>-82700</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7587400</v>
+        <v>7576400</v>
       </c>
       <c r="E17" s="3">
-        <v>8157000</v>
+        <v>8145100</v>
       </c>
       <c r="F17" s="3">
-        <v>6919400</v>
+        <v>6909300</v>
       </c>
       <c r="G17" s="3">
-        <v>6960000</v>
+        <v>6949900</v>
       </c>
       <c r="H17" s="3">
-        <v>5740000</v>
+        <v>5731700</v>
       </c>
       <c r="I17" s="3">
-        <v>4946600</v>
+        <v>4939400</v>
       </c>
       <c r="J17" s="3">
-        <v>4429700</v>
+        <v>4423200</v>
       </c>
       <c r="K17" s="3">
         <v>3944400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4086000</v>
+        <v>4080100</v>
       </c>
       <c r="E18" s="3">
-        <v>1747700</v>
+        <v>1745200</v>
       </c>
       <c r="F18" s="3">
-        <v>1634200</v>
+        <v>1631800</v>
       </c>
       <c r="G18" s="3">
-        <v>1425400</v>
+        <v>1423300</v>
       </c>
       <c r="H18" s="3">
-        <v>2418800</v>
+        <v>2415300</v>
       </c>
       <c r="I18" s="3">
-        <v>2616500</v>
+        <v>2612700</v>
       </c>
       <c r="J18" s="3">
-        <v>2378700</v>
+        <v>2375200</v>
       </c>
       <c r="K18" s="3">
         <v>1989300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1528200</v>
+        <v>-1526000</v>
       </c>
       <c r="E20" s="3">
-        <v>-728300</v>
+        <v>-727300</v>
       </c>
       <c r="F20" s="3">
-        <v>-123500</v>
+        <v>-123400</v>
       </c>
       <c r="G20" s="3">
-        <v>474800</v>
+        <v>474100</v>
       </c>
       <c r="H20" s="3">
-        <v>-450500</v>
+        <v>-449800</v>
       </c>
       <c r="I20" s="3">
-        <v>-93700</v>
+        <v>-93600</v>
       </c>
       <c r="J20" s="3">
-        <v>-138300</v>
+        <v>-138100</v>
       </c>
       <c r="K20" s="3">
         <v>-189200</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2746500</v>
+        <v>2742100</v>
       </c>
       <c r="E21" s="3">
-        <v>1163400</v>
+        <v>1161400</v>
       </c>
       <c r="F21" s="3">
-        <v>1653800</v>
+        <v>1651100</v>
       </c>
       <c r="G21" s="3">
-        <v>2044100</v>
+        <v>2040800</v>
       </c>
       <c r="H21" s="3">
-        <v>2100100</v>
+        <v>2096800</v>
       </c>
       <c r="I21" s="3">
-        <v>2648200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2356300</v>
+        <v>2644100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2557800</v>
+        <v>2554100</v>
       </c>
       <c r="E23" s="3">
-        <v>1019400</v>
+        <v>1017900</v>
       </c>
       <c r="F23" s="3">
-        <v>1510600</v>
+        <v>1508400</v>
       </c>
       <c r="G23" s="3">
-        <v>1900200</v>
+        <v>1897400</v>
       </c>
       <c r="H23" s="3">
-        <v>1968300</v>
+        <v>1965400</v>
       </c>
       <c r="I23" s="3">
-        <v>2522700</v>
+        <v>2519100</v>
       </c>
       <c r="J23" s="3">
-        <v>2240300</v>
+        <v>2237100</v>
       </c>
       <c r="K23" s="3">
         <v>1800100</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>604500</v>
+        <v>603600</v>
       </c>
       <c r="E24" s="3">
-        <v>236500</v>
+        <v>236200</v>
       </c>
       <c r="F24" s="3">
-        <v>258500</v>
+        <v>258200</v>
       </c>
       <c r="G24" s="3">
-        <v>339700</v>
+        <v>339200</v>
       </c>
       <c r="H24" s="3">
-        <v>464700</v>
+        <v>464100</v>
       </c>
       <c r="I24" s="3">
-        <v>741900</v>
+        <v>740800</v>
       </c>
       <c r="J24" s="3">
-        <v>634300</v>
+        <v>633300</v>
       </c>
       <c r="K24" s="3">
         <v>461000</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1953300</v>
+        <v>1950500</v>
       </c>
       <c r="E26" s="3">
-        <v>782800</v>
+        <v>781700</v>
       </c>
       <c r="F26" s="3">
-        <v>1252100</v>
+        <v>1250300</v>
       </c>
       <c r="G26" s="3">
-        <v>1560400</v>
+        <v>1558200</v>
       </c>
       <c r="H26" s="3">
-        <v>1503500</v>
+        <v>1501400</v>
       </c>
       <c r="I26" s="3">
-        <v>1780900</v>
+        <v>1778300</v>
       </c>
       <c r="J26" s="3">
-        <v>1606100</v>
+        <v>1603700</v>
       </c>
       <c r="K26" s="3">
         <v>1339200</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1725000</v>
+        <v>1722500</v>
       </c>
       <c r="E27" s="3">
-        <v>585400</v>
+        <v>584500</v>
       </c>
       <c r="F27" s="3">
-        <v>1061200</v>
+        <v>1059700</v>
       </c>
       <c r="G27" s="3">
-        <v>1401900</v>
+        <v>1399900</v>
       </c>
       <c r="H27" s="3">
-        <v>1400800</v>
+        <v>1398700</v>
       </c>
       <c r="I27" s="3">
-        <v>1685200</v>
+        <v>1682700</v>
       </c>
       <c r="J27" s="3">
-        <v>1518600</v>
+        <v>1516400</v>
       </c>
       <c r="K27" s="3">
         <v>1335900</v>
@@ -1354,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-408700</v>
+        <v>-408100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1528200</v>
+        <v>1526000</v>
       </c>
       <c r="E32" s="3">
-        <v>728300</v>
+        <v>727300</v>
       </c>
       <c r="F32" s="3">
-        <v>123500</v>
+        <v>123400</v>
       </c>
       <c r="G32" s="3">
-        <v>-474800</v>
+        <v>-474100</v>
       </c>
       <c r="H32" s="3">
-        <v>450500</v>
+        <v>449800</v>
       </c>
       <c r="I32" s="3">
-        <v>93700</v>
+        <v>93600</v>
       </c>
       <c r="J32" s="3">
-        <v>138300</v>
+        <v>138100</v>
       </c>
       <c r="K32" s="3">
         <v>189200</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1316300</v>
+        <v>1314400</v>
       </c>
       <c r="E33" s="3">
-        <v>585400</v>
+        <v>584500</v>
       </c>
       <c r="F33" s="3">
-        <v>1061200</v>
+        <v>1059700</v>
       </c>
       <c r="G33" s="3">
-        <v>1401900</v>
+        <v>1399900</v>
       </c>
       <c r="H33" s="3">
-        <v>1400800</v>
+        <v>1398700</v>
       </c>
       <c r="I33" s="3">
-        <v>1685200</v>
+        <v>1682700</v>
       </c>
       <c r="J33" s="3">
-        <v>1518600</v>
+        <v>1516400</v>
       </c>
       <c r="K33" s="3">
         <v>1335900</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1316300</v>
+        <v>1314400</v>
       </c>
       <c r="E35" s="3">
-        <v>585400</v>
+        <v>584500</v>
       </c>
       <c r="F35" s="3">
-        <v>1061200</v>
+        <v>1059700</v>
       </c>
       <c r="G35" s="3">
-        <v>1401900</v>
+        <v>1399900</v>
       </c>
       <c r="H35" s="3">
-        <v>1400800</v>
+        <v>1398700</v>
       </c>
       <c r="I35" s="3">
-        <v>1685200</v>
+        <v>1682700</v>
       </c>
       <c r="J35" s="3">
-        <v>1518600</v>
+        <v>1516400</v>
       </c>
       <c r="K35" s="3">
         <v>1335900</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6988500</v>
+        <v>6978400</v>
       </c>
       <c r="E41" s="3">
-        <v>7892100</v>
+        <v>7880600</v>
       </c>
       <c r="F41" s="3">
-        <v>7666600</v>
+        <v>7655400</v>
       </c>
       <c r="G41" s="3">
-        <v>7984900</v>
+        <v>7973300</v>
       </c>
       <c r="H41" s="3">
-        <v>6983900</v>
+        <v>6973800</v>
       </c>
       <c r="I41" s="3">
-        <v>6369000</v>
+        <v>6359700</v>
       </c>
       <c r="J41" s="3">
-        <v>6007800</v>
+        <v>5999100</v>
       </c>
       <c r="K41" s="3">
         <v>2554200</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72125100</v>
+        <v>72020300</v>
       </c>
       <c r="E42" s="3">
-        <v>32734800</v>
+        <v>32687200</v>
       </c>
       <c r="F42" s="3">
-        <v>30668400</v>
+        <v>30623800</v>
       </c>
       <c r="G42" s="3">
-        <v>31890900</v>
+        <v>31844500</v>
       </c>
       <c r="H42" s="3">
-        <v>21104300</v>
+        <v>21073600</v>
       </c>
       <c r="I42" s="3">
-        <v>23612500</v>
+        <v>23578200</v>
       </c>
       <c r="J42" s="3">
-        <v>22359300</v>
+        <v>22326800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="E47" s="3">
-        <v>100400</v>
+        <v>100200</v>
       </c>
       <c r="F47" s="3">
-        <v>68500</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
         <v>51700</v>
       </c>
       <c r="H47" s="3">
-        <v>50900</v>
+        <v>50800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1432200</v>
+        <v>1430100</v>
       </c>
       <c r="E48" s="3">
-        <v>1329300</v>
+        <v>1327300</v>
       </c>
       <c r="F48" s="3">
-        <v>1302400</v>
+        <v>1300500</v>
       </c>
       <c r="G48" s="3">
-        <v>1284900</v>
+        <v>1283000</v>
       </c>
       <c r="H48" s="3">
-        <v>1199000</v>
+        <v>1197200</v>
       </c>
       <c r="I48" s="3">
-        <v>807900</v>
+        <v>806700</v>
       </c>
       <c r="J48" s="3">
-        <v>757700</v>
+        <v>756600</v>
       </c>
       <c r="K48" s="3">
         <v>724100</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1211800</v>
+        <v>1210100</v>
       </c>
       <c r="E52" s="3">
-        <v>1505000</v>
+        <v>1502800</v>
       </c>
       <c r="F52" s="3">
-        <v>1075800</v>
+        <v>1074200</v>
       </c>
       <c r="G52" s="3">
-        <v>1544600</v>
+        <v>1542400</v>
       </c>
       <c r="H52" s="3">
-        <v>682700</v>
+        <v>681700</v>
       </c>
       <c r="I52" s="3">
-        <v>222000</v>
+        <v>221700</v>
       </c>
       <c r="J52" s="3">
-        <v>127900</v>
+        <v>127800</v>
       </c>
       <c r="K52" s="3">
         <v>354600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189515000</v>
+        <v>189240000</v>
       </c>
       <c r="E54" s="3">
-        <v>170458000</v>
+        <v>170210000</v>
       </c>
       <c r="F54" s="3">
-        <v>154701000</v>
+        <v>154476000</v>
       </c>
       <c r="G54" s="3">
-        <v>135636000</v>
+        <v>135439000</v>
       </c>
       <c r="H54" s="3">
-        <v>126421000</v>
+        <v>126237000</v>
       </c>
       <c r="I54" s="3">
-        <v>113669000</v>
+        <v>113503000</v>
       </c>
       <c r="J54" s="3">
-        <v>102892000</v>
+        <v>102743000</v>
       </c>
       <c r="K54" s="3">
         <v>89278900</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5245400</v>
+        <v>5237700</v>
       </c>
       <c r="E57" s="3">
-        <v>5140700</v>
+        <v>5133300</v>
       </c>
       <c r="F57" s="3">
-        <v>4337500</v>
+        <v>4331200</v>
       </c>
       <c r="G57" s="3">
-        <v>3648600</v>
+        <v>3643300</v>
       </c>
       <c r="H57" s="3">
-        <v>2746200</v>
+        <v>2742200</v>
       </c>
       <c r="I57" s="3">
-        <v>2436900</v>
+        <v>2433400</v>
       </c>
       <c r="J57" s="3">
-        <v>2641500</v>
+        <v>2637600</v>
       </c>
       <c r="K57" s="3">
         <v>2609300</v>
@@ -2217,19 +2217,19 @@
         <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G59" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H59" s="3">
-        <v>452200</v>
+        <v>451500</v>
       </c>
       <c r="I59" s="3">
-        <v>449900</v>
+        <v>449300</v>
       </c>
       <c r="J59" s="3">
-        <v>407600</v>
+        <v>407000</v>
       </c>
       <c r="K59" s="3">
         <v>349000</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28980600</v>
+        <v>28938400</v>
       </c>
       <c r="E61" s="3">
-        <v>28677800</v>
+        <v>28636200</v>
       </c>
       <c r="F61" s="3">
-        <v>31388200</v>
+        <v>31342500</v>
       </c>
       <c r="G61" s="3">
-        <v>25742200</v>
+        <v>25704700</v>
       </c>
       <c r="H61" s="3">
-        <v>30204200</v>
+        <v>30160300</v>
       </c>
       <c r="I61" s="3">
-        <v>29068300</v>
+        <v>29026000</v>
       </c>
       <c r="J61" s="3">
-        <v>25255400</v>
+        <v>25218700</v>
       </c>
       <c r="K61" s="3">
         <v>22873100</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>911400</v>
+        <v>910100</v>
       </c>
       <c r="E62" s="3">
-        <v>433400</v>
+        <v>432800</v>
       </c>
       <c r="F62" s="3">
-        <v>393200</v>
+        <v>392600</v>
       </c>
       <c r="G62" s="3">
-        <v>351100</v>
+        <v>350600</v>
       </c>
       <c r="H62" s="3">
-        <v>401500</v>
+        <v>400900</v>
       </c>
       <c r="I62" s="3">
-        <v>351000</v>
+        <v>350500</v>
       </c>
       <c r="J62" s="3">
-        <v>295100</v>
+        <v>294600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>172596000</v>
+        <v>172345000</v>
       </c>
       <c r="E66" s="3">
-        <v>154737000</v>
+        <v>154512000</v>
       </c>
       <c r="F66" s="3">
-        <v>139478000</v>
+        <v>139276000</v>
       </c>
       <c r="G66" s="3">
-        <v>121238000</v>
+        <v>121062000</v>
       </c>
       <c r="H66" s="3">
-        <v>113471000</v>
+        <v>113306000</v>
       </c>
       <c r="I66" s="3">
-        <v>102013000</v>
+        <v>101865000</v>
       </c>
       <c r="J66" s="3">
-        <v>92375400</v>
+        <v>92241100</v>
       </c>
       <c r="K66" s="3">
         <v>80181600</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11146100</v>
+        <v>11129900</v>
       </c>
       <c r="E72" s="3">
-        <v>10151400</v>
+        <v>10136700</v>
       </c>
       <c r="F72" s="3">
-        <v>9862700</v>
+        <v>9848400</v>
       </c>
       <c r="G72" s="3">
-        <v>9091800</v>
+        <v>9078600</v>
       </c>
       <c r="H72" s="3">
-        <v>7692800</v>
+        <v>7681600</v>
       </c>
       <c r="I72" s="3">
-        <v>6787600</v>
+        <v>6777700</v>
       </c>
       <c r="J72" s="3">
-        <v>5647200</v>
+        <v>5639000</v>
       </c>
       <c r="K72" s="3">
         <v>4568300</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16919300</v>
+        <v>16894700</v>
       </c>
       <c r="E76" s="3">
-        <v>15721300</v>
+        <v>15698400</v>
       </c>
       <c r="F76" s="3">
-        <v>15222600</v>
+        <v>15200500</v>
       </c>
       <c r="G76" s="3">
-        <v>14397400</v>
+        <v>14376400</v>
       </c>
       <c r="H76" s="3">
-        <v>12949600</v>
+        <v>12930800</v>
       </c>
       <c r="I76" s="3">
-        <v>11655300</v>
+        <v>11638400</v>
       </c>
       <c r="J76" s="3">
-        <v>10516700</v>
+        <v>10501500</v>
       </c>
       <c r="K76" s="3">
         <v>9097300</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1316300</v>
+        <v>1314400</v>
       </c>
       <c r="E81" s="3">
-        <v>585400</v>
+        <v>584500</v>
       </c>
       <c r="F81" s="3">
-        <v>1061200</v>
+        <v>1059700</v>
       </c>
       <c r="G81" s="3">
-        <v>1401900</v>
+        <v>1399900</v>
       </c>
       <c r="H81" s="3">
-        <v>1400800</v>
+        <v>1398700</v>
       </c>
       <c r="I81" s="3">
-        <v>1685200</v>
+        <v>1682700</v>
       </c>
       <c r="J81" s="3">
-        <v>1518600</v>
+        <v>1516400</v>
       </c>
       <c r="K81" s="3">
         <v>1335900</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188500</v>
+        <v>188200</v>
       </c>
       <c r="E83" s="3">
-        <v>143800</v>
+        <v>143600</v>
       </c>
       <c r="F83" s="3">
-        <v>143000</v>
+        <v>142800</v>
       </c>
       <c r="G83" s="3">
-        <v>143700</v>
+        <v>143500</v>
       </c>
       <c r="H83" s="3">
-        <v>131600</v>
+        <v>131500</v>
       </c>
       <c r="I83" s="3">
-        <v>125300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>115800</v>
+        <v>125100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10948100</v>
+        <v>10932200</v>
       </c>
       <c r="E89" s="3">
-        <v>6697100</v>
+        <v>6687400</v>
       </c>
       <c r="F89" s="3">
-        <v>2667100</v>
+        <v>2663200</v>
       </c>
       <c r="G89" s="3">
-        <v>7242600</v>
+        <v>7232100</v>
       </c>
       <c r="H89" s="3">
-        <v>3253600</v>
+        <v>3248900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1688800</v>
+        <v>-1686300</v>
       </c>
       <c r="J89" s="3">
-        <v>930800</v>
+        <v>929500</v>
       </c>
       <c r="K89" s="3">
         <v>2312700</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257800</v>
+        <v>-257400</v>
       </c>
       <c r="E91" s="3">
-        <v>-158000</v>
+        <v>-157800</v>
       </c>
       <c r="F91" s="3">
-        <v>-143400</v>
+        <v>-143200</v>
       </c>
       <c r="G91" s="3">
-        <v>-181200</v>
+        <v>-180900</v>
       </c>
       <c r="H91" s="3">
-        <v>-116700</v>
+        <v>-116600</v>
       </c>
       <c r="I91" s="3">
-        <v>-171300</v>
+        <v>-171000</v>
       </c>
       <c r="J91" s="3">
-        <v>-115200</v>
+        <v>-115100</v>
       </c>
       <c r="K91" s="3">
         <v>-82600</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5821600</v>
+        <v>-5813200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4148300</v>
+        <v>-4142200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6958900</v>
+        <v>-6948800</v>
       </c>
       <c r="G94" s="3">
-        <v>-220900</v>
+        <v>-220600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1626300</v>
+        <v>-1624000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1779400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2293500</v>
+        <v>-1776800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-122000</v>
+        <v>-121800</v>
       </c>
       <c r="E96" s="3">
-        <v>-160800</v>
+        <v>-160600</v>
       </c>
       <c r="F96" s="3">
-        <v>-236100</v>
+        <v>-235800</v>
       </c>
       <c r="G96" s="3">
-        <v>-471000</v>
+        <v>-470300</v>
       </c>
       <c r="H96" s="3">
-        <v>-475100</v>
+        <v>-474400</v>
       </c>
       <c r="I96" s="3">
-        <v>-424400</v>
+        <v>-423800</v>
       </c>
       <c r="J96" s="3">
-        <v>-372100</v>
+        <v>-371500</v>
       </c>
       <c r="K96" s="3">
         <v>-293400</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>411700</v>
+        <v>411100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2751600</v>
+        <v>-2747600</v>
       </c>
       <c r="F100" s="3">
-        <v>5459400</v>
+        <v>5451500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4880600</v>
+        <v>-4873500</v>
       </c>
       <c r="H100" s="3">
-        <v>800000</v>
+        <v>798800</v>
       </c>
       <c r="I100" s="3">
-        <v>3416200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1083200</v>
+        <v>3411300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="E101" s="3">
         <v>-18500</v>
@@ -3476,13 +3476,13 @@
         <v>-14500</v>
       </c>
       <c r="H101" s="3">
-        <v>-33200</v>
+        <v>-33100</v>
       </c>
       <c r="I101" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>126300</v>
+        <v>-33400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5567600</v>
+        <v>5559500</v>
       </c>
       <c r="E102" s="3">
-        <v>-221300</v>
+        <v>-221000</v>
       </c>
       <c r="F102" s="3">
-        <v>1170700</v>
+        <v>1169000</v>
       </c>
       <c r="G102" s="3">
-        <v>2126600</v>
+        <v>2123500</v>
       </c>
       <c r="H102" s="3">
-        <v>2394100</v>
+        <v>2390600</v>
       </c>
       <c r="I102" s="3">
-        <v>-85500</v>
+        <v>-85300</v>
       </c>
       <c r="J102" s="3">
-        <v>-153100</v>
+        <v>-152900</v>
       </c>
       <c r="K102" s="3">
         <v>1086000</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,94 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11656400</v>
+        <v>11992400</v>
       </c>
       <c r="E8" s="3">
-        <v>9890300</v>
+        <v>11410400</v>
       </c>
       <c r="F8" s="3">
-        <v>8541100</v>
+        <v>9681500</v>
       </c>
       <c r="G8" s="3">
-        <v>8373200</v>
+        <v>8360800</v>
       </c>
       <c r="H8" s="3">
-        <v>8147000</v>
+        <v>8196400</v>
       </c>
       <c r="I8" s="3">
-        <v>7552100</v>
+        <v>7975000</v>
       </c>
       <c r="J8" s="3">
+        <v>7392700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6798400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5933700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5494100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-160900</v>
+        <v>-180200</v>
       </c>
       <c r="E15" s="3">
-        <v>-130000</v>
+        <v>-157500</v>
       </c>
       <c r="F15" s="3">
-        <v>-126700</v>
+        <v>-127200</v>
       </c>
       <c r="G15" s="3">
-        <v>-125300</v>
+        <v>-124000</v>
       </c>
       <c r="H15" s="3">
-        <v>-115800</v>
+        <v>-122600</v>
       </c>
       <c r="I15" s="3">
-        <v>-109700</v>
+        <v>-113400</v>
       </c>
       <c r="J15" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-98800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-82700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-97100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7576400</v>
+        <v>7327800</v>
       </c>
       <c r="E17" s="3">
-        <v>8145100</v>
+        <v>7416500</v>
       </c>
       <c r="F17" s="3">
-        <v>6909300</v>
+        <v>7973200</v>
       </c>
       <c r="G17" s="3">
-        <v>6949900</v>
+        <v>6763500</v>
       </c>
       <c r="H17" s="3">
-        <v>5731700</v>
+        <v>6803200</v>
       </c>
       <c r="I17" s="3">
-        <v>4939400</v>
+        <v>5610700</v>
       </c>
       <c r="J17" s="3">
+        <v>4835100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4423200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3944400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3768900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4080100</v>
+        <v>4664600</v>
       </c>
       <c r="E18" s="3">
-        <v>1745200</v>
+        <v>3994000</v>
       </c>
       <c r="F18" s="3">
-        <v>1631800</v>
+        <v>1708300</v>
       </c>
       <c r="G18" s="3">
-        <v>1423300</v>
+        <v>1597400</v>
       </c>
       <c r="H18" s="3">
-        <v>2415300</v>
+        <v>1393300</v>
       </c>
       <c r="I18" s="3">
-        <v>2612700</v>
+        <v>2364300</v>
       </c>
       <c r="J18" s="3">
+        <v>2557500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2375200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1989300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1725200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,74 +1083,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1526000</v>
+        <v>-1163800</v>
       </c>
       <c r="E20" s="3">
-        <v>-727300</v>
+        <v>-1493800</v>
       </c>
       <c r="F20" s="3">
-        <v>-123400</v>
+        <v>-711900</v>
       </c>
       <c r="G20" s="3">
-        <v>474100</v>
+        <v>-120800</v>
       </c>
       <c r="H20" s="3">
-        <v>-449800</v>
+        <v>464100</v>
       </c>
       <c r="I20" s="3">
-        <v>-93600</v>
+        <v>-440400</v>
       </c>
       <c r="J20" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-138100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-189200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-179900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2742100</v>
+        <v>3698900</v>
       </c>
       <c r="E21" s="3">
-        <v>1161400</v>
+        <v>2684500</v>
       </c>
       <c r="F21" s="3">
-        <v>1651100</v>
+        <v>1137100</v>
       </c>
       <c r="G21" s="3">
-        <v>2040800</v>
+        <v>1616500</v>
       </c>
       <c r="H21" s="3">
-        <v>2096800</v>
+        <v>1997900</v>
       </c>
       <c r="I21" s="3">
-        <v>2644100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>2052700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2588400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1654500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2554100</v>
+        <v>3500800</v>
       </c>
       <c r="E23" s="3">
-        <v>1017900</v>
+        <v>2500200</v>
       </c>
       <c r="F23" s="3">
-        <v>1508400</v>
+        <v>996400</v>
       </c>
       <c r="G23" s="3">
-        <v>1897400</v>
+        <v>1476600</v>
       </c>
       <c r="H23" s="3">
-        <v>1965400</v>
+        <v>1857400</v>
       </c>
       <c r="I23" s="3">
-        <v>2519100</v>
+        <v>1923900</v>
       </c>
       <c r="J23" s="3">
+        <v>2465900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2237100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1545300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>603600</v>
+        <v>761900</v>
       </c>
       <c r="E24" s="3">
-        <v>236200</v>
+        <v>827200</v>
       </c>
       <c r="F24" s="3">
-        <v>258200</v>
+        <v>231200</v>
       </c>
       <c r="G24" s="3">
-        <v>339200</v>
+        <v>252700</v>
       </c>
       <c r="H24" s="3">
-        <v>464100</v>
+        <v>332100</v>
       </c>
       <c r="I24" s="3">
-        <v>740800</v>
+        <v>454300</v>
       </c>
       <c r="J24" s="3">
+        <v>725200</v>
+      </c>
+      <c r="K24" s="3">
         <v>633300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>461000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>397500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1950500</v>
+        <v>2739000</v>
       </c>
       <c r="E26" s="3">
-        <v>781700</v>
+        <v>1672900</v>
       </c>
       <c r="F26" s="3">
-        <v>1250300</v>
+        <v>765200</v>
       </c>
       <c r="G26" s="3">
-        <v>1558200</v>
+        <v>1223900</v>
       </c>
       <c r="H26" s="3">
-        <v>1501400</v>
+        <v>1525300</v>
       </c>
       <c r="I26" s="3">
-        <v>1778300</v>
+        <v>1469700</v>
       </c>
       <c r="J26" s="3">
+        <v>1740700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1603700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1339200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1147800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1722500</v>
+        <v>2472700</v>
       </c>
       <c r="E27" s="3">
-        <v>584500</v>
+        <v>1449800</v>
       </c>
       <c r="F27" s="3">
-        <v>1059700</v>
+        <v>572200</v>
       </c>
       <c r="G27" s="3">
-        <v>1399900</v>
+        <v>1037300</v>
       </c>
       <c r="H27" s="3">
-        <v>1398700</v>
+        <v>1370300</v>
       </c>
       <c r="I27" s="3">
-        <v>1682700</v>
+        <v>1369200</v>
       </c>
       <c r="J27" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1516400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1335900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1023900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,17 +1404,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-408100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-163100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1374,15 +1434,18 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1526000</v>
+        <v>1163800</v>
       </c>
       <c r="E32" s="3">
-        <v>727300</v>
+        <v>1493800</v>
       </c>
       <c r="F32" s="3">
-        <v>123400</v>
+        <v>711900</v>
       </c>
       <c r="G32" s="3">
-        <v>-474100</v>
+        <v>120800</v>
       </c>
       <c r="H32" s="3">
-        <v>449800</v>
+        <v>-464100</v>
       </c>
       <c r="I32" s="3">
-        <v>93600</v>
+        <v>440400</v>
       </c>
       <c r="J32" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K32" s="3">
         <v>138100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>189200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>179900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1314400</v>
+        <v>2472700</v>
       </c>
       <c r="E33" s="3">
-        <v>584500</v>
+        <v>1286700</v>
       </c>
       <c r="F33" s="3">
-        <v>1059700</v>
+        <v>572200</v>
       </c>
       <c r="G33" s="3">
-        <v>1399900</v>
+        <v>1037300</v>
       </c>
       <c r="H33" s="3">
-        <v>1398700</v>
+        <v>1370300</v>
       </c>
       <c r="I33" s="3">
-        <v>1682700</v>
+        <v>1369200</v>
       </c>
       <c r="J33" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1516400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1335900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1023900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1314400</v>
+        <v>2472700</v>
       </c>
       <c r="E35" s="3">
-        <v>584500</v>
+        <v>1286700</v>
       </c>
       <c r="F35" s="3">
-        <v>1059700</v>
+        <v>572200</v>
       </c>
       <c r="G35" s="3">
-        <v>1399900</v>
+        <v>1037300</v>
       </c>
       <c r="H35" s="3">
-        <v>1398700</v>
+        <v>1370300</v>
       </c>
       <c r="I35" s="3">
-        <v>1682700</v>
+        <v>1369200</v>
       </c>
       <c r="J35" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1516400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1335900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1023900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,74 +1732,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6978400</v>
+        <v>10692300</v>
       </c>
       <c r="E41" s="3">
-        <v>7880600</v>
+        <v>6831100</v>
       </c>
       <c r="F41" s="3">
-        <v>7655400</v>
+        <v>7714300</v>
       </c>
       <c r="G41" s="3">
-        <v>7973300</v>
+        <v>7493800</v>
       </c>
       <c r="H41" s="3">
-        <v>6973800</v>
+        <v>7805000</v>
       </c>
       <c r="I41" s="3">
-        <v>6359700</v>
+        <v>6826600</v>
       </c>
       <c r="J41" s="3">
+        <v>6225500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5999100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2554200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2997300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72020300</v>
+        <v>40851000</v>
       </c>
       <c r="E42" s="3">
-        <v>32687200</v>
+        <v>36826200</v>
       </c>
       <c r="F42" s="3">
-        <v>30623800</v>
+        <v>31997300</v>
       </c>
       <c r="G42" s="3">
-        <v>31844500</v>
+        <v>29977500</v>
       </c>
       <c r="H42" s="3">
-        <v>21073600</v>
+        <v>31172400</v>
       </c>
       <c r="I42" s="3">
-        <v>23578200</v>
+        <v>20628800</v>
       </c>
       <c r="J42" s="3">
+        <v>23080500</v>
+      </c>
+      <c r="K42" s="3">
         <v>22326800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95800</v>
+        <v>90500</v>
       </c>
       <c r="E47" s="3">
-        <v>100200</v>
+        <v>93800</v>
       </c>
       <c r="F47" s="3">
-        <v>68400</v>
+        <v>98100</v>
       </c>
       <c r="G47" s="3">
-        <v>51700</v>
+        <v>67000</v>
       </c>
       <c r="H47" s="3">
-        <v>50800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>50600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>49700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1877,75 +1981,84 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1430100</v>
+        <v>1453800</v>
       </c>
       <c r="E48" s="3">
-        <v>1327300</v>
+        <v>1400000</v>
       </c>
       <c r="F48" s="3">
-        <v>1300500</v>
+        <v>1299300</v>
       </c>
       <c r="G48" s="3">
-        <v>1283000</v>
+        <v>1273000</v>
       </c>
       <c r="H48" s="3">
-        <v>1197200</v>
+        <v>1256000</v>
       </c>
       <c r="I48" s="3">
-        <v>806700</v>
+        <v>1172000</v>
       </c>
       <c r="J48" s="3">
+        <v>789700</v>
+      </c>
+      <c r="K48" s="3">
         <v>756600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>724100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>785500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="E49" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="F49" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="G49" s="3">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="H49" s="3">
-        <v>17300</v>
+        <v>15900</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>19700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1210100</v>
+        <v>1255600</v>
       </c>
       <c r="E52" s="3">
-        <v>1502800</v>
+        <v>1184500</v>
       </c>
       <c r="F52" s="3">
-        <v>1074200</v>
+        <v>1471100</v>
       </c>
       <c r="G52" s="3">
-        <v>1542400</v>
+        <v>1051600</v>
       </c>
       <c r="H52" s="3">
-        <v>681700</v>
+        <v>1509800</v>
       </c>
       <c r="I52" s="3">
-        <v>221700</v>
+        <v>667300</v>
       </c>
       <c r="J52" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K52" s="3">
         <v>127800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>405400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189240000</v>
+        <v>211678000</v>
       </c>
       <c r="E54" s="3">
-        <v>170210000</v>
+        <v>185246000</v>
       </c>
       <c r="F54" s="3">
-        <v>154476000</v>
+        <v>166618000</v>
       </c>
       <c r="G54" s="3">
-        <v>135439000</v>
+        <v>151216000</v>
       </c>
       <c r="H54" s="3">
-        <v>126237000</v>
+        <v>132580000</v>
       </c>
       <c r="I54" s="3">
-        <v>113503000</v>
+        <v>123573000</v>
       </c>
       <c r="J54" s="3">
+        <v>111108000</v>
+      </c>
+      <c r="K54" s="3">
         <v>102743000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89278900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89548900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,41 +2268,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5237700</v>
+        <v>5286000</v>
       </c>
       <c r="E57" s="3">
-        <v>5133300</v>
+        <v>5127200</v>
       </c>
       <c r="F57" s="3">
-        <v>4331200</v>
+        <v>5024900</v>
       </c>
       <c r="G57" s="3">
-        <v>3643300</v>
+        <v>4239800</v>
       </c>
       <c r="H57" s="3">
-        <v>2742200</v>
+        <v>3566400</v>
       </c>
       <c r="I57" s="3">
-        <v>2433400</v>
+        <v>2684300</v>
       </c>
       <c r="J57" s="3">
+        <v>2382000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2637600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2609300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2105500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,42 +2337,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>5200</v>
+        <v>1700</v>
       </c>
       <c r="G59" s="3">
-        <v>10800</v>
+        <v>5100</v>
       </c>
       <c r="H59" s="3">
-        <v>451500</v>
+        <v>10600</v>
       </c>
       <c r="I59" s="3">
-        <v>449300</v>
+        <v>442000</v>
       </c>
       <c r="J59" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K59" s="3">
         <v>407000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>349000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>311500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,75 +2409,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28938400</v>
+        <v>18787100</v>
       </c>
       <c r="E61" s="3">
-        <v>28636200</v>
+        <v>28327700</v>
       </c>
       <c r="F61" s="3">
-        <v>31342500</v>
+        <v>28031800</v>
       </c>
       <c r="G61" s="3">
-        <v>25704700</v>
+        <v>30681000</v>
       </c>
       <c r="H61" s="3">
-        <v>30160300</v>
+        <v>25162200</v>
       </c>
       <c r="I61" s="3">
-        <v>29026000</v>
+        <v>29523800</v>
       </c>
       <c r="J61" s="3">
+        <v>28413400</v>
+      </c>
+      <c r="K61" s="3">
         <v>25218700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22873100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23323500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>910100</v>
+        <v>1544000</v>
       </c>
       <c r="E62" s="3">
-        <v>432800</v>
+        <v>890900</v>
       </c>
       <c r="F62" s="3">
-        <v>392600</v>
+        <v>423600</v>
       </c>
       <c r="G62" s="3">
-        <v>350600</v>
+        <v>384300</v>
       </c>
       <c r="H62" s="3">
-        <v>400900</v>
+        <v>343200</v>
       </c>
       <c r="I62" s="3">
-        <v>350500</v>
+        <v>392500</v>
       </c>
       <c r="J62" s="3">
+        <v>343100</v>
+      </c>
+      <c r="K62" s="3">
         <v>294600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>172345000</v>
+        <v>190482000</v>
       </c>
       <c r="E66" s="3">
-        <v>154512000</v>
+        <v>168708000</v>
       </c>
       <c r="F66" s="3">
-        <v>139276000</v>
+        <v>151251000</v>
       </c>
       <c r="G66" s="3">
-        <v>121062000</v>
+        <v>136336000</v>
       </c>
       <c r="H66" s="3">
-        <v>113306000</v>
+        <v>118507000</v>
       </c>
       <c r="I66" s="3">
-        <v>101865000</v>
+        <v>110915000</v>
       </c>
       <c r="J66" s="3">
+        <v>99714900</v>
+      </c>
+      <c r="K66" s="3">
         <v>92241100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80181600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80688300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11129900</v>
+        <v>13591700</v>
       </c>
       <c r="E72" s="3">
-        <v>10136700</v>
+        <v>10894900</v>
       </c>
       <c r="F72" s="3">
-        <v>9848400</v>
+        <v>9922700</v>
       </c>
       <c r="G72" s="3">
-        <v>9078600</v>
+        <v>9640500</v>
       </c>
       <c r="H72" s="3">
-        <v>7681600</v>
+        <v>8886900</v>
       </c>
       <c r="I72" s="3">
-        <v>6777700</v>
+        <v>7519500</v>
       </c>
       <c r="J72" s="3">
+        <v>6634700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5639000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4568300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4003000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16894700</v>
+        <v>21195500</v>
       </c>
       <c r="E76" s="3">
-        <v>15698400</v>
+        <v>16538100</v>
       </c>
       <c r="F76" s="3">
-        <v>15200500</v>
+        <v>15367100</v>
       </c>
       <c r="G76" s="3">
-        <v>14376400</v>
+        <v>14879700</v>
       </c>
       <c r="H76" s="3">
-        <v>12930800</v>
+        <v>14073000</v>
       </c>
       <c r="I76" s="3">
-        <v>11638400</v>
+        <v>12657900</v>
       </c>
       <c r="J76" s="3">
+        <v>11392800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10501500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9097300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8860600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1314400</v>
+        <v>2472700</v>
       </c>
       <c r="E81" s="3">
-        <v>584500</v>
+        <v>1286700</v>
       </c>
       <c r="F81" s="3">
-        <v>1059700</v>
+        <v>572200</v>
       </c>
       <c r="G81" s="3">
-        <v>1399900</v>
+        <v>1037300</v>
       </c>
       <c r="H81" s="3">
-        <v>1398700</v>
+        <v>1370300</v>
       </c>
       <c r="I81" s="3">
-        <v>1682700</v>
+        <v>1369200</v>
       </c>
       <c r="J81" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1516400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1335900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1023900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188200</v>
+        <v>197900</v>
       </c>
       <c r="E83" s="3">
-        <v>143600</v>
+        <v>184200</v>
       </c>
       <c r="F83" s="3">
-        <v>142800</v>
+        <v>140600</v>
       </c>
       <c r="G83" s="3">
-        <v>143500</v>
+        <v>139800</v>
       </c>
       <c r="H83" s="3">
-        <v>131500</v>
+        <v>140500</v>
       </c>
       <c r="I83" s="3">
-        <v>125100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>128700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>122400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>109100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10932200</v>
+        <v>18563100</v>
       </c>
       <c r="E89" s="3">
-        <v>6687400</v>
+        <v>10701500</v>
       </c>
       <c r="F89" s="3">
-        <v>2663200</v>
+        <v>6546300</v>
       </c>
       <c r="G89" s="3">
-        <v>7232100</v>
+        <v>2607000</v>
       </c>
       <c r="H89" s="3">
-        <v>3248900</v>
+        <v>7079500</v>
       </c>
       <c r="I89" s="3">
-        <v>-1686300</v>
+        <v>3180300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1650700</v>
+      </c>
+      <c r="K89" s="3">
         <v>929500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2312700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-985300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257400</v>
+        <v>-227100</v>
       </c>
       <c r="E91" s="3">
-        <v>-157800</v>
+        <v>-252000</v>
       </c>
       <c r="F91" s="3">
-        <v>-143200</v>
+        <v>-154400</v>
       </c>
       <c r="G91" s="3">
-        <v>-180900</v>
+        <v>-140200</v>
       </c>
       <c r="H91" s="3">
-        <v>-116600</v>
+        <v>-177100</v>
       </c>
       <c r="I91" s="3">
-        <v>-171000</v>
+        <v>-114100</v>
       </c>
       <c r="J91" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-115100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5813200</v>
+        <v>-8471700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4142200</v>
+        <v>-5690500</v>
       </c>
       <c r="F94" s="3">
-        <v>-6948800</v>
+        <v>-4054800</v>
       </c>
       <c r="G94" s="3">
-        <v>-220600</v>
+        <v>-6802100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1624000</v>
+        <v>-216000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1776800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>-1589700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1739300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3074600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-121800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-160600</v>
+        <v>-119200</v>
       </c>
       <c r="F96" s="3">
-        <v>-235800</v>
+        <v>-157200</v>
       </c>
       <c r="G96" s="3">
-        <v>-470300</v>
+        <v>-230800</v>
       </c>
       <c r="H96" s="3">
-        <v>-474400</v>
+        <v>-460400</v>
       </c>
       <c r="I96" s="3">
-        <v>-423800</v>
+        <v>-464400</v>
       </c>
       <c r="J96" s="3">
+        <v>-414800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-371500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-293400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-274900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>411100</v>
+        <v>-7352700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2747600</v>
+        <v>402400</v>
       </c>
       <c r="F100" s="3">
-        <v>5451500</v>
+        <v>-2689700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4873500</v>
+        <v>5336400</v>
       </c>
       <c r="H100" s="3">
-        <v>798800</v>
+        <v>-4770700</v>
       </c>
       <c r="I100" s="3">
-        <v>3411300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>782000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3339300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>4256900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29300</v>
+        <v>-86600</v>
       </c>
       <c r="E101" s="3">
-        <v>-18500</v>
+        <v>28700</v>
       </c>
       <c r="F101" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G101" s="3">
         <v>3100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-14500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-33100</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>-32400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-32700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>59100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5559500</v>
+        <v>2652000</v>
       </c>
       <c r="E102" s="3">
-        <v>-221000</v>
+        <v>5442100</v>
       </c>
       <c r="F102" s="3">
-        <v>1169000</v>
+        <v>-216300</v>
       </c>
       <c r="G102" s="3">
-        <v>2123500</v>
+        <v>1144400</v>
       </c>
       <c r="H102" s="3">
-        <v>2390600</v>
+        <v>2078700</v>
       </c>
       <c r="I102" s="3">
-        <v>-85300</v>
+        <v>2340100</v>
       </c>
       <c r="J102" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-152900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1086000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>256100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11992400</v>
+        <v>11885400</v>
       </c>
       <c r="E8" s="3">
-        <v>11410400</v>
+        <v>11308600</v>
       </c>
       <c r="F8" s="3">
-        <v>9681500</v>
+        <v>9595200</v>
       </c>
       <c r="G8" s="3">
-        <v>8360800</v>
+        <v>8286200</v>
       </c>
       <c r="H8" s="3">
-        <v>8196400</v>
+        <v>8123300</v>
       </c>
       <c r="I8" s="3">
-        <v>7975000</v>
+        <v>7903900</v>
       </c>
       <c r="J8" s="3">
-        <v>7392700</v>
+        <v>7326700</v>
       </c>
       <c r="K8" s="3">
         <v>6798400</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-180200</v>
+        <v>-178600</v>
       </c>
       <c r="E15" s="3">
-        <v>-157500</v>
+        <v>-156100</v>
       </c>
       <c r="F15" s="3">
-        <v>-127200</v>
+        <v>-126100</v>
       </c>
       <c r="G15" s="3">
-        <v>-124000</v>
+        <v>-122900</v>
       </c>
       <c r="H15" s="3">
-        <v>-122600</v>
+        <v>-121500</v>
       </c>
       <c r="I15" s="3">
-        <v>-113400</v>
+        <v>-112400</v>
       </c>
       <c r="J15" s="3">
-        <v>-107400</v>
+        <v>-106400</v>
       </c>
       <c r="K15" s="3">
         <v>-98800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7327800</v>
+        <v>7262400</v>
       </c>
       <c r="E17" s="3">
-        <v>7416500</v>
+        <v>7350300</v>
       </c>
       <c r="F17" s="3">
-        <v>7973200</v>
+        <v>7902100</v>
       </c>
       <c r="G17" s="3">
-        <v>6763500</v>
+        <v>6703100</v>
       </c>
       <c r="H17" s="3">
-        <v>6803200</v>
+        <v>6742500</v>
       </c>
       <c r="I17" s="3">
-        <v>5610700</v>
+        <v>5560700</v>
       </c>
       <c r="J17" s="3">
-        <v>4835100</v>
+        <v>4792000</v>
       </c>
       <c r="K17" s="3">
         <v>4423200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4664600</v>
+        <v>4623000</v>
       </c>
       <c r="E18" s="3">
-        <v>3994000</v>
+        <v>3958300</v>
       </c>
       <c r="F18" s="3">
-        <v>1708300</v>
+        <v>1693100</v>
       </c>
       <c r="G18" s="3">
-        <v>1597400</v>
+        <v>1583100</v>
       </c>
       <c r="H18" s="3">
-        <v>1393300</v>
+        <v>1380800</v>
       </c>
       <c r="I18" s="3">
-        <v>2364300</v>
+        <v>2343200</v>
       </c>
       <c r="J18" s="3">
-        <v>2557500</v>
+        <v>2534700</v>
       </c>
       <c r="K18" s="3">
         <v>2375200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1163800</v>
+        <v>-1153400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1493800</v>
+        <v>-1480500</v>
       </c>
       <c r="F20" s="3">
-        <v>-711900</v>
+        <v>-705600</v>
       </c>
       <c r="G20" s="3">
-        <v>-120800</v>
+        <v>-119700</v>
       </c>
       <c r="H20" s="3">
-        <v>464100</v>
+        <v>460000</v>
       </c>
       <c r="I20" s="3">
-        <v>-440400</v>
+        <v>-436400</v>
       </c>
       <c r="J20" s="3">
-        <v>-91600</v>
+        <v>-90800</v>
       </c>
       <c r="K20" s="3">
         <v>-138100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3698900</v>
+        <v>3665700</v>
       </c>
       <c r="E21" s="3">
-        <v>2684500</v>
+        <v>2660400</v>
       </c>
       <c r="F21" s="3">
-        <v>1137100</v>
+        <v>1126900</v>
       </c>
       <c r="G21" s="3">
-        <v>1616500</v>
+        <v>1601900</v>
       </c>
       <c r="H21" s="3">
-        <v>1997900</v>
+        <v>1980000</v>
       </c>
       <c r="I21" s="3">
-        <v>2052700</v>
+        <v>2034300</v>
       </c>
       <c r="J21" s="3">
-        <v>2588400</v>
+        <v>2565300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3500800</v>
+        <v>3469600</v>
       </c>
       <c r="E23" s="3">
-        <v>2500200</v>
+        <v>2477900</v>
       </c>
       <c r="F23" s="3">
-        <v>996400</v>
+        <v>987500</v>
       </c>
       <c r="G23" s="3">
-        <v>1476600</v>
+        <v>1463400</v>
       </c>
       <c r="H23" s="3">
-        <v>1857400</v>
+        <v>1840800</v>
       </c>
       <c r="I23" s="3">
-        <v>1923900</v>
+        <v>1906800</v>
       </c>
       <c r="J23" s="3">
-        <v>2465900</v>
+        <v>2443900</v>
       </c>
       <c r="K23" s="3">
         <v>2237100</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>761900</v>
+        <v>755100</v>
       </c>
       <c r="E24" s="3">
-        <v>827200</v>
+        <v>819800</v>
       </c>
       <c r="F24" s="3">
-        <v>231200</v>
+        <v>229200</v>
       </c>
       <c r="G24" s="3">
-        <v>252700</v>
+        <v>250500</v>
       </c>
       <c r="H24" s="3">
-        <v>332100</v>
+        <v>329100</v>
       </c>
       <c r="I24" s="3">
-        <v>454300</v>
+        <v>450200</v>
       </c>
       <c r="J24" s="3">
-        <v>725200</v>
+        <v>718700</v>
       </c>
       <c r="K24" s="3">
         <v>633300</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2739000</v>
+        <v>2714500</v>
       </c>
       <c r="E26" s="3">
-        <v>1672900</v>
+        <v>1658000</v>
       </c>
       <c r="F26" s="3">
-        <v>765200</v>
+        <v>758400</v>
       </c>
       <c r="G26" s="3">
-        <v>1223900</v>
+        <v>1213000</v>
       </c>
       <c r="H26" s="3">
-        <v>1525300</v>
+        <v>1511700</v>
       </c>
       <c r="I26" s="3">
-        <v>1469700</v>
+        <v>1456600</v>
       </c>
       <c r="J26" s="3">
-        <v>1740700</v>
+        <v>1725200</v>
       </c>
       <c r="K26" s="3">
         <v>1603700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2472700</v>
+        <v>2450600</v>
       </c>
       <c r="E27" s="3">
-        <v>1449800</v>
+        <v>1436800</v>
       </c>
       <c r="F27" s="3">
-        <v>572200</v>
+        <v>567100</v>
       </c>
       <c r="G27" s="3">
-        <v>1037300</v>
+        <v>1028000</v>
       </c>
       <c r="H27" s="3">
-        <v>1370300</v>
+        <v>1358100</v>
       </c>
       <c r="I27" s="3">
-        <v>1369200</v>
+        <v>1357000</v>
       </c>
       <c r="J27" s="3">
-        <v>1647200</v>
+        <v>1632500</v>
       </c>
       <c r="K27" s="3">
         <v>1516400</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-163100</v>
+        <v>-161700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1163800</v>
+        <v>1153400</v>
       </c>
       <c r="E32" s="3">
-        <v>1493800</v>
+        <v>1480500</v>
       </c>
       <c r="F32" s="3">
-        <v>711900</v>
+        <v>705600</v>
       </c>
       <c r="G32" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="H32" s="3">
-        <v>-464100</v>
+        <v>-460000</v>
       </c>
       <c r="I32" s="3">
-        <v>440400</v>
+        <v>436400</v>
       </c>
       <c r="J32" s="3">
-        <v>91600</v>
+        <v>90800</v>
       </c>
       <c r="K32" s="3">
         <v>138100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2472700</v>
+        <v>2450600</v>
       </c>
       <c r="E33" s="3">
-        <v>1286700</v>
+        <v>1275200</v>
       </c>
       <c r="F33" s="3">
-        <v>572200</v>
+        <v>567100</v>
       </c>
       <c r="G33" s="3">
-        <v>1037300</v>
+        <v>1028000</v>
       </c>
       <c r="H33" s="3">
-        <v>1370300</v>
+        <v>1358100</v>
       </c>
       <c r="I33" s="3">
-        <v>1369200</v>
+        <v>1357000</v>
       </c>
       <c r="J33" s="3">
-        <v>1647200</v>
+        <v>1632500</v>
       </c>
       <c r="K33" s="3">
         <v>1516400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2472700</v>
+        <v>2450600</v>
       </c>
       <c r="E35" s="3">
-        <v>1286700</v>
+        <v>1275200</v>
       </c>
       <c r="F35" s="3">
-        <v>572200</v>
+        <v>567100</v>
       </c>
       <c r="G35" s="3">
-        <v>1037300</v>
+        <v>1028000</v>
       </c>
       <c r="H35" s="3">
-        <v>1370300</v>
+        <v>1358100</v>
       </c>
       <c r="I35" s="3">
-        <v>1369200</v>
+        <v>1357000</v>
       </c>
       <c r="J35" s="3">
-        <v>1647200</v>
+        <v>1632500</v>
       </c>
       <c r="K35" s="3">
         <v>1516400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10692300</v>
+        <v>10596900</v>
       </c>
       <c r="E41" s="3">
-        <v>6831100</v>
+        <v>6770100</v>
       </c>
       <c r="F41" s="3">
-        <v>7714300</v>
+        <v>7645500</v>
       </c>
       <c r="G41" s="3">
-        <v>7493800</v>
+        <v>7427000</v>
       </c>
       <c r="H41" s="3">
-        <v>7805000</v>
+        <v>7735400</v>
       </c>
       <c r="I41" s="3">
-        <v>6826600</v>
+        <v>6765700</v>
       </c>
       <c r="J41" s="3">
-        <v>6225500</v>
+        <v>6169900</v>
       </c>
       <c r="K41" s="3">
         <v>5999100</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40851000</v>
+        <v>40486500</v>
       </c>
       <c r="E42" s="3">
-        <v>36826200</v>
+        <v>36497700</v>
       </c>
       <c r="F42" s="3">
-        <v>31997300</v>
+        <v>31711800</v>
       </c>
       <c r="G42" s="3">
-        <v>29977500</v>
+        <v>29710000</v>
       </c>
       <c r="H42" s="3">
-        <v>31172400</v>
+        <v>30894300</v>
       </c>
       <c r="I42" s="3">
-        <v>20628800</v>
+        <v>20444700</v>
       </c>
       <c r="J42" s="3">
-        <v>23080500</v>
+        <v>22874600</v>
       </c>
       <c r="K42" s="3">
         <v>22326800</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>90500</v>
+        <v>89700</v>
       </c>
       <c r="E47" s="3">
-        <v>93800</v>
+        <v>93000</v>
       </c>
       <c r="F47" s="3">
-        <v>98100</v>
+        <v>97200</v>
       </c>
       <c r="G47" s="3">
-        <v>67000</v>
+        <v>66400</v>
       </c>
       <c r="H47" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="I47" s="3">
-        <v>49700</v>
+        <v>49300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1453800</v>
+        <v>1440900</v>
       </c>
       <c r="E48" s="3">
-        <v>1400000</v>
+        <v>1387500</v>
       </c>
       <c r="F48" s="3">
-        <v>1299300</v>
+        <v>1287700</v>
       </c>
       <c r="G48" s="3">
-        <v>1273000</v>
+        <v>1261700</v>
       </c>
       <c r="H48" s="3">
-        <v>1256000</v>
+        <v>1244800</v>
       </c>
       <c r="I48" s="3">
-        <v>1172000</v>
+        <v>1161500</v>
       </c>
       <c r="J48" s="3">
-        <v>789700</v>
+        <v>782600</v>
       </c>
       <c r="K48" s="3">
         <v>756600</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E49" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F49" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="G49" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="H49" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="I49" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1255600</v>
+        <v>1244400</v>
       </c>
       <c r="E52" s="3">
-        <v>1184500</v>
+        <v>1174000</v>
       </c>
       <c r="F52" s="3">
-        <v>1471100</v>
+        <v>1457900</v>
       </c>
       <c r="G52" s="3">
-        <v>1051600</v>
+        <v>1042200</v>
       </c>
       <c r="H52" s="3">
-        <v>1509800</v>
+        <v>1496400</v>
       </c>
       <c r="I52" s="3">
-        <v>667300</v>
+        <v>661300</v>
       </c>
       <c r="J52" s="3">
-        <v>217000</v>
+        <v>215100</v>
       </c>
       <c r="K52" s="3">
         <v>127800</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>211678000</v>
+        <v>209789000</v>
       </c>
       <c r="E54" s="3">
-        <v>185246000</v>
+        <v>183593000</v>
       </c>
       <c r="F54" s="3">
-        <v>166618000</v>
+        <v>165131000</v>
       </c>
       <c r="G54" s="3">
-        <v>151216000</v>
+        <v>149867000</v>
       </c>
       <c r="H54" s="3">
-        <v>132580000</v>
+        <v>131397000</v>
       </c>
       <c r="I54" s="3">
-        <v>123573000</v>
+        <v>122470000</v>
       </c>
       <c r="J54" s="3">
-        <v>111108000</v>
+        <v>110116000</v>
       </c>
       <c r="K54" s="3">
         <v>102743000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5286000</v>
+        <v>5238800</v>
       </c>
       <c r="E57" s="3">
-        <v>5127200</v>
+        <v>5081400</v>
       </c>
       <c r="F57" s="3">
-        <v>5024900</v>
+        <v>4980100</v>
       </c>
       <c r="G57" s="3">
-        <v>4239800</v>
+        <v>4201900</v>
       </c>
       <c r="H57" s="3">
-        <v>3566400</v>
+        <v>3534600</v>
       </c>
       <c r="I57" s="3">
-        <v>2684300</v>
+        <v>2660400</v>
       </c>
       <c r="J57" s="3">
-        <v>2382000</v>
+        <v>2360800</v>
       </c>
       <c r="K57" s="3">
         <v>2637600</v>
@@ -2359,13 +2359,13 @@
         <v>5100</v>
       </c>
       <c r="H59" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I59" s="3">
-        <v>442000</v>
+        <v>438100</v>
       </c>
       <c r="J59" s="3">
-        <v>439800</v>
+        <v>435900</v>
       </c>
       <c r="K59" s="3">
         <v>407000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18787100</v>
+        <v>18619500</v>
       </c>
       <c r="E61" s="3">
-        <v>28327700</v>
+        <v>28074900</v>
       </c>
       <c r="F61" s="3">
-        <v>28031800</v>
+        <v>27781700</v>
       </c>
       <c r="G61" s="3">
-        <v>30681000</v>
+        <v>30407300</v>
       </c>
       <c r="H61" s="3">
-        <v>25162200</v>
+        <v>24937700</v>
       </c>
       <c r="I61" s="3">
-        <v>29523800</v>
+        <v>29260300</v>
       </c>
       <c r="J61" s="3">
-        <v>28413400</v>
+        <v>28159900</v>
       </c>
       <c r="K61" s="3">
         <v>25218700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1544000</v>
+        <v>1530200</v>
       </c>
       <c r="E62" s="3">
-        <v>890900</v>
+        <v>882900</v>
       </c>
       <c r="F62" s="3">
-        <v>423600</v>
+        <v>419800</v>
       </c>
       <c r="G62" s="3">
-        <v>384300</v>
+        <v>380900</v>
       </c>
       <c r="H62" s="3">
-        <v>343200</v>
+        <v>340200</v>
       </c>
       <c r="I62" s="3">
-        <v>392500</v>
+        <v>388900</v>
       </c>
       <c r="J62" s="3">
-        <v>343100</v>
+        <v>340000</v>
       </c>
       <c r="K62" s="3">
         <v>294600</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>190482000</v>
+        <v>188783000</v>
       </c>
       <c r="E66" s="3">
-        <v>168708000</v>
+        <v>167203000</v>
       </c>
       <c r="F66" s="3">
-        <v>151251000</v>
+        <v>149901000</v>
       </c>
       <c r="G66" s="3">
-        <v>136336000</v>
+        <v>135120000</v>
       </c>
       <c r="H66" s="3">
-        <v>118507000</v>
+        <v>117450000</v>
       </c>
       <c r="I66" s="3">
-        <v>110915000</v>
+        <v>109925000</v>
       </c>
       <c r="J66" s="3">
-        <v>99714900</v>
+        <v>98825200</v>
       </c>
       <c r="K66" s="3">
         <v>92241100</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13591700</v>
+        <v>13470400</v>
       </c>
       <c r="E72" s="3">
-        <v>10894900</v>
+        <v>10797700</v>
       </c>
       <c r="F72" s="3">
-        <v>9922700</v>
+        <v>9834200</v>
       </c>
       <c r="G72" s="3">
-        <v>9640500</v>
+        <v>9554500</v>
       </c>
       <c r="H72" s="3">
-        <v>8886900</v>
+        <v>8807700</v>
       </c>
       <c r="I72" s="3">
-        <v>7519500</v>
+        <v>7452400</v>
       </c>
       <c r="J72" s="3">
-        <v>6634700</v>
+        <v>6575500</v>
       </c>
       <c r="K72" s="3">
         <v>5639000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21195500</v>
+        <v>21006400</v>
       </c>
       <c r="E76" s="3">
-        <v>16538100</v>
+        <v>16390600</v>
       </c>
       <c r="F76" s="3">
-        <v>15367100</v>
+        <v>15230000</v>
       </c>
       <c r="G76" s="3">
-        <v>14879700</v>
+        <v>14746900</v>
       </c>
       <c r="H76" s="3">
-        <v>14073000</v>
+        <v>13947400</v>
       </c>
       <c r="I76" s="3">
-        <v>12657900</v>
+        <v>12545000</v>
       </c>
       <c r="J76" s="3">
-        <v>11392800</v>
+        <v>11291100</v>
       </c>
       <c r="K76" s="3">
         <v>10501500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2472700</v>
+        <v>2450600</v>
       </c>
       <c r="E81" s="3">
-        <v>1286700</v>
+        <v>1275200</v>
       </c>
       <c r="F81" s="3">
-        <v>572200</v>
+        <v>567100</v>
       </c>
       <c r="G81" s="3">
-        <v>1037300</v>
+        <v>1028000</v>
       </c>
       <c r="H81" s="3">
-        <v>1370300</v>
+        <v>1358100</v>
       </c>
       <c r="I81" s="3">
-        <v>1369200</v>
+        <v>1357000</v>
       </c>
       <c r="J81" s="3">
-        <v>1647200</v>
+        <v>1632500</v>
       </c>
       <c r="K81" s="3">
         <v>1516400</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197900</v>
+        <v>196100</v>
       </c>
       <c r="E83" s="3">
-        <v>184200</v>
+        <v>182600</v>
       </c>
       <c r="F83" s="3">
-        <v>140600</v>
+        <v>139300</v>
       </c>
       <c r="G83" s="3">
-        <v>139800</v>
+        <v>138500</v>
       </c>
       <c r="H83" s="3">
-        <v>140500</v>
+        <v>139200</v>
       </c>
       <c r="I83" s="3">
-        <v>128700</v>
+        <v>127500</v>
       </c>
       <c r="J83" s="3">
-        <v>122400</v>
+        <v>121300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18563100</v>
+        <v>18397400</v>
       </c>
       <c r="E89" s="3">
-        <v>10701500</v>
+        <v>10606000</v>
       </c>
       <c r="F89" s="3">
-        <v>6546300</v>
+        <v>6487900</v>
       </c>
       <c r="G89" s="3">
-        <v>2607000</v>
+        <v>2583700</v>
       </c>
       <c r="H89" s="3">
-        <v>7079500</v>
+        <v>7016300</v>
       </c>
       <c r="I89" s="3">
-        <v>3180300</v>
+        <v>3151900</v>
       </c>
       <c r="J89" s="3">
-        <v>-1650700</v>
+        <v>-1636000</v>
       </c>
       <c r="K89" s="3">
         <v>929500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-227100</v>
+        <v>-225000</v>
       </c>
       <c r="E91" s="3">
-        <v>-252000</v>
+        <v>-249700</v>
       </c>
       <c r="F91" s="3">
-        <v>-154400</v>
+        <v>-153000</v>
       </c>
       <c r="G91" s="3">
-        <v>-140200</v>
+        <v>-138900</v>
       </c>
       <c r="H91" s="3">
-        <v>-177100</v>
+        <v>-175500</v>
       </c>
       <c r="I91" s="3">
-        <v>-114100</v>
+        <v>-113100</v>
       </c>
       <c r="J91" s="3">
-        <v>-167400</v>
+        <v>-165900</v>
       </c>
       <c r="K91" s="3">
         <v>-115100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8471700</v>
+        <v>-8396200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5690500</v>
+        <v>-5639700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4054800</v>
+        <v>-4018600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6802100</v>
+        <v>-6741400</v>
       </c>
       <c r="H94" s="3">
-        <v>-216000</v>
+        <v>-214000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1589700</v>
+        <v>-1575500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1739300</v>
+        <v>-1723800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3535,22 +3535,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-119200</v>
+        <v>-118200</v>
       </c>
       <c r="F96" s="3">
-        <v>-157200</v>
+        <v>-155800</v>
       </c>
       <c r="G96" s="3">
-        <v>-230800</v>
+        <v>-228800</v>
       </c>
       <c r="H96" s="3">
-        <v>-460400</v>
+        <v>-456300</v>
       </c>
       <c r="I96" s="3">
-        <v>-464400</v>
+        <v>-460200</v>
       </c>
       <c r="J96" s="3">
-        <v>-414800</v>
+        <v>-411100</v>
       </c>
       <c r="K96" s="3">
         <v>-371500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7352700</v>
+        <v>-7287100</v>
       </c>
       <c r="E100" s="3">
-        <v>402400</v>
+        <v>398900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2689700</v>
+        <v>-2665700</v>
       </c>
       <c r="G100" s="3">
-        <v>5336400</v>
+        <v>5288800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4770700</v>
+        <v>-4728100</v>
       </c>
       <c r="I100" s="3">
-        <v>782000</v>
+        <v>775000</v>
       </c>
       <c r="J100" s="3">
-        <v>3339300</v>
+        <v>3309500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-86600</v>
+        <v>-85800</v>
       </c>
       <c r="E101" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="F101" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="G101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="I101" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-32400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-32700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2652000</v>
+        <v>2628400</v>
       </c>
       <c r="E102" s="3">
-        <v>5442100</v>
+        <v>5393600</v>
       </c>
       <c r="F102" s="3">
-        <v>-216300</v>
+        <v>-214400</v>
       </c>
       <c r="G102" s="3">
-        <v>1144400</v>
+        <v>1134200</v>
       </c>
       <c r="H102" s="3">
-        <v>2078700</v>
+        <v>2060100</v>
       </c>
       <c r="I102" s="3">
-        <v>2340100</v>
+        <v>2319300</v>
       </c>
       <c r="J102" s="3">
-        <v>-83500</v>
+        <v>-82800</v>
       </c>
       <c r="K102" s="3">
         <v>-152900</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11885400</v>
+        <v>11653600</v>
       </c>
       <c r="E8" s="3">
-        <v>11308600</v>
+        <v>11088000</v>
       </c>
       <c r="F8" s="3">
-        <v>9595200</v>
+        <v>9408000</v>
       </c>
       <c r="G8" s="3">
-        <v>8286200</v>
+        <v>8124600</v>
       </c>
       <c r="H8" s="3">
-        <v>8123300</v>
+        <v>7964900</v>
       </c>
       <c r="I8" s="3">
-        <v>7903900</v>
+        <v>7749700</v>
       </c>
       <c r="J8" s="3">
-        <v>7326700</v>
+        <v>7183800</v>
       </c>
       <c r="K8" s="3">
         <v>6798400</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-178600</v>
+        <v>-175100</v>
       </c>
       <c r="E15" s="3">
-        <v>-156100</v>
+        <v>-153100</v>
       </c>
       <c r="F15" s="3">
-        <v>-126100</v>
+        <v>-123600</v>
       </c>
       <c r="G15" s="3">
-        <v>-122900</v>
+        <v>-120500</v>
       </c>
       <c r="H15" s="3">
-        <v>-121500</v>
+        <v>-119200</v>
       </c>
       <c r="I15" s="3">
-        <v>-112400</v>
+        <v>-110200</v>
       </c>
       <c r="J15" s="3">
-        <v>-106400</v>
+        <v>-104300</v>
       </c>
       <c r="K15" s="3">
         <v>-98800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7262400</v>
+        <v>7120700</v>
       </c>
       <c r="E17" s="3">
-        <v>7350300</v>
+        <v>7206900</v>
       </c>
       <c r="F17" s="3">
-        <v>7902100</v>
+        <v>7747900</v>
       </c>
       <c r="G17" s="3">
-        <v>6703100</v>
+        <v>6572400</v>
       </c>
       <c r="H17" s="3">
-        <v>6742500</v>
+        <v>6611000</v>
       </c>
       <c r="I17" s="3">
-        <v>5560700</v>
+        <v>5452200</v>
       </c>
       <c r="J17" s="3">
-        <v>4792000</v>
+        <v>4698500</v>
       </c>
       <c r="K17" s="3">
         <v>4423200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4623000</v>
+        <v>4532800</v>
       </c>
       <c r="E18" s="3">
-        <v>3958300</v>
+        <v>3881100</v>
       </c>
       <c r="F18" s="3">
-        <v>1693100</v>
+        <v>1660100</v>
       </c>
       <c r="G18" s="3">
-        <v>1583100</v>
+        <v>1552200</v>
       </c>
       <c r="H18" s="3">
-        <v>1380800</v>
+        <v>1353900</v>
       </c>
       <c r="I18" s="3">
-        <v>2343200</v>
+        <v>2297500</v>
       </c>
       <c r="J18" s="3">
-        <v>2534700</v>
+        <v>2485300</v>
       </c>
       <c r="K18" s="3">
         <v>2375200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1153400</v>
+        <v>-1130900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1480500</v>
+        <v>-1451600</v>
       </c>
       <c r="F20" s="3">
-        <v>-705600</v>
+        <v>-691800</v>
       </c>
       <c r="G20" s="3">
-        <v>-119700</v>
+        <v>-117300</v>
       </c>
       <c r="H20" s="3">
-        <v>460000</v>
+        <v>451000</v>
       </c>
       <c r="I20" s="3">
-        <v>-436400</v>
+        <v>-427900</v>
       </c>
       <c r="J20" s="3">
-        <v>-90800</v>
+        <v>-89000</v>
       </c>
       <c r="K20" s="3">
         <v>-138100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3665700</v>
+        <v>3594700</v>
       </c>
       <c r="E21" s="3">
-        <v>2660400</v>
+        <v>2609000</v>
       </c>
       <c r="F21" s="3">
-        <v>1126900</v>
+        <v>1105200</v>
       </c>
       <c r="G21" s="3">
-        <v>1601900</v>
+        <v>1571000</v>
       </c>
       <c r="H21" s="3">
-        <v>1980000</v>
+        <v>1941700</v>
       </c>
       <c r="I21" s="3">
-        <v>2034300</v>
+        <v>1994900</v>
       </c>
       <c r="J21" s="3">
-        <v>2565300</v>
+        <v>2515500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3469600</v>
+        <v>3401900</v>
       </c>
       <c r="E23" s="3">
-        <v>2477900</v>
+        <v>2429500</v>
       </c>
       <c r="F23" s="3">
-        <v>987500</v>
+        <v>968300</v>
       </c>
       <c r="G23" s="3">
-        <v>1463400</v>
+        <v>1434900</v>
       </c>
       <c r="H23" s="3">
-        <v>1840800</v>
+        <v>1804900</v>
       </c>
       <c r="I23" s="3">
-        <v>1906800</v>
+        <v>1869600</v>
       </c>
       <c r="J23" s="3">
-        <v>2443900</v>
+        <v>2396200</v>
       </c>
       <c r="K23" s="3">
         <v>2237100</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>755100</v>
+        <v>740300</v>
       </c>
       <c r="E24" s="3">
-        <v>819800</v>
+        <v>803900</v>
       </c>
       <c r="F24" s="3">
-        <v>229200</v>
+        <v>224700</v>
       </c>
       <c r="G24" s="3">
-        <v>250500</v>
+        <v>245600</v>
       </c>
       <c r="H24" s="3">
-        <v>329100</v>
+        <v>322700</v>
       </c>
       <c r="I24" s="3">
-        <v>450200</v>
+        <v>441400</v>
       </c>
       <c r="J24" s="3">
-        <v>718700</v>
+        <v>704700</v>
       </c>
       <c r="K24" s="3">
         <v>633300</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2714500</v>
+        <v>2661600</v>
       </c>
       <c r="E26" s="3">
-        <v>1658000</v>
+        <v>1625700</v>
       </c>
       <c r="F26" s="3">
-        <v>758400</v>
+        <v>743600</v>
       </c>
       <c r="G26" s="3">
-        <v>1213000</v>
+        <v>1189300</v>
       </c>
       <c r="H26" s="3">
-        <v>1511700</v>
+        <v>1482200</v>
       </c>
       <c r="I26" s="3">
-        <v>1456600</v>
+        <v>1428100</v>
       </c>
       <c r="J26" s="3">
-        <v>1725200</v>
+        <v>1691600</v>
       </c>
       <c r="K26" s="3">
         <v>1603700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2450600</v>
+        <v>2402800</v>
       </c>
       <c r="E27" s="3">
-        <v>1436800</v>
+        <v>1408800</v>
       </c>
       <c r="F27" s="3">
-        <v>567100</v>
+        <v>556000</v>
       </c>
       <c r="G27" s="3">
-        <v>1028000</v>
+        <v>1008000</v>
       </c>
       <c r="H27" s="3">
-        <v>1358100</v>
+        <v>1331600</v>
       </c>
       <c r="I27" s="3">
-        <v>1357000</v>
+        <v>1330500</v>
       </c>
       <c r="J27" s="3">
-        <v>1632500</v>
+        <v>1600700</v>
       </c>
       <c r="K27" s="3">
         <v>1516400</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-161700</v>
+        <v>-158500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1153400</v>
+        <v>1130900</v>
       </c>
       <c r="E32" s="3">
-        <v>1480500</v>
+        <v>1451600</v>
       </c>
       <c r="F32" s="3">
-        <v>705600</v>
+        <v>691800</v>
       </c>
       <c r="G32" s="3">
-        <v>119700</v>
+        <v>117300</v>
       </c>
       <c r="H32" s="3">
-        <v>-460000</v>
+        <v>-451000</v>
       </c>
       <c r="I32" s="3">
-        <v>436400</v>
+        <v>427900</v>
       </c>
       <c r="J32" s="3">
-        <v>90800</v>
+        <v>89000</v>
       </c>
       <c r="K32" s="3">
         <v>138100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2450600</v>
+        <v>2402800</v>
       </c>
       <c r="E33" s="3">
-        <v>1275200</v>
+        <v>1250300</v>
       </c>
       <c r="F33" s="3">
-        <v>567100</v>
+        <v>556000</v>
       </c>
       <c r="G33" s="3">
-        <v>1028000</v>
+        <v>1008000</v>
       </c>
       <c r="H33" s="3">
-        <v>1358100</v>
+        <v>1331600</v>
       </c>
       <c r="I33" s="3">
-        <v>1357000</v>
+        <v>1330500</v>
       </c>
       <c r="J33" s="3">
-        <v>1632500</v>
+        <v>1600700</v>
       </c>
       <c r="K33" s="3">
         <v>1516400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2450600</v>
+        <v>2402800</v>
       </c>
       <c r="E35" s="3">
-        <v>1275200</v>
+        <v>1250300</v>
       </c>
       <c r="F35" s="3">
-        <v>567100</v>
+        <v>556000</v>
       </c>
       <c r="G35" s="3">
-        <v>1028000</v>
+        <v>1008000</v>
       </c>
       <c r="H35" s="3">
-        <v>1358100</v>
+        <v>1331600</v>
       </c>
       <c r="I35" s="3">
-        <v>1357000</v>
+        <v>1330500</v>
       </c>
       <c r="J35" s="3">
-        <v>1632500</v>
+        <v>1600700</v>
       </c>
       <c r="K35" s="3">
         <v>1516400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10596900</v>
+        <v>10390200</v>
       </c>
       <c r="E41" s="3">
-        <v>6770100</v>
+        <v>6638100</v>
       </c>
       <c r="F41" s="3">
-        <v>7645500</v>
+        <v>7496300</v>
       </c>
       <c r="G41" s="3">
-        <v>7427000</v>
+        <v>7282100</v>
       </c>
       <c r="H41" s="3">
-        <v>7735400</v>
+        <v>7584500</v>
       </c>
       <c r="I41" s="3">
-        <v>6765700</v>
+        <v>6633700</v>
       </c>
       <c r="J41" s="3">
-        <v>6169900</v>
+        <v>6049600</v>
       </c>
       <c r="K41" s="3">
         <v>5999100</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40486500</v>
+        <v>39696800</v>
       </c>
       <c r="E42" s="3">
-        <v>36497700</v>
+        <v>35785800</v>
       </c>
       <c r="F42" s="3">
-        <v>31711800</v>
+        <v>31093300</v>
       </c>
       <c r="G42" s="3">
-        <v>29710000</v>
+        <v>29130500</v>
       </c>
       <c r="H42" s="3">
-        <v>30894300</v>
+        <v>30291700</v>
       </c>
       <c r="I42" s="3">
-        <v>20444700</v>
+        <v>20046000</v>
       </c>
       <c r="J42" s="3">
-        <v>22874600</v>
+        <v>22428400</v>
       </c>
       <c r="K42" s="3">
         <v>22326800</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89700</v>
+        <v>87900</v>
       </c>
       <c r="E47" s="3">
-        <v>93000</v>
+        <v>91200</v>
       </c>
       <c r="F47" s="3">
-        <v>97200</v>
+        <v>95300</v>
       </c>
       <c r="G47" s="3">
-        <v>66400</v>
+        <v>65100</v>
       </c>
       <c r="H47" s="3">
-        <v>50100</v>
+        <v>49100</v>
       </c>
       <c r="I47" s="3">
-        <v>49300</v>
+        <v>48300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1440900</v>
+        <v>1412800</v>
       </c>
       <c r="E48" s="3">
-        <v>1387500</v>
+        <v>1360400</v>
       </c>
       <c r="F48" s="3">
-        <v>1287700</v>
+        <v>1262600</v>
       </c>
       <c r="G48" s="3">
-        <v>1261700</v>
+        <v>1237100</v>
       </c>
       <c r="H48" s="3">
-        <v>1244800</v>
+        <v>1220500</v>
       </c>
       <c r="I48" s="3">
-        <v>1161500</v>
+        <v>1138800</v>
       </c>
       <c r="J48" s="3">
-        <v>782600</v>
+        <v>767400</v>
       </c>
       <c r="K48" s="3">
         <v>756600</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E49" s="3">
         <v>16500</v>
       </c>
-      <c r="E49" s="3">
-        <v>16800</v>
-      </c>
       <c r="F49" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="G49" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="H49" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="I49" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1244400</v>
+        <v>1220100</v>
       </c>
       <c r="E52" s="3">
-        <v>1174000</v>
+        <v>1151100</v>
       </c>
       <c r="F52" s="3">
-        <v>1457900</v>
+        <v>1429500</v>
       </c>
       <c r="G52" s="3">
-        <v>1042200</v>
+        <v>1021900</v>
       </c>
       <c r="H52" s="3">
-        <v>1496400</v>
+        <v>1467200</v>
       </c>
       <c r="I52" s="3">
-        <v>661300</v>
+        <v>648400</v>
       </c>
       <c r="J52" s="3">
-        <v>215100</v>
+        <v>210900</v>
       </c>
       <c r="K52" s="3">
         <v>127800</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>209789000</v>
+        <v>205697000</v>
       </c>
       <c r="E54" s="3">
-        <v>183593000</v>
+        <v>180012000</v>
       </c>
       <c r="F54" s="3">
-        <v>165131000</v>
+        <v>161910000</v>
       </c>
       <c r="G54" s="3">
-        <v>149867000</v>
+        <v>146944000</v>
       </c>
       <c r="H54" s="3">
-        <v>131397000</v>
+        <v>128834000</v>
       </c>
       <c r="I54" s="3">
-        <v>122470000</v>
+        <v>120081000</v>
       </c>
       <c r="J54" s="3">
-        <v>110116000</v>
+        <v>107969000</v>
       </c>
       <c r="K54" s="3">
         <v>102743000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5238800</v>
+        <v>5136600</v>
       </c>
       <c r="E57" s="3">
-        <v>5081400</v>
+        <v>4982300</v>
       </c>
       <c r="F57" s="3">
-        <v>4980100</v>
+        <v>4883000</v>
       </c>
       <c r="G57" s="3">
-        <v>4201900</v>
+        <v>4120000</v>
       </c>
       <c r="H57" s="3">
-        <v>3534600</v>
+        <v>3465700</v>
       </c>
       <c r="I57" s="3">
-        <v>2660400</v>
+        <v>2608500</v>
       </c>
       <c r="J57" s="3">
-        <v>2360800</v>
+        <v>2314700</v>
       </c>
       <c r="K57" s="3">
         <v>2637600</v>
@@ -2356,16 +2356,16 @@
         <v>1700</v>
       </c>
       <c r="G59" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H59" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
-        <v>438100</v>
+        <v>429500</v>
       </c>
       <c r="J59" s="3">
-        <v>435900</v>
+        <v>427400</v>
       </c>
       <c r="K59" s="3">
         <v>407000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18619500</v>
+        <v>18256300</v>
       </c>
       <c r="E61" s="3">
-        <v>28074900</v>
+        <v>27527300</v>
       </c>
       <c r="F61" s="3">
-        <v>27781700</v>
+        <v>27239800</v>
       </c>
       <c r="G61" s="3">
-        <v>30407300</v>
+        <v>29814200</v>
       </c>
       <c r="H61" s="3">
-        <v>24937700</v>
+        <v>24451300</v>
       </c>
       <c r="I61" s="3">
-        <v>29260300</v>
+        <v>28689600</v>
       </c>
       <c r="J61" s="3">
-        <v>28159900</v>
+        <v>27610600</v>
       </c>
       <c r="K61" s="3">
         <v>25218700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1530200</v>
+        <v>1500300</v>
       </c>
       <c r="E62" s="3">
-        <v>882900</v>
+        <v>865700</v>
       </c>
       <c r="F62" s="3">
-        <v>419800</v>
+        <v>411700</v>
       </c>
       <c r="G62" s="3">
-        <v>380900</v>
+        <v>373400</v>
       </c>
       <c r="H62" s="3">
-        <v>340200</v>
+        <v>333500</v>
       </c>
       <c r="I62" s="3">
-        <v>388900</v>
+        <v>381400</v>
       </c>
       <c r="J62" s="3">
-        <v>340000</v>
+        <v>333400</v>
       </c>
       <c r="K62" s="3">
         <v>294600</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>188783000</v>
+        <v>185101000</v>
       </c>
       <c r="E66" s="3">
-        <v>167203000</v>
+        <v>163941000</v>
       </c>
       <c r="F66" s="3">
-        <v>149901000</v>
+        <v>146977000</v>
       </c>
       <c r="G66" s="3">
-        <v>135120000</v>
+        <v>132484000</v>
       </c>
       <c r="H66" s="3">
-        <v>117450000</v>
+        <v>115159000</v>
       </c>
       <c r="I66" s="3">
-        <v>109925000</v>
+        <v>107781000</v>
       </c>
       <c r="J66" s="3">
-        <v>98825200</v>
+        <v>96897700</v>
       </c>
       <c r="K66" s="3">
         <v>92241100</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13470400</v>
+        <v>13207700</v>
       </c>
       <c r="E72" s="3">
-        <v>10797700</v>
+        <v>10587100</v>
       </c>
       <c r="F72" s="3">
-        <v>9834200</v>
+        <v>9642400</v>
       </c>
       <c r="G72" s="3">
-        <v>9554500</v>
+        <v>9368100</v>
       </c>
       <c r="H72" s="3">
-        <v>8807700</v>
+        <v>8635900</v>
       </c>
       <c r="I72" s="3">
-        <v>7452400</v>
+        <v>7307000</v>
       </c>
       <c r="J72" s="3">
-        <v>6575500</v>
+        <v>6447200</v>
       </c>
       <c r="K72" s="3">
         <v>5639000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21006400</v>
+        <v>20596700</v>
       </c>
       <c r="E76" s="3">
-        <v>16390600</v>
+        <v>16070900</v>
       </c>
       <c r="F76" s="3">
-        <v>15230000</v>
+        <v>14932900</v>
       </c>
       <c r="G76" s="3">
-        <v>14746900</v>
+        <v>14459300</v>
       </c>
       <c r="H76" s="3">
-        <v>13947400</v>
+        <v>13675400</v>
       </c>
       <c r="I76" s="3">
-        <v>12545000</v>
+        <v>12300300</v>
       </c>
       <c r="J76" s="3">
-        <v>11291100</v>
+        <v>11070900</v>
       </c>
       <c r="K76" s="3">
         <v>10501500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2450600</v>
+        <v>2402800</v>
       </c>
       <c r="E81" s="3">
-        <v>1275200</v>
+        <v>1250300</v>
       </c>
       <c r="F81" s="3">
-        <v>567100</v>
+        <v>556000</v>
       </c>
       <c r="G81" s="3">
-        <v>1028000</v>
+        <v>1008000</v>
       </c>
       <c r="H81" s="3">
-        <v>1358100</v>
+        <v>1331600</v>
       </c>
       <c r="I81" s="3">
-        <v>1357000</v>
+        <v>1330500</v>
       </c>
       <c r="J81" s="3">
-        <v>1632500</v>
+        <v>1600700</v>
       </c>
       <c r="K81" s="3">
         <v>1516400</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>196100</v>
+        <v>192300</v>
       </c>
       <c r="E83" s="3">
-        <v>182600</v>
+        <v>179000</v>
       </c>
       <c r="F83" s="3">
-        <v>139300</v>
+        <v>136600</v>
       </c>
       <c r="G83" s="3">
-        <v>138500</v>
+        <v>135800</v>
       </c>
       <c r="H83" s="3">
-        <v>139200</v>
+        <v>136500</v>
       </c>
       <c r="I83" s="3">
-        <v>127500</v>
+        <v>125000</v>
       </c>
       <c r="J83" s="3">
-        <v>121300</v>
+        <v>119000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18397400</v>
+        <v>18038600</v>
       </c>
       <c r="E89" s="3">
-        <v>10606000</v>
+        <v>10399100</v>
       </c>
       <c r="F89" s="3">
-        <v>6487900</v>
+        <v>6361300</v>
       </c>
       <c r="G89" s="3">
-        <v>2583700</v>
+        <v>2533300</v>
       </c>
       <c r="H89" s="3">
-        <v>7016300</v>
+        <v>6879500</v>
       </c>
       <c r="I89" s="3">
-        <v>3151900</v>
+        <v>3090400</v>
       </c>
       <c r="J89" s="3">
-        <v>-1636000</v>
+        <v>-1604100</v>
       </c>
       <c r="K89" s="3">
         <v>929500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-225000</v>
+        <v>-220600</v>
       </c>
       <c r="E91" s="3">
-        <v>-249700</v>
+        <v>-244900</v>
       </c>
       <c r="F91" s="3">
-        <v>-153000</v>
+        <v>-150100</v>
       </c>
       <c r="G91" s="3">
-        <v>-138900</v>
+        <v>-136200</v>
       </c>
       <c r="H91" s="3">
-        <v>-175500</v>
+        <v>-172100</v>
       </c>
       <c r="I91" s="3">
-        <v>-113100</v>
+        <v>-110900</v>
       </c>
       <c r="J91" s="3">
-        <v>-165900</v>
+        <v>-162700</v>
       </c>
       <c r="K91" s="3">
         <v>-115100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8396200</v>
+        <v>-8232400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5639700</v>
+        <v>-5529700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4018600</v>
+        <v>-3940200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6741400</v>
+        <v>-6610000</v>
       </c>
       <c r="H94" s="3">
-        <v>-214000</v>
+        <v>-209900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1575500</v>
+        <v>-1544800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1723800</v>
+        <v>-1690200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3535,22 +3535,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-118200</v>
+        <v>-115800</v>
       </c>
       <c r="F96" s="3">
-        <v>-155800</v>
+        <v>-152800</v>
       </c>
       <c r="G96" s="3">
-        <v>-228800</v>
+        <v>-224300</v>
       </c>
       <c r="H96" s="3">
-        <v>-456300</v>
+        <v>-447400</v>
       </c>
       <c r="I96" s="3">
-        <v>-460200</v>
+        <v>-451200</v>
       </c>
       <c r="J96" s="3">
-        <v>-411100</v>
+        <v>-403100</v>
       </c>
       <c r="K96" s="3">
         <v>-371500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7287100</v>
+        <v>-7144900</v>
       </c>
       <c r="E100" s="3">
-        <v>398900</v>
+        <v>391100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2665700</v>
+        <v>-2613700</v>
       </c>
       <c r="G100" s="3">
-        <v>5288800</v>
+        <v>5185600</v>
       </c>
       <c r="H100" s="3">
-        <v>-4728100</v>
+        <v>-4635900</v>
       </c>
       <c r="I100" s="3">
-        <v>775000</v>
+        <v>759900</v>
       </c>
       <c r="J100" s="3">
-        <v>3309500</v>
+        <v>3244900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-85800</v>
+        <v>-84200</v>
       </c>
       <c r="E101" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="F101" s="3">
-        <v>-17900</v>
+        <v>-17600</v>
       </c>
       <c r="G101" s="3">
         <v>3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="I101" s="3">
-        <v>-32100</v>
+        <v>-31500</v>
       </c>
       <c r="J101" s="3">
-        <v>-32400</v>
+        <v>-31800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2628400</v>
+        <v>2577100</v>
       </c>
       <c r="E102" s="3">
-        <v>5393600</v>
+        <v>5288400</v>
       </c>
       <c r="F102" s="3">
-        <v>-214400</v>
+        <v>-210200</v>
       </c>
       <c r="G102" s="3">
-        <v>1134200</v>
+        <v>1112000</v>
       </c>
       <c r="H102" s="3">
-        <v>2060100</v>
+        <v>2020000</v>
       </c>
       <c r="I102" s="3">
-        <v>2319300</v>
+        <v>2274000</v>
       </c>
       <c r="J102" s="3">
-        <v>-82800</v>
+        <v>-81200</v>
       </c>
       <c r="K102" s="3">
         <v>-152900</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11653600</v>
+        <v>11519800</v>
       </c>
       <c r="E8" s="3">
-        <v>11088000</v>
+        <v>10960800</v>
       </c>
       <c r="F8" s="3">
-        <v>9408000</v>
+        <v>9300000</v>
       </c>
       <c r="G8" s="3">
-        <v>8124600</v>
+        <v>8031400</v>
       </c>
       <c r="H8" s="3">
-        <v>7964900</v>
+        <v>7873400</v>
       </c>
       <c r="I8" s="3">
-        <v>7749700</v>
+        <v>7660700</v>
       </c>
       <c r="J8" s="3">
-        <v>7183800</v>
+        <v>7101300</v>
       </c>
       <c r="K8" s="3">
         <v>6798400</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-175100</v>
+        <v>-173100</v>
       </c>
       <c r="E15" s="3">
-        <v>-153100</v>
+        <v>-151300</v>
       </c>
       <c r="F15" s="3">
-        <v>-123600</v>
+        <v>-122200</v>
       </c>
       <c r="G15" s="3">
-        <v>-120500</v>
+        <v>-119100</v>
       </c>
       <c r="H15" s="3">
-        <v>-119200</v>
+        <v>-117800</v>
       </c>
       <c r="I15" s="3">
-        <v>-110200</v>
+        <v>-108900</v>
       </c>
       <c r="J15" s="3">
-        <v>-104300</v>
+        <v>-103100</v>
       </c>
       <c r="K15" s="3">
         <v>-98800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7120700</v>
+        <v>7039000</v>
       </c>
       <c r="E17" s="3">
-        <v>7206900</v>
+        <v>7124200</v>
       </c>
       <c r="F17" s="3">
-        <v>7747900</v>
+        <v>7659000</v>
       </c>
       <c r="G17" s="3">
-        <v>6572400</v>
+        <v>6497000</v>
       </c>
       <c r="H17" s="3">
-        <v>6611000</v>
+        <v>6535100</v>
       </c>
       <c r="I17" s="3">
-        <v>5452200</v>
+        <v>5389600</v>
       </c>
       <c r="J17" s="3">
-        <v>4698500</v>
+        <v>4644600</v>
       </c>
       <c r="K17" s="3">
         <v>4423200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4532800</v>
+        <v>4480800</v>
       </c>
       <c r="E18" s="3">
-        <v>3881100</v>
+        <v>3836600</v>
       </c>
       <c r="F18" s="3">
-        <v>1660100</v>
+        <v>1641000</v>
       </c>
       <c r="G18" s="3">
-        <v>1552200</v>
+        <v>1534400</v>
       </c>
       <c r="H18" s="3">
-        <v>1353900</v>
+        <v>1338400</v>
       </c>
       <c r="I18" s="3">
-        <v>2297500</v>
+        <v>2271100</v>
       </c>
       <c r="J18" s="3">
-        <v>2485300</v>
+        <v>2456700</v>
       </c>
       <c r="K18" s="3">
         <v>2375200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1130900</v>
+        <v>-1117900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1451600</v>
+        <v>-1434900</v>
       </c>
       <c r="F20" s="3">
-        <v>-691800</v>
+        <v>-683900</v>
       </c>
       <c r="G20" s="3">
-        <v>-117300</v>
+        <v>-116000</v>
       </c>
       <c r="H20" s="3">
-        <v>451000</v>
+        <v>445800</v>
       </c>
       <c r="I20" s="3">
-        <v>-427900</v>
+        <v>-423000</v>
       </c>
       <c r="J20" s="3">
-        <v>-89000</v>
+        <v>-88000</v>
       </c>
       <c r="K20" s="3">
         <v>-138100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3594700</v>
+        <v>3539800</v>
       </c>
       <c r="E21" s="3">
-        <v>2609000</v>
+        <v>2536700</v>
       </c>
       <c r="F21" s="3">
-        <v>1105200</v>
+        <v>1091400</v>
       </c>
       <c r="G21" s="3">
-        <v>1571000</v>
+        <v>1553400</v>
       </c>
       <c r="H21" s="3">
-        <v>1941700</v>
+        <v>1907800</v>
       </c>
       <c r="I21" s="3">
-        <v>1994900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2515500</v>
+        <v>1965700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3401900</v>
+        <v>3362900</v>
       </c>
       <c r="E23" s="3">
-        <v>2429500</v>
+        <v>2401600</v>
       </c>
       <c r="F23" s="3">
-        <v>968300</v>
+        <v>957100</v>
       </c>
       <c r="G23" s="3">
-        <v>1434900</v>
+        <v>1418400</v>
       </c>
       <c r="H23" s="3">
-        <v>1804900</v>
+        <v>1784200</v>
       </c>
       <c r="I23" s="3">
-        <v>1869600</v>
+        <v>1848100</v>
       </c>
       <c r="J23" s="3">
-        <v>2396200</v>
+        <v>2368700</v>
       </c>
       <c r="K23" s="3">
         <v>2237100</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>740300</v>
+        <v>731800</v>
       </c>
       <c r="E24" s="3">
-        <v>803900</v>
+        <v>794600</v>
       </c>
       <c r="F24" s="3">
-        <v>224700</v>
+        <v>222100</v>
       </c>
       <c r="G24" s="3">
-        <v>245600</v>
+        <v>242800</v>
       </c>
       <c r="H24" s="3">
-        <v>322700</v>
+        <v>319000</v>
       </c>
       <c r="I24" s="3">
-        <v>441400</v>
+        <v>436400</v>
       </c>
       <c r="J24" s="3">
-        <v>704700</v>
+        <v>696600</v>
       </c>
       <c r="K24" s="3">
         <v>633300</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2661600</v>
+        <v>2631000</v>
       </c>
       <c r="E26" s="3">
-        <v>1625700</v>
+        <v>1607000</v>
       </c>
       <c r="F26" s="3">
-        <v>743600</v>
+        <v>735000</v>
       </c>
       <c r="G26" s="3">
-        <v>1189300</v>
+        <v>1175700</v>
       </c>
       <c r="H26" s="3">
-        <v>1482200</v>
+        <v>1465200</v>
       </c>
       <c r="I26" s="3">
-        <v>1428100</v>
+        <v>1411800</v>
       </c>
       <c r="J26" s="3">
-        <v>1691600</v>
+        <v>1672100</v>
       </c>
       <c r="K26" s="3">
         <v>1603700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2402800</v>
+        <v>2375300</v>
       </c>
       <c r="E27" s="3">
-        <v>1408800</v>
+        <v>1392700</v>
       </c>
       <c r="F27" s="3">
-        <v>556000</v>
+        <v>549600</v>
       </c>
       <c r="G27" s="3">
-        <v>1008000</v>
+        <v>996400</v>
       </c>
       <c r="H27" s="3">
-        <v>1331600</v>
+        <v>1316300</v>
       </c>
       <c r="I27" s="3">
-        <v>1330500</v>
+        <v>1315300</v>
       </c>
       <c r="J27" s="3">
-        <v>1600700</v>
+        <v>1582300</v>
       </c>
       <c r="K27" s="3">
         <v>1516400</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-158500</v>
+        <v>-156700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1130900</v>
+        <v>1117900</v>
       </c>
       <c r="E32" s="3">
-        <v>1451600</v>
+        <v>1434900</v>
       </c>
       <c r="F32" s="3">
-        <v>691800</v>
+        <v>683900</v>
       </c>
       <c r="G32" s="3">
-        <v>117300</v>
+        <v>116000</v>
       </c>
       <c r="H32" s="3">
-        <v>-451000</v>
+        <v>-445800</v>
       </c>
       <c r="I32" s="3">
-        <v>427900</v>
+        <v>423000</v>
       </c>
       <c r="J32" s="3">
-        <v>89000</v>
+        <v>88000</v>
       </c>
       <c r="K32" s="3">
         <v>138100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2402800</v>
+        <v>2375300</v>
       </c>
       <c r="E33" s="3">
-        <v>1250300</v>
+        <v>1236000</v>
       </c>
       <c r="F33" s="3">
-        <v>556000</v>
+        <v>549600</v>
       </c>
       <c r="G33" s="3">
-        <v>1008000</v>
+        <v>996400</v>
       </c>
       <c r="H33" s="3">
-        <v>1331600</v>
+        <v>1316300</v>
       </c>
       <c r="I33" s="3">
-        <v>1330500</v>
+        <v>1315300</v>
       </c>
       <c r="J33" s="3">
-        <v>1600700</v>
+        <v>1582300</v>
       </c>
       <c r="K33" s="3">
         <v>1516400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2402800</v>
+        <v>2375300</v>
       </c>
       <c r="E35" s="3">
-        <v>1250300</v>
+        <v>1236000</v>
       </c>
       <c r="F35" s="3">
-        <v>556000</v>
+        <v>549600</v>
       </c>
       <c r="G35" s="3">
-        <v>1008000</v>
+        <v>996400</v>
       </c>
       <c r="H35" s="3">
-        <v>1331600</v>
+        <v>1316300</v>
       </c>
       <c r="I35" s="3">
-        <v>1330500</v>
+        <v>1315300</v>
       </c>
       <c r="J35" s="3">
-        <v>1600700</v>
+        <v>1582300</v>
       </c>
       <c r="K35" s="3">
         <v>1516400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10390200</v>
+        <v>10271000</v>
       </c>
       <c r="E41" s="3">
-        <v>6638100</v>
+        <v>6561900</v>
       </c>
       <c r="F41" s="3">
-        <v>7496300</v>
+        <v>7410300</v>
       </c>
       <c r="G41" s="3">
-        <v>7282100</v>
+        <v>7198500</v>
       </c>
       <c r="H41" s="3">
-        <v>7584500</v>
+        <v>7497500</v>
       </c>
       <c r="I41" s="3">
-        <v>6633700</v>
+        <v>6557600</v>
       </c>
       <c r="J41" s="3">
-        <v>6049600</v>
+        <v>5980200</v>
       </c>
       <c r="K41" s="3">
         <v>5999100</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39696800</v>
+        <v>39241200</v>
       </c>
       <c r="E42" s="3">
-        <v>35785800</v>
+        <v>35375100</v>
       </c>
       <c r="F42" s="3">
-        <v>31093300</v>
+        <v>30736400</v>
       </c>
       <c r="G42" s="3">
-        <v>29130500</v>
+        <v>28796200</v>
       </c>
       <c r="H42" s="3">
-        <v>30291700</v>
+        <v>29944000</v>
       </c>
       <c r="I42" s="3">
-        <v>20046000</v>
+        <v>19815900</v>
       </c>
       <c r="J42" s="3">
-        <v>22428400</v>
+        <v>22171000</v>
       </c>
       <c r="K42" s="3">
         <v>22326800</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87900</v>
+        <v>86900</v>
       </c>
       <c r="E47" s="3">
-        <v>91200</v>
+        <v>90100</v>
       </c>
       <c r="F47" s="3">
-        <v>95300</v>
+        <v>94200</v>
       </c>
       <c r="G47" s="3">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="H47" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="I47" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1412800</v>
+        <v>1396600</v>
       </c>
       <c r="E48" s="3">
-        <v>1360400</v>
+        <v>1344800</v>
       </c>
       <c r="F48" s="3">
-        <v>1262600</v>
+        <v>1248100</v>
       </c>
       <c r="G48" s="3">
-        <v>1237100</v>
+        <v>1222900</v>
       </c>
       <c r="H48" s="3">
-        <v>1220500</v>
+        <v>1206500</v>
       </c>
       <c r="I48" s="3">
-        <v>1138800</v>
+        <v>1125800</v>
       </c>
       <c r="J48" s="3">
-        <v>767400</v>
+        <v>758600</v>
       </c>
       <c r="K48" s="3">
         <v>756600</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I49" s="3">
         <v>16200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>16500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>16400</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1220100</v>
+        <v>1206100</v>
       </c>
       <c r="E52" s="3">
-        <v>1151100</v>
+        <v>1137900</v>
       </c>
       <c r="F52" s="3">
-        <v>1429500</v>
+        <v>1413100</v>
       </c>
       <c r="G52" s="3">
-        <v>1021900</v>
+        <v>1010100</v>
       </c>
       <c r="H52" s="3">
-        <v>1467200</v>
+        <v>1450300</v>
       </c>
       <c r="I52" s="3">
-        <v>648400</v>
+        <v>641000</v>
       </c>
       <c r="J52" s="3">
-        <v>210900</v>
+        <v>208500</v>
       </c>
       <c r="K52" s="3">
         <v>127800</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>205697000</v>
+        <v>203337000</v>
       </c>
       <c r="E54" s="3">
-        <v>180012000</v>
+        <v>177946000</v>
       </c>
       <c r="F54" s="3">
-        <v>161910000</v>
+        <v>160052000</v>
       </c>
       <c r="G54" s="3">
-        <v>146944000</v>
+        <v>145257000</v>
       </c>
       <c r="H54" s="3">
-        <v>128834000</v>
+        <v>127356000</v>
       </c>
       <c r="I54" s="3">
-        <v>120081000</v>
+        <v>118703000</v>
       </c>
       <c r="J54" s="3">
-        <v>107969000</v>
+        <v>106729000</v>
       </c>
       <c r="K54" s="3">
         <v>102743000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5136600</v>
+        <v>5077700</v>
       </c>
       <c r="E57" s="3">
-        <v>4982300</v>
+        <v>4925200</v>
       </c>
       <c r="F57" s="3">
-        <v>4883000</v>
+        <v>4826900</v>
       </c>
       <c r="G57" s="3">
-        <v>4120000</v>
+        <v>4072700</v>
       </c>
       <c r="H57" s="3">
-        <v>3465700</v>
+        <v>3425900</v>
       </c>
       <c r="I57" s="3">
-        <v>2608500</v>
+        <v>2578500</v>
       </c>
       <c r="J57" s="3">
-        <v>2314700</v>
+        <v>2288200</v>
       </c>
       <c r="K57" s="3">
         <v>2637600</v>
@@ -2356,16 +2356,16 @@
         <v>1700</v>
       </c>
       <c r="G59" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I59" s="3">
-        <v>429500</v>
+        <v>424600</v>
       </c>
       <c r="J59" s="3">
-        <v>427400</v>
+        <v>422500</v>
       </c>
       <c r="K59" s="3">
         <v>407000</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18256300</v>
+        <v>18046800</v>
       </c>
       <c r="E61" s="3">
-        <v>27527300</v>
+        <v>27211400</v>
       </c>
       <c r="F61" s="3">
-        <v>27239800</v>
+        <v>26927200</v>
       </c>
       <c r="G61" s="3">
-        <v>29814200</v>
+        <v>29472000</v>
       </c>
       <c r="H61" s="3">
-        <v>24451300</v>
+        <v>24170700</v>
       </c>
       <c r="I61" s="3">
-        <v>28689600</v>
+        <v>28360400</v>
       </c>
       <c r="J61" s="3">
-        <v>27610600</v>
+        <v>27293800</v>
       </c>
       <c r="K61" s="3">
         <v>25218700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500300</v>
+        <v>1483100</v>
       </c>
       <c r="E62" s="3">
-        <v>865700</v>
+        <v>855800</v>
       </c>
       <c r="F62" s="3">
-        <v>411700</v>
+        <v>406900</v>
       </c>
       <c r="G62" s="3">
-        <v>373400</v>
+        <v>369200</v>
       </c>
       <c r="H62" s="3">
-        <v>333500</v>
+        <v>329700</v>
       </c>
       <c r="I62" s="3">
-        <v>381400</v>
+        <v>377000</v>
       </c>
       <c r="J62" s="3">
-        <v>333400</v>
+        <v>329600</v>
       </c>
       <c r="K62" s="3">
         <v>294600</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>185101000</v>
+        <v>182976000</v>
       </c>
       <c r="E66" s="3">
-        <v>163941000</v>
+        <v>162060000</v>
       </c>
       <c r="F66" s="3">
-        <v>146977000</v>
+        <v>145291000</v>
       </c>
       <c r="G66" s="3">
-        <v>132484000</v>
+        <v>130964000</v>
       </c>
       <c r="H66" s="3">
-        <v>115159000</v>
+        <v>113837000</v>
       </c>
       <c r="I66" s="3">
-        <v>107781000</v>
+        <v>106544000</v>
       </c>
       <c r="J66" s="3">
-        <v>96897700</v>
+        <v>95785600</v>
       </c>
       <c r="K66" s="3">
         <v>92241100</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13207700</v>
+        <v>13056100</v>
       </c>
       <c r="E72" s="3">
-        <v>10587100</v>
+        <v>10465600</v>
       </c>
       <c r="F72" s="3">
-        <v>9642400</v>
+        <v>9531700</v>
       </c>
       <c r="G72" s="3">
-        <v>9368100</v>
+        <v>9260600</v>
       </c>
       <c r="H72" s="3">
-        <v>8635900</v>
+        <v>8536800</v>
       </c>
       <c r="I72" s="3">
-        <v>7307000</v>
+        <v>7223200</v>
       </c>
       <c r="J72" s="3">
-        <v>6447200</v>
+        <v>6373200</v>
       </c>
       <c r="K72" s="3">
         <v>5639000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20596700</v>
+        <v>20360300</v>
       </c>
       <c r="E76" s="3">
-        <v>16070900</v>
+        <v>15886400</v>
       </c>
       <c r="F76" s="3">
-        <v>14932900</v>
+        <v>14761500</v>
       </c>
       <c r="G76" s="3">
-        <v>14459300</v>
+        <v>14293400</v>
       </c>
       <c r="H76" s="3">
-        <v>13675400</v>
+        <v>13518500</v>
       </c>
       <c r="I76" s="3">
-        <v>12300300</v>
+        <v>12159100</v>
       </c>
       <c r="J76" s="3">
-        <v>11070900</v>
+        <v>10943800</v>
       </c>
       <c r="K76" s="3">
         <v>10501500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2402800</v>
+        <v>2375300</v>
       </c>
       <c r="E81" s="3">
-        <v>1250300</v>
+        <v>1236000</v>
       </c>
       <c r="F81" s="3">
-        <v>556000</v>
+        <v>549600</v>
       </c>
       <c r="G81" s="3">
-        <v>1008000</v>
+        <v>996400</v>
       </c>
       <c r="H81" s="3">
-        <v>1331600</v>
+        <v>1316300</v>
       </c>
       <c r="I81" s="3">
-        <v>1330500</v>
+        <v>1315300</v>
       </c>
       <c r="J81" s="3">
-        <v>1600700</v>
+        <v>1582300</v>
       </c>
       <c r="K81" s="3">
         <v>1516400</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>192300</v>
+        <v>177000</v>
       </c>
       <c r="E83" s="3">
-        <v>179000</v>
+        <v>135100</v>
       </c>
       <c r="F83" s="3">
-        <v>136600</v>
+        <v>134200</v>
       </c>
       <c r="G83" s="3">
-        <v>135800</v>
+        <v>134900</v>
       </c>
       <c r="H83" s="3">
-        <v>136500</v>
+        <v>123600</v>
       </c>
       <c r="I83" s="3">
-        <v>125000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>119000</v>
+        <v>117600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18038600</v>
+        <v>10279800</v>
       </c>
       <c r="E89" s="3">
-        <v>10399100</v>
+        <v>6288300</v>
       </c>
       <c r="F89" s="3">
-        <v>6361300</v>
+        <v>2504300</v>
       </c>
       <c r="G89" s="3">
-        <v>2533300</v>
+        <v>6800500</v>
       </c>
       <c r="H89" s="3">
-        <v>6879500</v>
+        <v>3055000</v>
       </c>
       <c r="I89" s="3">
-        <v>3090400</v>
+        <v>-1585700</v>
       </c>
       <c r="J89" s="3">
-        <v>-1604100</v>
+        <v>874000</v>
       </c>
       <c r="K89" s="3">
         <v>929500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-220600</v>
+        <v>-242100</v>
       </c>
       <c r="E91" s="3">
-        <v>-244900</v>
+        <v>-148300</v>
       </c>
       <c r="F91" s="3">
-        <v>-150100</v>
+        <v>-134600</v>
       </c>
       <c r="G91" s="3">
-        <v>-136200</v>
+        <v>-170100</v>
       </c>
       <c r="H91" s="3">
-        <v>-172100</v>
+        <v>-109600</v>
       </c>
       <c r="I91" s="3">
-        <v>-110900</v>
+        <v>-160800</v>
       </c>
       <c r="J91" s="3">
-        <v>-162700</v>
+        <v>-108200</v>
       </c>
       <c r="K91" s="3">
         <v>-115100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8232400</v>
+        <v>-5466200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5529700</v>
+        <v>-3895000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3940200</v>
+        <v>-6534100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6610000</v>
+        <v>-207500</v>
       </c>
       <c r="H94" s="3">
-        <v>-209900</v>
+        <v>-1527000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1544800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1690200</v>
+        <v>-1670800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-114500</v>
       </c>
       <c r="E96" s="3">
-        <v>-115800</v>
+        <v>-151000</v>
       </c>
       <c r="F96" s="3">
-        <v>-152800</v>
+        <v>-221700</v>
       </c>
       <c r="G96" s="3">
-        <v>-224300</v>
+        <v>-442300</v>
       </c>
       <c r="H96" s="3">
-        <v>-447400</v>
+        <v>-446100</v>
       </c>
       <c r="I96" s="3">
-        <v>-451200</v>
+        <v>-398500</v>
       </c>
       <c r="J96" s="3">
-        <v>-403100</v>
+        <v>-349400</v>
       </c>
       <c r="K96" s="3">
         <v>-371500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7144900</v>
+        <v>386600</v>
       </c>
       <c r="E100" s="3">
-        <v>391100</v>
+        <v>-2583700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2613700</v>
+        <v>5126100</v>
       </c>
       <c r="G100" s="3">
-        <v>5185600</v>
+        <v>-4582700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4635900</v>
+        <v>751200</v>
       </c>
       <c r="I100" s="3">
-        <v>759900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3244900</v>
+        <v>3207700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-84200</v>
+        <v>27600</v>
       </c>
       <c r="E101" s="3">
-        <v>27900</v>
+        <v>-17400</v>
       </c>
       <c r="F101" s="3">
-        <v>-17600</v>
+        <v>2900</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>-13600</v>
       </c>
       <c r="H101" s="3">
-        <v>-13800</v>
+        <v>-31200</v>
       </c>
       <c r="I101" s="3">
-        <v>-31500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-31800</v>
+        <v>-31400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2577100</v>
+        <v>5227700</v>
       </c>
       <c r="E102" s="3">
-        <v>5288400</v>
+        <v>-207800</v>
       </c>
       <c r="F102" s="3">
-        <v>-210200</v>
+        <v>1099300</v>
       </c>
       <c r="G102" s="3">
-        <v>1112000</v>
+        <v>1996800</v>
       </c>
       <c r="H102" s="3">
-        <v>2020000</v>
+        <v>2247900</v>
       </c>
       <c r="I102" s="3">
-        <v>2274000</v>
+        <v>-80200</v>
       </c>
       <c r="J102" s="3">
-        <v>-81200</v>
+        <v>-143800</v>
       </c>
       <c r="K102" s="3">
         <v>-152900</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,100 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11519800</v>
+        <v>11944900</v>
       </c>
       <c r="E8" s="3">
-        <v>10960800</v>
+        <v>11163200</v>
       </c>
       <c r="F8" s="3">
-        <v>9300000</v>
+        <v>10621400</v>
       </c>
       <c r="G8" s="3">
-        <v>8031400</v>
+        <v>9012100</v>
       </c>
       <c r="H8" s="3">
-        <v>7873400</v>
+        <v>7782700</v>
       </c>
       <c r="I8" s="3">
-        <v>7660700</v>
+        <v>7629700</v>
       </c>
       <c r="J8" s="3">
+        <v>7423600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7101300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6798400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5933700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5494100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-173100</v>
+        <v>-166500</v>
       </c>
       <c r="E15" s="3">
-        <v>-151300</v>
+        <v>-167800</v>
       </c>
       <c r="F15" s="3">
-        <v>-122200</v>
+        <v>-146600</v>
       </c>
       <c r="G15" s="3">
-        <v>-119100</v>
+        <v>-118400</v>
       </c>
       <c r="H15" s="3">
-        <v>-117800</v>
+        <v>-115500</v>
       </c>
       <c r="I15" s="3">
-        <v>-108900</v>
+        <v>-114100</v>
       </c>
       <c r="J15" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-103100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-98800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-82700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-97100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7039000</v>
+        <v>6078700</v>
       </c>
       <c r="E17" s="3">
-        <v>7124200</v>
+        <v>6821100</v>
       </c>
       <c r="F17" s="3">
-        <v>7659000</v>
+        <v>6903600</v>
       </c>
       <c r="G17" s="3">
-        <v>6497000</v>
+        <v>7421900</v>
       </c>
       <c r="H17" s="3">
-        <v>6535100</v>
+        <v>6295800</v>
       </c>
       <c r="I17" s="3">
-        <v>5389600</v>
+        <v>6332800</v>
       </c>
       <c r="J17" s="3">
+        <v>5222800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4644600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4423200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3944400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3768900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4480800</v>
+        <v>5866200</v>
       </c>
       <c r="E18" s="3">
-        <v>3836600</v>
+        <v>4342100</v>
       </c>
       <c r="F18" s="3">
-        <v>1641000</v>
+        <v>3717800</v>
       </c>
       <c r="G18" s="3">
-        <v>1534400</v>
+        <v>1590200</v>
       </c>
       <c r="H18" s="3">
-        <v>1338400</v>
+        <v>1486900</v>
       </c>
       <c r="I18" s="3">
-        <v>2271100</v>
+        <v>1296900</v>
       </c>
       <c r="J18" s="3">
+        <v>2200800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2456700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2375200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1989300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1725200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,67 +1116,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1117900</v>
+        <v>-1579200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1434900</v>
+        <v>-1083300</v>
       </c>
       <c r="F20" s="3">
-        <v>-683900</v>
+        <v>-1390500</v>
       </c>
       <c r="G20" s="3">
-        <v>-116000</v>
+        <v>-662700</v>
       </c>
       <c r="H20" s="3">
-        <v>445800</v>
+        <v>-112400</v>
       </c>
       <c r="I20" s="3">
-        <v>-423000</v>
+        <v>432000</v>
       </c>
       <c r="J20" s="3">
+        <v>-409900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-88000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-138100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-189200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-179900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3539800</v>
+        <v>4472400</v>
       </c>
       <c r="E21" s="3">
-        <v>2536700</v>
+        <v>3443100</v>
       </c>
       <c r="F21" s="3">
-        <v>1091400</v>
+        <v>2498900</v>
       </c>
       <c r="G21" s="3">
-        <v>1553400</v>
+        <v>1058500</v>
       </c>
       <c r="H21" s="3">
-        <v>1907800</v>
+        <v>1504700</v>
       </c>
       <c r="I21" s="3">
-        <v>1965700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>1859800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1910800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1152,12 +1188,15 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1654500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3362900</v>
+        <v>4287000</v>
       </c>
       <c r="E23" s="3">
-        <v>2401600</v>
+        <v>3258700</v>
       </c>
       <c r="F23" s="3">
-        <v>957100</v>
+        <v>2327300</v>
       </c>
       <c r="G23" s="3">
-        <v>1418400</v>
+        <v>927500</v>
       </c>
       <c r="H23" s="3">
-        <v>1784200</v>
+        <v>1374500</v>
       </c>
       <c r="I23" s="3">
-        <v>1848100</v>
+        <v>1728900</v>
       </c>
       <c r="J23" s="3">
+        <v>1790900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2368700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2237100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1545300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>731800</v>
+        <v>1058900</v>
       </c>
       <c r="E24" s="3">
-        <v>794600</v>
+        <v>709200</v>
       </c>
       <c r="F24" s="3">
-        <v>222100</v>
+        <v>770000</v>
       </c>
       <c r="G24" s="3">
-        <v>242800</v>
+        <v>215200</v>
       </c>
       <c r="H24" s="3">
-        <v>319000</v>
+        <v>235200</v>
       </c>
       <c r="I24" s="3">
-        <v>436400</v>
+        <v>309100</v>
       </c>
       <c r="J24" s="3">
+        <v>422900</v>
+      </c>
+      <c r="K24" s="3">
         <v>696600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>633300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>461000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>397500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2631000</v>
+        <v>3228100</v>
       </c>
       <c r="E26" s="3">
-        <v>1607000</v>
+        <v>2549600</v>
       </c>
       <c r="F26" s="3">
-        <v>735000</v>
+        <v>1557300</v>
       </c>
       <c r="G26" s="3">
-        <v>1175700</v>
+        <v>712300</v>
       </c>
       <c r="H26" s="3">
-        <v>1465200</v>
+        <v>1139300</v>
       </c>
       <c r="I26" s="3">
-        <v>1411800</v>
+        <v>1419800</v>
       </c>
       <c r="J26" s="3">
+        <v>1368000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1672100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1603700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1339200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1147800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2375300</v>
+        <v>3143800</v>
       </c>
       <c r="E27" s="3">
-        <v>1392700</v>
+        <v>2301700</v>
       </c>
       <c r="F27" s="3">
-        <v>549600</v>
+        <v>1349500</v>
       </c>
       <c r="G27" s="3">
-        <v>996400</v>
+        <v>532600</v>
       </c>
       <c r="H27" s="3">
-        <v>1316300</v>
+        <v>965600</v>
       </c>
       <c r="I27" s="3">
-        <v>1315300</v>
+        <v>1275600</v>
       </c>
       <c r="J27" s="3">
+        <v>1274500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1582300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1516400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1335900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1023900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,20 +1464,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>-156700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-151800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1437,15 +1497,18 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1117900</v>
+        <v>1579200</v>
       </c>
       <c r="E32" s="3">
-        <v>1434900</v>
+        <v>1083300</v>
       </c>
       <c r="F32" s="3">
-        <v>683900</v>
+        <v>1390500</v>
       </c>
       <c r="G32" s="3">
-        <v>116000</v>
+        <v>662700</v>
       </c>
       <c r="H32" s="3">
-        <v>-445800</v>
+        <v>112400</v>
       </c>
       <c r="I32" s="3">
-        <v>423000</v>
+        <v>-432000</v>
       </c>
       <c r="J32" s="3">
+        <v>409900</v>
+      </c>
+      <c r="K32" s="3">
         <v>88000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>138100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>189200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>179900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2375300</v>
+        <v>3143800</v>
       </c>
       <c r="E33" s="3">
-        <v>1236000</v>
+        <v>2301700</v>
       </c>
       <c r="F33" s="3">
-        <v>549600</v>
+        <v>1197700</v>
       </c>
       <c r="G33" s="3">
-        <v>996400</v>
+        <v>532600</v>
       </c>
       <c r="H33" s="3">
-        <v>1316300</v>
+        <v>965600</v>
       </c>
       <c r="I33" s="3">
-        <v>1315300</v>
+        <v>1275600</v>
       </c>
       <c r="J33" s="3">
+        <v>1274500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1582300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1516400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1335900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1023900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2375300</v>
+        <v>3143800</v>
       </c>
       <c r="E35" s="3">
-        <v>1236000</v>
+        <v>2301700</v>
       </c>
       <c r="F35" s="3">
-        <v>549600</v>
+        <v>1197700</v>
       </c>
       <c r="G35" s="3">
-        <v>996400</v>
+        <v>532600</v>
       </c>
       <c r="H35" s="3">
-        <v>1316300</v>
+        <v>965600</v>
       </c>
       <c r="I35" s="3">
-        <v>1315300</v>
+        <v>1275600</v>
       </c>
       <c r="J35" s="3">
+        <v>1274500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1582300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1516400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1335900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1023900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,80 +1818,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10271000</v>
+        <v>11724800</v>
       </c>
       <c r="E41" s="3">
-        <v>6561900</v>
+        <v>9953000</v>
       </c>
       <c r="F41" s="3">
-        <v>7410300</v>
+        <v>6358700</v>
       </c>
       <c r="G41" s="3">
-        <v>7198500</v>
+        <v>7180900</v>
       </c>
       <c r="H41" s="3">
-        <v>7497500</v>
+        <v>6975700</v>
       </c>
       <c r="I41" s="3">
-        <v>6557600</v>
+        <v>7265300</v>
       </c>
       <c r="J41" s="3">
+        <v>6354600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5980200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5999100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2554200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2997300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39241200</v>
+        <v>11704600</v>
       </c>
       <c r="E42" s="3">
-        <v>35375100</v>
+        <v>38026300</v>
       </c>
       <c r="F42" s="3">
-        <v>30736400</v>
+        <v>34279900</v>
       </c>
       <c r="G42" s="3">
-        <v>28796200</v>
+        <v>29784900</v>
       </c>
       <c r="H42" s="3">
-        <v>29944000</v>
+        <v>27904700</v>
       </c>
       <c r="I42" s="3">
-        <v>19815900</v>
+        <v>29017000</v>
       </c>
       <c r="J42" s="3">
+        <v>19202400</v>
+      </c>
+      <c r="K42" s="3">
         <v>22171000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22326800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>86900</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>90100</v>
+        <v>84200</v>
       </c>
       <c r="F47" s="3">
-        <v>94200</v>
+        <v>87300</v>
       </c>
       <c r="G47" s="3">
-        <v>64400</v>
+        <v>91300</v>
       </c>
       <c r="H47" s="3">
-        <v>48600</v>
+        <v>62400</v>
       </c>
       <c r="I47" s="3">
-        <v>47800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+        <v>47100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>46300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1984,81 +2088,90 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1396600</v>
+        <v>1327800</v>
       </c>
       <c r="E48" s="3">
-        <v>1344800</v>
+        <v>1353300</v>
       </c>
       <c r="F48" s="3">
-        <v>1248100</v>
+        <v>1303200</v>
       </c>
       <c r="G48" s="3">
-        <v>1222900</v>
+        <v>1209500</v>
       </c>
       <c r="H48" s="3">
-        <v>1206500</v>
+        <v>1185000</v>
       </c>
       <c r="I48" s="3">
-        <v>1125800</v>
+        <v>1169100</v>
       </c>
       <c r="J48" s="3">
+        <v>1090900</v>
+      </c>
+      <c r="K48" s="3">
         <v>758600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>756600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>724100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>785500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16000</v>
+        <v>12700</v>
       </c>
       <c r="E49" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="F49" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G49" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="H49" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="I49" s="3">
-        <v>16200</v>
+        <v>14800</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>19700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1206100</v>
+        <v>995200</v>
       </c>
       <c r="E52" s="3">
-        <v>1137900</v>
+        <v>1168700</v>
       </c>
       <c r="F52" s="3">
-        <v>1413100</v>
+        <v>1102600</v>
       </c>
       <c r="G52" s="3">
-        <v>1010100</v>
+        <v>1369300</v>
       </c>
       <c r="H52" s="3">
-        <v>1450300</v>
+        <v>978900</v>
       </c>
       <c r="I52" s="3">
-        <v>641000</v>
+        <v>1405400</v>
       </c>
       <c r="J52" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K52" s="3">
         <v>208500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>405400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>203337000</v>
+        <v>219430000</v>
       </c>
       <c r="E54" s="3">
-        <v>177946000</v>
+        <v>197041000</v>
       </c>
       <c r="F54" s="3">
-        <v>160052000</v>
+        <v>172437000</v>
       </c>
       <c r="G54" s="3">
-        <v>145257000</v>
+        <v>155097000</v>
       </c>
       <c r="H54" s="3">
-        <v>127356000</v>
+        <v>140760000</v>
       </c>
       <c r="I54" s="3">
-        <v>118703000</v>
+        <v>123413000</v>
       </c>
       <c r="J54" s="3">
+        <v>115028000</v>
+      </c>
+      <c r="K54" s="3">
         <v>106729000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102743000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89278900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89548900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,44 +2398,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5077700</v>
+        <v>2930100</v>
       </c>
       <c r="E57" s="3">
-        <v>4925200</v>
+        <v>4920500</v>
       </c>
       <c r="F57" s="3">
-        <v>4826900</v>
+        <v>4772700</v>
       </c>
       <c r="G57" s="3">
-        <v>4072700</v>
+        <v>4677500</v>
       </c>
       <c r="H57" s="3">
-        <v>3425900</v>
+        <v>3946600</v>
       </c>
       <c r="I57" s="3">
-        <v>2578500</v>
+        <v>3319800</v>
       </c>
       <c r="J57" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2288200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2637600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2609300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2105500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,45 +2473,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>10200</v>
+        <v>4800</v>
       </c>
       <c r="I59" s="3">
-        <v>424600</v>
+        <v>9900</v>
       </c>
       <c r="J59" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K59" s="3">
         <v>422500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>407000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>349000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>311500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,81 +2551,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18046800</v>
+        <v>19101400</v>
       </c>
       <c r="E61" s="3">
-        <v>27211400</v>
+        <v>17488100</v>
       </c>
       <c r="F61" s="3">
-        <v>26927200</v>
+        <v>26368900</v>
       </c>
       <c r="G61" s="3">
-        <v>29472000</v>
+        <v>26093500</v>
       </c>
       <c r="H61" s="3">
-        <v>24170700</v>
+        <v>28559600</v>
       </c>
       <c r="I61" s="3">
-        <v>28360400</v>
+        <v>23422400</v>
       </c>
       <c r="J61" s="3">
+        <v>27482300</v>
+      </c>
+      <c r="K61" s="3">
         <v>27293800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25218700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22873100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23323500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1483100</v>
+        <v>558200</v>
       </c>
       <c r="E62" s="3">
-        <v>855800</v>
+        <v>1437200</v>
       </c>
       <c r="F62" s="3">
-        <v>406900</v>
+        <v>829300</v>
       </c>
       <c r="G62" s="3">
-        <v>369200</v>
+        <v>394300</v>
       </c>
       <c r="H62" s="3">
-        <v>329700</v>
+        <v>357700</v>
       </c>
       <c r="I62" s="3">
-        <v>377000</v>
+        <v>319500</v>
       </c>
       <c r="J62" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K62" s="3">
         <v>329600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>294600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182976000</v>
+        <v>196637000</v>
       </c>
       <c r="E66" s="3">
-        <v>162060000</v>
+        <v>177311000</v>
       </c>
       <c r="F66" s="3">
-        <v>145291000</v>
+        <v>157042000</v>
       </c>
       <c r="G66" s="3">
-        <v>130964000</v>
+        <v>140793000</v>
       </c>
       <c r="H66" s="3">
-        <v>113837000</v>
+        <v>126909000</v>
       </c>
       <c r="I66" s="3">
-        <v>106544000</v>
+        <v>110313000</v>
       </c>
       <c r="J66" s="3">
+        <v>103246000</v>
+      </c>
+      <c r="K66" s="3">
         <v>95785600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92241100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80181600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80688300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13056100</v>
+        <v>15540400</v>
       </c>
       <c r="E72" s="3">
-        <v>10465600</v>
+        <v>12651900</v>
       </c>
       <c r="F72" s="3">
-        <v>9531700</v>
+        <v>10141600</v>
       </c>
       <c r="G72" s="3">
-        <v>9260600</v>
+        <v>9236600</v>
       </c>
       <c r="H72" s="3">
-        <v>8536800</v>
+        <v>8973900</v>
       </c>
       <c r="I72" s="3">
-        <v>7223200</v>
+        <v>8272500</v>
       </c>
       <c r="J72" s="3">
+        <v>6999500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6373200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5639000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4568300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4003000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20360300</v>
+        <v>22793000</v>
       </c>
       <c r="E76" s="3">
-        <v>15886400</v>
+        <v>19730000</v>
       </c>
       <c r="F76" s="3">
-        <v>14761500</v>
+        <v>15394600</v>
       </c>
       <c r="G76" s="3">
-        <v>14293400</v>
+        <v>14304500</v>
       </c>
       <c r="H76" s="3">
-        <v>13518500</v>
+        <v>13850800</v>
       </c>
       <c r="I76" s="3">
-        <v>12159100</v>
+        <v>13099900</v>
       </c>
       <c r="J76" s="3">
+        <v>11782700</v>
+      </c>
+      <c r="K76" s="3">
         <v>10943800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10501500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9097300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8860600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2375300</v>
+        <v>3143800</v>
       </c>
       <c r="E81" s="3">
-        <v>1236000</v>
+        <v>2301700</v>
       </c>
       <c r="F81" s="3">
-        <v>549600</v>
+        <v>1197700</v>
       </c>
       <c r="G81" s="3">
-        <v>996400</v>
+        <v>532600</v>
       </c>
       <c r="H81" s="3">
-        <v>1316300</v>
+        <v>965600</v>
       </c>
       <c r="I81" s="3">
-        <v>1315300</v>
+        <v>1275600</v>
       </c>
       <c r="J81" s="3">
+        <v>1274500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1582300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1516400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1335900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1023900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>177000</v>
+        <v>185200</v>
       </c>
       <c r="E83" s="3">
-        <v>135100</v>
+        <v>184200</v>
       </c>
       <c r="F83" s="3">
-        <v>134200</v>
+        <v>171500</v>
       </c>
       <c r="G83" s="3">
-        <v>134900</v>
+        <v>130900</v>
       </c>
       <c r="H83" s="3">
-        <v>123600</v>
+        <v>130100</v>
       </c>
       <c r="I83" s="3">
-        <v>117600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>130800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>119800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3130,12 +3328,15 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>109100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10279800</v>
+        <v>7205600</v>
       </c>
       <c r="E89" s="3">
-        <v>6288300</v>
+        <v>17279500</v>
       </c>
       <c r="F89" s="3">
-        <v>2504300</v>
+        <v>9961500</v>
       </c>
       <c r="G89" s="3">
-        <v>6800500</v>
+        <v>6093600</v>
       </c>
       <c r="H89" s="3">
-        <v>3055000</v>
+        <v>2426700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1585700</v>
+        <v>6590000</v>
       </c>
       <c r="J89" s="3">
+        <v>2960400</v>
+      </c>
+      <c r="K89" s="3">
         <v>874000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>929500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2312700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-985300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-242100</v>
+        <v>-232900</v>
       </c>
       <c r="E91" s="3">
-        <v>-148300</v>
+        <v>-211400</v>
       </c>
       <c r="F91" s="3">
-        <v>-134600</v>
+        <v>-234600</v>
       </c>
       <c r="G91" s="3">
-        <v>-170100</v>
+        <v>-143700</v>
       </c>
       <c r="H91" s="3">
-        <v>-109600</v>
+        <v>-130500</v>
       </c>
       <c r="I91" s="3">
-        <v>-160800</v>
+        <v>-164900</v>
       </c>
       <c r="J91" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-108200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-115100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5466200</v>
+        <v>-4923000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3895000</v>
+        <v>-7886000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6534100</v>
+        <v>-5297000</v>
       </c>
       <c r="G94" s="3">
-        <v>-207500</v>
+        <v>-3774400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1527000</v>
+        <v>-6331800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1670800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>-201000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1479800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3506,12 +3735,15 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3074600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-114500</v>
+        <v>-173400</v>
       </c>
       <c r="E96" s="3">
-        <v>-151000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-221700</v>
+        <v>-111000</v>
       </c>
       <c r="G96" s="3">
-        <v>-442300</v>
+        <v>-146300</v>
       </c>
       <c r="H96" s="3">
-        <v>-446100</v>
+        <v>-214900</v>
       </c>
       <c r="I96" s="3">
-        <v>-398500</v>
+        <v>-428600</v>
       </c>
       <c r="J96" s="3">
+        <v>-432300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-349400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-371500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-293400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-274900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>386600</v>
+        <v>2184900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2583700</v>
+        <v>-6844300</v>
       </c>
       <c r="F100" s="3">
-        <v>5126100</v>
+        <v>374600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4582700</v>
+        <v>-2503700</v>
       </c>
       <c r="H100" s="3">
-        <v>751200</v>
+        <v>4967400</v>
       </c>
       <c r="I100" s="3">
-        <v>3207700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-4440800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>727900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3702,35 +3947,38 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>4256900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27600</v>
+        <v>-15900</v>
       </c>
       <c r="E101" s="3">
-        <v>-17400</v>
+        <v>-80600</v>
       </c>
       <c r="F101" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-31200</v>
-      </c>
       <c r="I101" s="3">
-        <v>-31400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>-13200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-30200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3738,46 +3986,52 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>59100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5227700</v>
+        <v>4451500</v>
       </c>
       <c r="E102" s="3">
-        <v>-207800</v>
+        <v>2468600</v>
       </c>
       <c r="F102" s="3">
-        <v>1099300</v>
+        <v>5065800</v>
       </c>
       <c r="G102" s="3">
-        <v>1996800</v>
+        <v>-201400</v>
       </c>
       <c r="H102" s="3">
-        <v>2247900</v>
+        <v>1065200</v>
       </c>
       <c r="I102" s="3">
-        <v>-80200</v>
+        <v>1935000</v>
       </c>
       <c r="J102" s="3">
+        <v>2178300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-143800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1086000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>256100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11944900</v>
+        <v>11830500</v>
       </c>
       <c r="E8" s="3">
-        <v>11163200</v>
+        <v>11056200</v>
       </c>
       <c r="F8" s="3">
-        <v>10621400</v>
+        <v>10519600</v>
       </c>
       <c r="G8" s="3">
-        <v>9012100</v>
+        <v>8925700</v>
       </c>
       <c r="H8" s="3">
-        <v>7782700</v>
+        <v>7708100</v>
       </c>
       <c r="I8" s="3">
-        <v>7629700</v>
+        <v>7556600</v>
       </c>
       <c r="J8" s="3">
-        <v>7423600</v>
+        <v>7352400</v>
       </c>
       <c r="K8" s="3">
         <v>7101300</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-166500</v>
+        <v>-164900</v>
       </c>
       <c r="E15" s="3">
-        <v>-167800</v>
+        <v>-166200</v>
       </c>
       <c r="F15" s="3">
-        <v>-146600</v>
+        <v>-145200</v>
       </c>
       <c r="G15" s="3">
-        <v>-118400</v>
+        <v>-117300</v>
       </c>
       <c r="H15" s="3">
-        <v>-115500</v>
+        <v>-114300</v>
       </c>
       <c r="I15" s="3">
-        <v>-114100</v>
+        <v>-113000</v>
       </c>
       <c r="J15" s="3">
-        <v>-105600</v>
+        <v>-104500</v>
       </c>
       <c r="K15" s="3">
         <v>-103100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6078700</v>
+        <v>6020500</v>
       </c>
       <c r="E17" s="3">
-        <v>6821100</v>
+        <v>6755700</v>
       </c>
       <c r="F17" s="3">
-        <v>6903600</v>
+        <v>6837500</v>
       </c>
       <c r="G17" s="3">
-        <v>7421900</v>
+        <v>7350700</v>
       </c>
       <c r="H17" s="3">
-        <v>6295800</v>
+        <v>6235500</v>
       </c>
       <c r="I17" s="3">
-        <v>6332800</v>
+        <v>6272100</v>
       </c>
       <c r="J17" s="3">
-        <v>5222800</v>
+        <v>5172700</v>
       </c>
       <c r="K17" s="3">
         <v>4644600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5866200</v>
+        <v>5810000</v>
       </c>
       <c r="E18" s="3">
-        <v>4342100</v>
+        <v>4300500</v>
       </c>
       <c r="F18" s="3">
-        <v>3717800</v>
+        <v>3682200</v>
       </c>
       <c r="G18" s="3">
-        <v>1590200</v>
+        <v>1575000</v>
       </c>
       <c r="H18" s="3">
-        <v>1486900</v>
+        <v>1472700</v>
       </c>
       <c r="I18" s="3">
-        <v>1296900</v>
+        <v>1284500</v>
       </c>
       <c r="J18" s="3">
-        <v>2200800</v>
+        <v>2179700</v>
       </c>
       <c r="K18" s="3">
         <v>2456700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1579200</v>
+        <v>-1564100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1083300</v>
+        <v>-1073000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1390500</v>
+        <v>-1377200</v>
       </c>
       <c r="G20" s="3">
-        <v>-662700</v>
+        <v>-656400</v>
       </c>
       <c r="H20" s="3">
-        <v>-112400</v>
+        <v>-111300</v>
       </c>
       <c r="I20" s="3">
-        <v>432000</v>
+        <v>427900</v>
       </c>
       <c r="J20" s="3">
-        <v>-409900</v>
+        <v>-406000</v>
       </c>
       <c r="K20" s="3">
         <v>-88000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4472400</v>
+        <v>4427700</v>
       </c>
       <c r="E21" s="3">
-        <v>3443100</v>
+        <v>3408300</v>
       </c>
       <c r="F21" s="3">
-        <v>2498900</v>
+        <v>2473300</v>
       </c>
       <c r="G21" s="3">
-        <v>1058500</v>
+        <v>1047100</v>
       </c>
       <c r="H21" s="3">
-        <v>1504700</v>
+        <v>1489000</v>
       </c>
       <c r="I21" s="3">
-        <v>1859800</v>
+        <v>1840700</v>
       </c>
       <c r="J21" s="3">
-        <v>1910800</v>
+        <v>1891300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4287000</v>
+        <v>4245900</v>
       </c>
       <c r="E23" s="3">
-        <v>3258700</v>
+        <v>3227500</v>
       </c>
       <c r="F23" s="3">
-        <v>2327300</v>
+        <v>2305000</v>
       </c>
       <c r="G23" s="3">
-        <v>927500</v>
+        <v>918600</v>
       </c>
       <c r="H23" s="3">
-        <v>1374500</v>
+        <v>1361300</v>
       </c>
       <c r="I23" s="3">
-        <v>1728900</v>
+        <v>1712400</v>
       </c>
       <c r="J23" s="3">
-        <v>1790900</v>
+        <v>1773700</v>
       </c>
       <c r="K23" s="3">
         <v>2368700</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1058900</v>
+        <v>1048700</v>
       </c>
       <c r="E24" s="3">
-        <v>709200</v>
+        <v>702400</v>
       </c>
       <c r="F24" s="3">
-        <v>770000</v>
+        <v>762700</v>
       </c>
       <c r="G24" s="3">
-        <v>215200</v>
+        <v>213200</v>
       </c>
       <c r="H24" s="3">
-        <v>235200</v>
+        <v>233000</v>
       </c>
       <c r="I24" s="3">
-        <v>309100</v>
+        <v>306200</v>
       </c>
       <c r="J24" s="3">
-        <v>422900</v>
+        <v>418800</v>
       </c>
       <c r="K24" s="3">
         <v>696600</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3228100</v>
+        <v>3197200</v>
       </c>
       <c r="E26" s="3">
-        <v>2549600</v>
+        <v>2525100</v>
       </c>
       <c r="F26" s="3">
-        <v>1557300</v>
+        <v>1542300</v>
       </c>
       <c r="G26" s="3">
-        <v>712300</v>
+        <v>705500</v>
       </c>
       <c r="H26" s="3">
-        <v>1139300</v>
+        <v>1128300</v>
       </c>
       <c r="I26" s="3">
-        <v>1419800</v>
+        <v>1406200</v>
       </c>
       <c r="J26" s="3">
-        <v>1368000</v>
+        <v>1354900</v>
       </c>
       <c r="K26" s="3">
         <v>1672100</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3143800</v>
+        <v>3113700</v>
       </c>
       <c r="E27" s="3">
-        <v>2301700</v>
+        <v>2279700</v>
       </c>
       <c r="F27" s="3">
-        <v>1349500</v>
+        <v>1336600</v>
       </c>
       <c r="G27" s="3">
-        <v>532600</v>
+        <v>527500</v>
       </c>
       <c r="H27" s="3">
-        <v>965600</v>
+        <v>956300</v>
       </c>
       <c r="I27" s="3">
-        <v>1275600</v>
+        <v>1263400</v>
       </c>
       <c r="J27" s="3">
-        <v>1274500</v>
+        <v>1262300</v>
       </c>
       <c r="K27" s="3">
         <v>1582300</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-151800</v>
+        <v>-150400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1579200</v>
+        <v>1564100</v>
       </c>
       <c r="E32" s="3">
-        <v>1083300</v>
+        <v>1073000</v>
       </c>
       <c r="F32" s="3">
-        <v>1390500</v>
+        <v>1377200</v>
       </c>
       <c r="G32" s="3">
-        <v>662700</v>
+        <v>656400</v>
       </c>
       <c r="H32" s="3">
-        <v>112400</v>
+        <v>111300</v>
       </c>
       <c r="I32" s="3">
-        <v>-432000</v>
+        <v>-427900</v>
       </c>
       <c r="J32" s="3">
-        <v>409900</v>
+        <v>406000</v>
       </c>
       <c r="K32" s="3">
         <v>88000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3143800</v>
+        <v>3113700</v>
       </c>
       <c r="E33" s="3">
-        <v>2301700</v>
+        <v>2279700</v>
       </c>
       <c r="F33" s="3">
-        <v>1197700</v>
+        <v>1186200</v>
       </c>
       <c r="G33" s="3">
-        <v>532600</v>
+        <v>527500</v>
       </c>
       <c r="H33" s="3">
-        <v>965600</v>
+        <v>956300</v>
       </c>
       <c r="I33" s="3">
-        <v>1275600</v>
+        <v>1263400</v>
       </c>
       <c r="J33" s="3">
-        <v>1274500</v>
+        <v>1262300</v>
       </c>
       <c r="K33" s="3">
         <v>1582300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3143800</v>
+        <v>3113700</v>
       </c>
       <c r="E35" s="3">
-        <v>2301700</v>
+        <v>2279700</v>
       </c>
       <c r="F35" s="3">
-        <v>1197700</v>
+        <v>1186200</v>
       </c>
       <c r="G35" s="3">
-        <v>532600</v>
+        <v>527500</v>
       </c>
       <c r="H35" s="3">
-        <v>965600</v>
+        <v>956300</v>
       </c>
       <c r="I35" s="3">
-        <v>1275600</v>
+        <v>1263400</v>
       </c>
       <c r="J35" s="3">
-        <v>1274500</v>
+        <v>1262300</v>
       </c>
       <c r="K35" s="3">
         <v>1582300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11724800</v>
+        <v>11706600</v>
       </c>
       <c r="E41" s="3">
-        <v>9953000</v>
+        <v>9857600</v>
       </c>
       <c r="F41" s="3">
-        <v>6358700</v>
+        <v>6297800</v>
       </c>
       <c r="G41" s="3">
-        <v>7180900</v>
+        <v>7112100</v>
       </c>
       <c r="H41" s="3">
-        <v>6975700</v>
+        <v>6908800</v>
       </c>
       <c r="I41" s="3">
-        <v>7265300</v>
+        <v>7195700</v>
       </c>
       <c r="J41" s="3">
-        <v>6354600</v>
+        <v>6293700</v>
       </c>
       <c r="K41" s="3">
         <v>5980200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11704600</v>
+        <v>39413300</v>
       </c>
       <c r="E42" s="3">
-        <v>38026300</v>
+        <v>37661900</v>
       </c>
       <c r="F42" s="3">
-        <v>34279900</v>
+        <v>33951300</v>
       </c>
       <c r="G42" s="3">
-        <v>29784900</v>
+        <v>29499400</v>
       </c>
       <c r="H42" s="3">
-        <v>27904700</v>
+        <v>27637200</v>
       </c>
       <c r="I42" s="3">
-        <v>29017000</v>
+        <v>28738900</v>
       </c>
       <c r="J42" s="3">
-        <v>19202400</v>
+        <v>19018400</v>
       </c>
       <c r="K42" s="3">
         <v>22171000</v>
@@ -2058,26 +2058,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>248500</v>
       </c>
       <c r="E47" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="F47" s="3">
-        <v>87300</v>
+        <v>86500</v>
       </c>
       <c r="G47" s="3">
-        <v>91300</v>
+        <v>90400</v>
       </c>
       <c r="H47" s="3">
-        <v>62400</v>
+        <v>61800</v>
       </c>
       <c r="I47" s="3">
-        <v>47100</v>
+        <v>46600</v>
       </c>
       <c r="J47" s="3">
-        <v>46300</v>
+        <v>45800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1327800</v>
+        <v>1315100</v>
       </c>
       <c r="E48" s="3">
-        <v>1353300</v>
+        <v>1340300</v>
       </c>
       <c r="F48" s="3">
-        <v>1303200</v>
+        <v>1290700</v>
       </c>
       <c r="G48" s="3">
-        <v>1209500</v>
+        <v>1197900</v>
       </c>
       <c r="H48" s="3">
-        <v>1185000</v>
+        <v>1173700</v>
       </c>
       <c r="I48" s="3">
-        <v>1169100</v>
+        <v>1157900</v>
       </c>
       <c r="J48" s="3">
-        <v>1090900</v>
+        <v>1080500</v>
       </c>
       <c r="K48" s="3">
         <v>758600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12700</v>
+        <v>15300</v>
       </c>
       <c r="E49" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="F49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="H49" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="I49" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="J49" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>995200</v>
+        <v>985600</v>
       </c>
       <c r="E52" s="3">
-        <v>1168700</v>
+        <v>1157500</v>
       </c>
       <c r="F52" s="3">
-        <v>1102600</v>
+        <v>1092100</v>
       </c>
       <c r="G52" s="3">
-        <v>1369300</v>
+        <v>1356200</v>
       </c>
       <c r="H52" s="3">
-        <v>978900</v>
+        <v>969500</v>
       </c>
       <c r="I52" s="3">
-        <v>1405400</v>
+        <v>1392000</v>
       </c>
       <c r="J52" s="3">
-        <v>621100</v>
+        <v>615200</v>
       </c>
       <c r="K52" s="3">
         <v>208500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>219430000</v>
+        <v>217327000</v>
       </c>
       <c r="E54" s="3">
-        <v>197041000</v>
+        <v>195153000</v>
       </c>
       <c r="F54" s="3">
-        <v>172437000</v>
+        <v>170784000</v>
       </c>
       <c r="G54" s="3">
-        <v>155097000</v>
+        <v>153610000</v>
       </c>
       <c r="H54" s="3">
-        <v>140760000</v>
+        <v>139411000</v>
       </c>
       <c r="I54" s="3">
-        <v>123413000</v>
+        <v>122230000</v>
       </c>
       <c r="J54" s="3">
-        <v>115028000</v>
+        <v>113926000</v>
       </c>
       <c r="K54" s="3">
         <v>106729000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2930100</v>
+        <v>2902000</v>
       </c>
       <c r="E57" s="3">
-        <v>4920500</v>
+        <v>4873300</v>
       </c>
       <c r="F57" s="3">
-        <v>4772700</v>
+        <v>4726900</v>
       </c>
       <c r="G57" s="3">
-        <v>4677500</v>
+        <v>4632700</v>
       </c>
       <c r="H57" s="3">
-        <v>3946600</v>
+        <v>3908800</v>
       </c>
       <c r="I57" s="3">
-        <v>3319800</v>
+        <v>3288000</v>
       </c>
       <c r="J57" s="3">
-        <v>2498700</v>
+        <v>2474800</v>
       </c>
       <c r="K57" s="3">
         <v>2288200</v>
@@ -2495,13 +2495,13 @@
         <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I59" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J59" s="3">
-        <v>411400</v>
+        <v>407500</v>
       </c>
       <c r="K59" s="3">
         <v>422500</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19101400</v>
+        <v>18918400</v>
       </c>
       <c r="E61" s="3">
-        <v>17488100</v>
+        <v>17320500</v>
       </c>
       <c r="F61" s="3">
-        <v>26368900</v>
+        <v>26116200</v>
       </c>
       <c r="G61" s="3">
-        <v>26093500</v>
+        <v>25843400</v>
       </c>
       <c r="H61" s="3">
-        <v>28559600</v>
+        <v>28285800</v>
       </c>
       <c r="I61" s="3">
-        <v>23422400</v>
+        <v>23197900</v>
       </c>
       <c r="J61" s="3">
-        <v>27482300</v>
+        <v>27218900</v>
       </c>
       <c r="K61" s="3">
         <v>27293800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>558200</v>
+        <v>552900</v>
       </c>
       <c r="E62" s="3">
-        <v>1437200</v>
+        <v>1423400</v>
       </c>
       <c r="F62" s="3">
-        <v>829300</v>
+        <v>821300</v>
       </c>
       <c r="G62" s="3">
-        <v>394300</v>
+        <v>390600</v>
       </c>
       <c r="H62" s="3">
-        <v>357700</v>
+        <v>354300</v>
       </c>
       <c r="I62" s="3">
-        <v>319500</v>
+        <v>316400</v>
       </c>
       <c r="J62" s="3">
-        <v>365300</v>
+        <v>361800</v>
       </c>
       <c r="K62" s="3">
         <v>329600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>196637000</v>
+        <v>194753000</v>
       </c>
       <c r="E66" s="3">
-        <v>177311000</v>
+        <v>175612000</v>
       </c>
       <c r="F66" s="3">
-        <v>157042000</v>
+        <v>155537000</v>
       </c>
       <c r="G66" s="3">
-        <v>140793000</v>
+        <v>139443000</v>
       </c>
       <c r="H66" s="3">
-        <v>126909000</v>
+        <v>125693000</v>
       </c>
       <c r="I66" s="3">
-        <v>110313000</v>
+        <v>109256000</v>
       </c>
       <c r="J66" s="3">
-        <v>103246000</v>
+        <v>102256000</v>
       </c>
       <c r="K66" s="3">
         <v>95785600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15540400</v>
+        <v>15391400</v>
       </c>
       <c r="E72" s="3">
-        <v>12651900</v>
+        <v>12530600</v>
       </c>
       <c r="F72" s="3">
-        <v>10141600</v>
+        <v>10044400</v>
       </c>
       <c r="G72" s="3">
-        <v>9236600</v>
+        <v>9148100</v>
       </c>
       <c r="H72" s="3">
-        <v>8973900</v>
+        <v>8887900</v>
       </c>
       <c r="I72" s="3">
-        <v>8272500</v>
+        <v>8193200</v>
       </c>
       <c r="J72" s="3">
-        <v>6999500</v>
+        <v>6932400</v>
       </c>
       <c r="K72" s="3">
         <v>6373200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22793000</v>
+        <v>22574500</v>
       </c>
       <c r="E76" s="3">
-        <v>19730000</v>
+        <v>19540900</v>
       </c>
       <c r="F76" s="3">
-        <v>15394600</v>
+        <v>15247000</v>
       </c>
       <c r="G76" s="3">
-        <v>14304500</v>
+        <v>14167400</v>
       </c>
       <c r="H76" s="3">
-        <v>13850800</v>
+        <v>13718100</v>
       </c>
       <c r="I76" s="3">
-        <v>13099900</v>
+        <v>12974400</v>
       </c>
       <c r="J76" s="3">
-        <v>11782700</v>
+        <v>11669700</v>
       </c>
       <c r="K76" s="3">
         <v>10943800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3143800</v>
+        <v>3113700</v>
       </c>
       <c r="E81" s="3">
-        <v>2301700</v>
+        <v>2279700</v>
       </c>
       <c r="F81" s="3">
-        <v>1197700</v>
+        <v>1186200</v>
       </c>
       <c r="G81" s="3">
-        <v>532600</v>
+        <v>527500</v>
       </c>
       <c r="H81" s="3">
-        <v>965600</v>
+        <v>956300</v>
       </c>
       <c r="I81" s="3">
-        <v>1275600</v>
+        <v>1263400</v>
       </c>
       <c r="J81" s="3">
-        <v>1274500</v>
+        <v>1262300</v>
       </c>
       <c r="K81" s="3">
         <v>1582300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185200</v>
+        <v>183500</v>
       </c>
       <c r="E83" s="3">
-        <v>184200</v>
+        <v>182400</v>
       </c>
       <c r="F83" s="3">
-        <v>171500</v>
+        <v>169800</v>
       </c>
       <c r="G83" s="3">
-        <v>130900</v>
+        <v>129600</v>
       </c>
       <c r="H83" s="3">
-        <v>130100</v>
+        <v>128800</v>
       </c>
       <c r="I83" s="3">
-        <v>130800</v>
+        <v>129500</v>
       </c>
       <c r="J83" s="3">
-        <v>119800</v>
+        <v>118600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7205600</v>
+        <v>7136500</v>
       </c>
       <c r="E89" s="3">
-        <v>17279500</v>
+        <v>17113900</v>
       </c>
       <c r="F89" s="3">
-        <v>9961500</v>
+        <v>9866000</v>
       </c>
       <c r="G89" s="3">
-        <v>6093600</v>
+        <v>6035200</v>
       </c>
       <c r="H89" s="3">
-        <v>2426700</v>
+        <v>2403500</v>
       </c>
       <c r="I89" s="3">
-        <v>6590000</v>
+        <v>6526800</v>
       </c>
       <c r="J89" s="3">
-        <v>2960400</v>
+        <v>2932000</v>
       </c>
       <c r="K89" s="3">
         <v>874000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-232900</v>
+        <v>-230600</v>
       </c>
       <c r="E91" s="3">
-        <v>-211400</v>
+        <v>-209300</v>
       </c>
       <c r="F91" s="3">
-        <v>-234600</v>
+        <v>-232300</v>
       </c>
       <c r="G91" s="3">
-        <v>-143700</v>
+        <v>-142400</v>
       </c>
       <c r="H91" s="3">
-        <v>-130500</v>
+        <v>-129200</v>
       </c>
       <c r="I91" s="3">
-        <v>-164900</v>
+        <v>-163300</v>
       </c>
       <c r="J91" s="3">
-        <v>-106200</v>
+        <v>-105200</v>
       </c>
       <c r="K91" s="3">
         <v>-108200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4923000</v>
+        <v>-4875900</v>
       </c>
       <c r="E94" s="3">
-        <v>-7886000</v>
+        <v>-7810400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5297000</v>
+        <v>-5246200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3774400</v>
+        <v>-3738300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6331800</v>
+        <v>-6271100</v>
       </c>
       <c r="I94" s="3">
-        <v>-201000</v>
+        <v>-199100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1479800</v>
+        <v>-1465600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173400</v>
+        <v>-171800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-111000</v>
+        <v>-109900</v>
       </c>
       <c r="G96" s="3">
-        <v>-146300</v>
+        <v>-144900</v>
       </c>
       <c r="H96" s="3">
-        <v>-214900</v>
+        <v>-212800</v>
       </c>
       <c r="I96" s="3">
-        <v>-428600</v>
+        <v>-424500</v>
       </c>
       <c r="J96" s="3">
-        <v>-432300</v>
+        <v>-428100</v>
       </c>
       <c r="K96" s="3">
         <v>-349400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2184900</v>
+        <v>2163900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6844300</v>
+        <v>-6778700</v>
       </c>
       <c r="F100" s="3">
-        <v>374600</v>
+        <v>371000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2503700</v>
+        <v>-2479700</v>
       </c>
       <c r="H100" s="3">
-        <v>4967400</v>
+        <v>4919800</v>
       </c>
       <c r="I100" s="3">
-        <v>-4440800</v>
+        <v>-4398200</v>
       </c>
       <c r="J100" s="3">
-        <v>727900</v>
+        <v>720900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="E101" s="3">
-        <v>-80600</v>
+        <v>-79900</v>
       </c>
       <c r="F101" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G101" s="3">
-        <v>-16900</v>
+        <v>-16700</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="J101" s="3">
-        <v>-30200</v>
+        <v>-29900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4451500</v>
+        <v>4408900</v>
       </c>
       <c r="E102" s="3">
-        <v>2468600</v>
+        <v>2445000</v>
       </c>
       <c r="F102" s="3">
-        <v>5065800</v>
+        <v>5017300</v>
       </c>
       <c r="G102" s="3">
-        <v>-201400</v>
+        <v>-199400</v>
       </c>
       <c r="H102" s="3">
-        <v>1065200</v>
+        <v>1055000</v>
       </c>
       <c r="I102" s="3">
-        <v>1935000</v>
+        <v>1916400</v>
       </c>
       <c r="J102" s="3">
-        <v>2178300</v>
+        <v>2157500</v>
       </c>
       <c r="K102" s="3">
         <v>-143800</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11830500</v>
+        <v>11630100</v>
       </c>
       <c r="E8" s="3">
-        <v>11056200</v>
+        <v>10868900</v>
       </c>
       <c r="F8" s="3">
-        <v>10519600</v>
+        <v>10341500</v>
       </c>
       <c r="G8" s="3">
-        <v>8925700</v>
+        <v>8774600</v>
       </c>
       <c r="H8" s="3">
-        <v>7708100</v>
+        <v>7577600</v>
       </c>
       <c r="I8" s="3">
-        <v>7556600</v>
+        <v>7428600</v>
       </c>
       <c r="J8" s="3">
-        <v>7352400</v>
+        <v>7227900</v>
       </c>
       <c r="K8" s="3">
         <v>7101300</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-164900</v>
+        <v>-162100</v>
       </c>
       <c r="E15" s="3">
-        <v>-166200</v>
+        <v>-163400</v>
       </c>
       <c r="F15" s="3">
-        <v>-145200</v>
+        <v>-142800</v>
       </c>
       <c r="G15" s="3">
-        <v>-117300</v>
+        <v>-115300</v>
       </c>
       <c r="H15" s="3">
-        <v>-114300</v>
+        <v>-112400</v>
       </c>
       <c r="I15" s="3">
-        <v>-113000</v>
+        <v>-111100</v>
       </c>
       <c r="J15" s="3">
-        <v>-104500</v>
+        <v>-102800</v>
       </c>
       <c r="K15" s="3">
         <v>-103100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6020500</v>
+        <v>5918500</v>
       </c>
       <c r="E17" s="3">
-        <v>6755700</v>
+        <v>6641300</v>
       </c>
       <c r="F17" s="3">
-        <v>6837500</v>
+        <v>6721700</v>
       </c>
       <c r="G17" s="3">
-        <v>7350700</v>
+        <v>7226300</v>
       </c>
       <c r="H17" s="3">
-        <v>6235500</v>
+        <v>6129900</v>
       </c>
       <c r="I17" s="3">
-        <v>6272100</v>
+        <v>6165800</v>
       </c>
       <c r="J17" s="3">
-        <v>5172700</v>
+        <v>5085100</v>
       </c>
       <c r="K17" s="3">
         <v>4644600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5810000</v>
+        <v>5711600</v>
       </c>
       <c r="E18" s="3">
-        <v>4300500</v>
+        <v>4227600</v>
       </c>
       <c r="F18" s="3">
-        <v>3682200</v>
+        <v>3619800</v>
       </c>
       <c r="G18" s="3">
-        <v>1575000</v>
+        <v>1548300</v>
       </c>
       <c r="H18" s="3">
-        <v>1472700</v>
+        <v>1447700</v>
       </c>
       <c r="I18" s="3">
-        <v>1284500</v>
+        <v>1262700</v>
       </c>
       <c r="J18" s="3">
-        <v>2179700</v>
+        <v>2142800</v>
       </c>
       <c r="K18" s="3">
         <v>2456700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1564100</v>
+        <v>-1537600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1073000</v>
+        <v>-1054800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1377200</v>
+        <v>-1353800</v>
       </c>
       <c r="G20" s="3">
-        <v>-656400</v>
+        <v>-645200</v>
       </c>
       <c r="H20" s="3">
-        <v>-111300</v>
+        <v>-109400</v>
       </c>
       <c r="I20" s="3">
-        <v>427900</v>
+        <v>420600</v>
       </c>
       <c r="J20" s="3">
-        <v>-406000</v>
+        <v>-399100</v>
       </c>
       <c r="K20" s="3">
         <v>-88000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4427700</v>
+        <v>4354500</v>
       </c>
       <c r="E21" s="3">
-        <v>3408300</v>
+        <v>3352400</v>
       </c>
       <c r="F21" s="3">
-        <v>2473300</v>
+        <v>2433000</v>
       </c>
       <c r="G21" s="3">
-        <v>1047100</v>
+        <v>1030600</v>
       </c>
       <c r="H21" s="3">
-        <v>1489000</v>
+        <v>1465000</v>
       </c>
       <c r="I21" s="3">
-        <v>1840700</v>
+        <v>1810800</v>
       </c>
       <c r="J21" s="3">
-        <v>1891300</v>
+        <v>1860400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4245900</v>
+        <v>4174000</v>
       </c>
       <c r="E23" s="3">
-        <v>3227500</v>
+        <v>3172900</v>
       </c>
       <c r="F23" s="3">
-        <v>2305000</v>
+        <v>2266000</v>
       </c>
       <c r="G23" s="3">
-        <v>918600</v>
+        <v>903100</v>
       </c>
       <c r="H23" s="3">
-        <v>1361300</v>
+        <v>1338300</v>
       </c>
       <c r="I23" s="3">
-        <v>1712400</v>
+        <v>1683400</v>
       </c>
       <c r="J23" s="3">
-        <v>1773700</v>
+        <v>1743700</v>
       </c>
       <c r="K23" s="3">
         <v>2368700</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1048700</v>
+        <v>1031000</v>
       </c>
       <c r="E24" s="3">
-        <v>702400</v>
+        <v>690500</v>
       </c>
       <c r="F24" s="3">
-        <v>762700</v>
+        <v>749700</v>
       </c>
       <c r="G24" s="3">
-        <v>213200</v>
+        <v>209600</v>
       </c>
       <c r="H24" s="3">
-        <v>233000</v>
+        <v>229000</v>
       </c>
       <c r="I24" s="3">
-        <v>306200</v>
+        <v>301000</v>
       </c>
       <c r="J24" s="3">
-        <v>418800</v>
+        <v>411700</v>
       </c>
       <c r="K24" s="3">
         <v>696600</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3197200</v>
+        <v>3143000</v>
       </c>
       <c r="E26" s="3">
-        <v>2525100</v>
+        <v>2482400</v>
       </c>
       <c r="F26" s="3">
-        <v>1542300</v>
+        <v>1516200</v>
       </c>
       <c r="G26" s="3">
-        <v>705500</v>
+        <v>693500</v>
       </c>
       <c r="H26" s="3">
-        <v>1128300</v>
+        <v>1109200</v>
       </c>
       <c r="I26" s="3">
-        <v>1406200</v>
+        <v>1382400</v>
       </c>
       <c r="J26" s="3">
-        <v>1354900</v>
+        <v>1332000</v>
       </c>
       <c r="K26" s="3">
         <v>1672100</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3113700</v>
+        <v>3060900</v>
       </c>
       <c r="E27" s="3">
-        <v>2279700</v>
+        <v>2241000</v>
       </c>
       <c r="F27" s="3">
-        <v>1336600</v>
+        <v>1314000</v>
       </c>
       <c r="G27" s="3">
-        <v>527500</v>
+        <v>518600</v>
       </c>
       <c r="H27" s="3">
-        <v>956300</v>
+        <v>940100</v>
       </c>
       <c r="I27" s="3">
-        <v>1263400</v>
+        <v>1242000</v>
       </c>
       <c r="J27" s="3">
-        <v>1262300</v>
+        <v>1240900</v>
       </c>
       <c r="K27" s="3">
         <v>1582300</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-150400</v>
+        <v>-147800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1564100</v>
+        <v>1537600</v>
       </c>
       <c r="E32" s="3">
-        <v>1073000</v>
+        <v>1054800</v>
       </c>
       <c r="F32" s="3">
-        <v>1377200</v>
+        <v>1353800</v>
       </c>
       <c r="G32" s="3">
-        <v>656400</v>
+        <v>645200</v>
       </c>
       <c r="H32" s="3">
-        <v>111300</v>
+        <v>109400</v>
       </c>
       <c r="I32" s="3">
-        <v>-427900</v>
+        <v>-420600</v>
       </c>
       <c r="J32" s="3">
-        <v>406000</v>
+        <v>399100</v>
       </c>
       <c r="K32" s="3">
         <v>88000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3113700</v>
+        <v>3060900</v>
       </c>
       <c r="E33" s="3">
-        <v>2279700</v>
+        <v>2241000</v>
       </c>
       <c r="F33" s="3">
-        <v>1186200</v>
+        <v>1166100</v>
       </c>
       <c r="G33" s="3">
-        <v>527500</v>
+        <v>518600</v>
       </c>
       <c r="H33" s="3">
-        <v>956300</v>
+        <v>940100</v>
       </c>
       <c r="I33" s="3">
-        <v>1263400</v>
+        <v>1242000</v>
       </c>
       <c r="J33" s="3">
-        <v>1262300</v>
+        <v>1240900</v>
       </c>
       <c r="K33" s="3">
         <v>1582300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3113700</v>
+        <v>3060900</v>
       </c>
       <c r="E35" s="3">
-        <v>2279700</v>
+        <v>2241000</v>
       </c>
       <c r="F35" s="3">
-        <v>1186200</v>
+        <v>1166100</v>
       </c>
       <c r="G35" s="3">
-        <v>527500</v>
+        <v>518600</v>
       </c>
       <c r="H35" s="3">
-        <v>956300</v>
+        <v>940100</v>
       </c>
       <c r="I35" s="3">
-        <v>1263400</v>
+        <v>1242000</v>
       </c>
       <c r="J35" s="3">
-        <v>1262300</v>
+        <v>1240900</v>
       </c>
       <c r="K35" s="3">
         <v>1582300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11706600</v>
+        <v>11508400</v>
       </c>
       <c r="E41" s="3">
-        <v>9857600</v>
+        <v>9690700</v>
       </c>
       <c r="F41" s="3">
-        <v>6297800</v>
+        <v>6191100</v>
       </c>
       <c r="G41" s="3">
-        <v>7112100</v>
+        <v>6991600</v>
       </c>
       <c r="H41" s="3">
-        <v>6908800</v>
+        <v>6791800</v>
       </c>
       <c r="I41" s="3">
-        <v>7195700</v>
+        <v>7073800</v>
       </c>
       <c r="J41" s="3">
-        <v>6293700</v>
+        <v>6187100</v>
       </c>
       <c r="K41" s="3">
         <v>5980200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39413300</v>
+        <v>38745800</v>
       </c>
       <c r="E42" s="3">
-        <v>37661900</v>
+        <v>37024000</v>
       </c>
       <c r="F42" s="3">
-        <v>33951300</v>
+        <v>33376300</v>
       </c>
       <c r="G42" s="3">
-        <v>29499400</v>
+        <v>28999800</v>
       </c>
       <c r="H42" s="3">
-        <v>27637200</v>
+        <v>27169200</v>
       </c>
       <c r="I42" s="3">
-        <v>28738900</v>
+        <v>28252100</v>
       </c>
       <c r="J42" s="3">
-        <v>19018400</v>
+        <v>18696300</v>
       </c>
       <c r="K42" s="3">
         <v>22171000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>248500</v>
+        <v>244300</v>
       </c>
       <c r="E47" s="3">
-        <v>83400</v>
+        <v>82000</v>
       </c>
       <c r="F47" s="3">
-        <v>86500</v>
+        <v>85000</v>
       </c>
       <c r="G47" s="3">
-        <v>90400</v>
+        <v>88900</v>
       </c>
       <c r="H47" s="3">
-        <v>61800</v>
+        <v>60700</v>
       </c>
       <c r="I47" s="3">
-        <v>46600</v>
+        <v>45800</v>
       </c>
       <c r="J47" s="3">
-        <v>45800</v>
+        <v>45100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1315100</v>
+        <v>1292800</v>
       </c>
       <c r="E48" s="3">
-        <v>1340300</v>
+        <v>1317600</v>
       </c>
       <c r="F48" s="3">
-        <v>1290700</v>
+        <v>1268800</v>
       </c>
       <c r="G48" s="3">
-        <v>1197900</v>
+        <v>1177600</v>
       </c>
       <c r="H48" s="3">
-        <v>1173700</v>
+        <v>1153800</v>
       </c>
       <c r="I48" s="3">
-        <v>1157900</v>
+        <v>1138300</v>
       </c>
       <c r="J48" s="3">
-        <v>1080500</v>
+        <v>1062200</v>
       </c>
       <c r="K48" s="3">
         <v>758600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J49" s="3">
         <v>15300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>15600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>15600</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>985600</v>
+        <v>968900</v>
       </c>
       <c r="E52" s="3">
-        <v>1157500</v>
+        <v>1137900</v>
       </c>
       <c r="F52" s="3">
-        <v>1092100</v>
+        <v>1073600</v>
       </c>
       <c r="G52" s="3">
-        <v>1356200</v>
+        <v>1333300</v>
       </c>
       <c r="H52" s="3">
-        <v>969500</v>
+        <v>953100</v>
       </c>
       <c r="I52" s="3">
-        <v>1392000</v>
+        <v>1368400</v>
       </c>
       <c r="J52" s="3">
-        <v>615200</v>
+        <v>604800</v>
       </c>
       <c r="K52" s="3">
         <v>208500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217327000</v>
+        <v>213647000</v>
       </c>
       <c r="E54" s="3">
-        <v>195153000</v>
+        <v>191848000</v>
       </c>
       <c r="F54" s="3">
-        <v>170784000</v>
+        <v>167892000</v>
       </c>
       <c r="G54" s="3">
-        <v>153610000</v>
+        <v>151009000</v>
       </c>
       <c r="H54" s="3">
-        <v>139411000</v>
+        <v>137050000</v>
       </c>
       <c r="I54" s="3">
-        <v>122230000</v>
+        <v>120160000</v>
       </c>
       <c r="J54" s="3">
-        <v>113926000</v>
+        <v>111996000</v>
       </c>
       <c r="K54" s="3">
         <v>106729000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2902000</v>
+        <v>2852800</v>
       </c>
       <c r="E57" s="3">
-        <v>4873300</v>
+        <v>4790800</v>
       </c>
       <c r="F57" s="3">
-        <v>4726900</v>
+        <v>4646900</v>
       </c>
       <c r="G57" s="3">
-        <v>4632700</v>
+        <v>4554200</v>
       </c>
       <c r="H57" s="3">
-        <v>3908800</v>
+        <v>3842600</v>
       </c>
       <c r="I57" s="3">
-        <v>3288000</v>
+        <v>3232300</v>
       </c>
       <c r="J57" s="3">
-        <v>2474800</v>
+        <v>2432800</v>
       </c>
       <c r="K57" s="3">
         <v>2288200</v>
@@ -2498,10 +2498,10 @@
         <v>4700</v>
       </c>
       <c r="I59" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="J59" s="3">
-        <v>407500</v>
+        <v>400600</v>
       </c>
       <c r="K59" s="3">
         <v>422500</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18918400</v>
+        <v>18598000</v>
       </c>
       <c r="E61" s="3">
-        <v>17320500</v>
+        <v>17027100</v>
       </c>
       <c r="F61" s="3">
-        <v>26116200</v>
+        <v>25673900</v>
       </c>
       <c r="G61" s="3">
-        <v>25843400</v>
+        <v>25405700</v>
       </c>
       <c r="H61" s="3">
-        <v>28285800</v>
+        <v>27806800</v>
       </c>
       <c r="I61" s="3">
-        <v>23197900</v>
+        <v>22805000</v>
       </c>
       <c r="J61" s="3">
-        <v>27218900</v>
+        <v>26758000</v>
       </c>
       <c r="K61" s="3">
         <v>27293800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>552900</v>
+        <v>543500</v>
       </c>
       <c r="E62" s="3">
-        <v>1423400</v>
+        <v>1399300</v>
       </c>
       <c r="F62" s="3">
-        <v>821300</v>
+        <v>807400</v>
       </c>
       <c r="G62" s="3">
-        <v>390600</v>
+        <v>383900</v>
       </c>
       <c r="H62" s="3">
-        <v>354300</v>
+        <v>348300</v>
       </c>
       <c r="I62" s="3">
-        <v>316400</v>
+        <v>311100</v>
       </c>
       <c r="J62" s="3">
-        <v>361800</v>
+        <v>355700</v>
       </c>
       <c r="K62" s="3">
         <v>329600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>194753000</v>
+        <v>191454000</v>
       </c>
       <c r="E66" s="3">
-        <v>175612000</v>
+        <v>172638000</v>
       </c>
       <c r="F66" s="3">
-        <v>155537000</v>
+        <v>152903000</v>
       </c>
       <c r="G66" s="3">
-        <v>139443000</v>
+        <v>137082000</v>
       </c>
       <c r="H66" s="3">
-        <v>125693000</v>
+        <v>123564000</v>
       </c>
       <c r="I66" s="3">
-        <v>109256000</v>
+        <v>107405000</v>
       </c>
       <c r="J66" s="3">
-        <v>102256000</v>
+        <v>100524000</v>
       </c>
       <c r="K66" s="3">
         <v>95785600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15391400</v>
+        <v>15130800</v>
       </c>
       <c r="E72" s="3">
-        <v>12530600</v>
+        <v>12318400</v>
       </c>
       <c r="F72" s="3">
-        <v>10044400</v>
+        <v>9874300</v>
       </c>
       <c r="G72" s="3">
-        <v>9148100</v>
+        <v>8993100</v>
       </c>
       <c r="H72" s="3">
-        <v>8887900</v>
+        <v>8737400</v>
       </c>
       <c r="I72" s="3">
-        <v>8193200</v>
+        <v>8054400</v>
       </c>
       <c r="J72" s="3">
-        <v>6932400</v>
+        <v>6815000</v>
       </c>
       <c r="K72" s="3">
         <v>6373200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22574500</v>
+        <v>22192200</v>
       </c>
       <c r="E76" s="3">
-        <v>19540900</v>
+        <v>19209900</v>
       </c>
       <c r="F76" s="3">
-        <v>15247000</v>
+        <v>14988800</v>
       </c>
       <c r="G76" s="3">
-        <v>14167400</v>
+        <v>13927500</v>
       </c>
       <c r="H76" s="3">
-        <v>13718100</v>
+        <v>13485800</v>
       </c>
       <c r="I76" s="3">
-        <v>12974400</v>
+        <v>12754600</v>
       </c>
       <c r="J76" s="3">
-        <v>11669700</v>
+        <v>11472100</v>
       </c>
       <c r="K76" s="3">
         <v>10943800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3113700</v>
+        <v>3060900</v>
       </c>
       <c r="E81" s="3">
-        <v>2279700</v>
+        <v>2241000</v>
       </c>
       <c r="F81" s="3">
-        <v>1186200</v>
+        <v>1166100</v>
       </c>
       <c r="G81" s="3">
-        <v>527500</v>
+        <v>518600</v>
       </c>
       <c r="H81" s="3">
-        <v>956300</v>
+        <v>940100</v>
       </c>
       <c r="I81" s="3">
-        <v>1263400</v>
+        <v>1242000</v>
       </c>
       <c r="J81" s="3">
-        <v>1262300</v>
+        <v>1240900</v>
       </c>
       <c r="K81" s="3">
         <v>1582300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>183500</v>
+        <v>180300</v>
       </c>
       <c r="E83" s="3">
-        <v>182400</v>
+        <v>179400</v>
       </c>
       <c r="F83" s="3">
-        <v>169800</v>
+        <v>167000</v>
       </c>
       <c r="G83" s="3">
-        <v>129600</v>
+        <v>127400</v>
       </c>
       <c r="H83" s="3">
-        <v>128800</v>
+        <v>126700</v>
       </c>
       <c r="I83" s="3">
-        <v>129500</v>
+        <v>127300</v>
       </c>
       <c r="J83" s="3">
-        <v>118600</v>
+        <v>116600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7136500</v>
+        <v>7015700</v>
       </c>
       <c r="E89" s="3">
-        <v>17113900</v>
+        <v>16824100</v>
       </c>
       <c r="F89" s="3">
-        <v>9866000</v>
+        <v>9698900</v>
       </c>
       <c r="G89" s="3">
-        <v>6035200</v>
+        <v>5933000</v>
       </c>
       <c r="H89" s="3">
-        <v>2403500</v>
+        <v>2362800</v>
       </c>
       <c r="I89" s="3">
-        <v>6526800</v>
+        <v>6416300</v>
       </c>
       <c r="J89" s="3">
-        <v>2932000</v>
+        <v>2882400</v>
       </c>
       <c r="K89" s="3">
         <v>874000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-230600</v>
+        <v>-226700</v>
       </c>
       <c r="E91" s="3">
-        <v>-209300</v>
+        <v>-205800</v>
       </c>
       <c r="F91" s="3">
-        <v>-232300</v>
+        <v>-228400</v>
       </c>
       <c r="G91" s="3">
-        <v>-142400</v>
+        <v>-140000</v>
       </c>
       <c r="H91" s="3">
-        <v>-129200</v>
+        <v>-127000</v>
       </c>
       <c r="I91" s="3">
-        <v>-163300</v>
+        <v>-160500</v>
       </c>
       <c r="J91" s="3">
-        <v>-105200</v>
+        <v>-103400</v>
       </c>
       <c r="K91" s="3">
         <v>-108200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4875900</v>
+        <v>-4793300</v>
       </c>
       <c r="E94" s="3">
-        <v>-7810400</v>
+        <v>-7678100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5246200</v>
+        <v>-5157400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3738300</v>
+        <v>-3674900</v>
       </c>
       <c r="H94" s="3">
-        <v>-6271100</v>
+        <v>-6164900</v>
       </c>
       <c r="I94" s="3">
-        <v>-199100</v>
+        <v>-195700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1465600</v>
+        <v>-1440800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-171800</v>
+        <v>-168900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-109900</v>
+        <v>-108000</v>
       </c>
       <c r="G96" s="3">
-        <v>-144900</v>
+        <v>-142500</v>
       </c>
       <c r="H96" s="3">
-        <v>-212800</v>
+        <v>-209200</v>
       </c>
       <c r="I96" s="3">
-        <v>-424500</v>
+        <v>-417300</v>
       </c>
       <c r="J96" s="3">
-        <v>-428100</v>
+        <v>-420900</v>
       </c>
       <c r="K96" s="3">
         <v>-349400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2163900</v>
+        <v>2127300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6778700</v>
+        <v>-6663900</v>
       </c>
       <c r="F100" s="3">
-        <v>371000</v>
+        <v>364700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2479700</v>
+        <v>-2437700</v>
       </c>
       <c r="H100" s="3">
-        <v>4919800</v>
+        <v>4836500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4398200</v>
+        <v>-4323700</v>
       </c>
       <c r="J100" s="3">
-        <v>720900</v>
+        <v>708700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="E101" s="3">
-        <v>-79900</v>
+        <v>-78500</v>
       </c>
       <c r="F101" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="G101" s="3">
-        <v>-16700</v>
+        <v>-16400</v>
       </c>
       <c r="H101" s="3">
         <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13100</v>
+        <v>-12800</v>
       </c>
       <c r="J101" s="3">
-        <v>-29900</v>
+        <v>-29400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4408900</v>
+        <v>4334200</v>
       </c>
       <c r="E102" s="3">
-        <v>2445000</v>
+        <v>2403600</v>
       </c>
       <c r="F102" s="3">
-        <v>5017300</v>
+        <v>4932300</v>
       </c>
       <c r="G102" s="3">
-        <v>-199400</v>
+        <v>-196000</v>
       </c>
       <c r="H102" s="3">
-        <v>1055000</v>
+        <v>1037200</v>
       </c>
       <c r="I102" s="3">
-        <v>1916400</v>
+        <v>1884000</v>
       </c>
       <c r="J102" s="3">
-        <v>2157500</v>
+        <v>2120900</v>
       </c>
       <c r="K102" s="3">
         <v>-143800</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11630100</v>
+        <v>11534700</v>
       </c>
       <c r="E8" s="3">
-        <v>10868900</v>
+        <v>10779800</v>
       </c>
       <c r="F8" s="3">
-        <v>10341500</v>
+        <v>10256600</v>
       </c>
       <c r="G8" s="3">
-        <v>8774600</v>
+        <v>8702600</v>
       </c>
       <c r="H8" s="3">
-        <v>7577600</v>
+        <v>7515400</v>
       </c>
       <c r="I8" s="3">
-        <v>7428600</v>
+        <v>7367600</v>
       </c>
       <c r="J8" s="3">
-        <v>7227900</v>
+        <v>7168600</v>
       </c>
       <c r="K8" s="3">
         <v>7101300</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-162100</v>
+        <v>-160800</v>
       </c>
       <c r="E15" s="3">
-        <v>-163400</v>
+        <v>-162000</v>
       </c>
       <c r="F15" s="3">
-        <v>-142800</v>
+        <v>-141600</v>
       </c>
       <c r="G15" s="3">
-        <v>-115300</v>
+        <v>-114400</v>
       </c>
       <c r="H15" s="3">
-        <v>-112400</v>
+        <v>-111500</v>
       </c>
       <c r="I15" s="3">
-        <v>-111100</v>
+        <v>-110200</v>
       </c>
       <c r="J15" s="3">
-        <v>-102800</v>
+        <v>-101900</v>
       </c>
       <c r="K15" s="3">
         <v>-103100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5918500</v>
+        <v>5869900</v>
       </c>
       <c r="E17" s="3">
-        <v>6641300</v>
+        <v>6586800</v>
       </c>
       <c r="F17" s="3">
-        <v>6721700</v>
+        <v>6666500</v>
       </c>
       <c r="G17" s="3">
-        <v>7226300</v>
+        <v>7167000</v>
       </c>
       <c r="H17" s="3">
-        <v>6129900</v>
+        <v>6079600</v>
       </c>
       <c r="I17" s="3">
-        <v>6165800</v>
+        <v>6115300</v>
       </c>
       <c r="J17" s="3">
-        <v>5085100</v>
+        <v>5043400</v>
       </c>
       <c r="K17" s="3">
         <v>4644600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5711600</v>
+        <v>5664700</v>
       </c>
       <c r="E18" s="3">
-        <v>4227600</v>
+        <v>4193000</v>
       </c>
       <c r="F18" s="3">
-        <v>3619800</v>
+        <v>3590100</v>
       </c>
       <c r="G18" s="3">
-        <v>1548300</v>
+        <v>1535600</v>
       </c>
       <c r="H18" s="3">
-        <v>1447700</v>
+        <v>1435800</v>
       </c>
       <c r="I18" s="3">
-        <v>1262700</v>
+        <v>1252400</v>
       </c>
       <c r="J18" s="3">
-        <v>2142800</v>
+        <v>2125200</v>
       </c>
       <c r="K18" s="3">
         <v>2456700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1537600</v>
+        <v>-1525000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1054800</v>
+        <v>-1046100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1353800</v>
+        <v>-1342700</v>
       </c>
       <c r="G20" s="3">
-        <v>-645200</v>
+        <v>-639900</v>
       </c>
       <c r="H20" s="3">
-        <v>-109400</v>
+        <v>-108500</v>
       </c>
       <c r="I20" s="3">
-        <v>420600</v>
+        <v>417200</v>
       </c>
       <c r="J20" s="3">
-        <v>-399100</v>
+        <v>-395800</v>
       </c>
       <c r="K20" s="3">
         <v>-88000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4354500</v>
+        <v>4318400</v>
       </c>
       <c r="E21" s="3">
-        <v>3352400</v>
+        <v>3313100</v>
       </c>
       <c r="F21" s="3">
-        <v>2433000</v>
+        <v>2374300</v>
       </c>
       <c r="G21" s="3">
-        <v>1030600</v>
+        <v>1021800</v>
       </c>
       <c r="H21" s="3">
-        <v>1465000</v>
+        <v>1454100</v>
       </c>
       <c r="I21" s="3">
-        <v>1810800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1860400</v>
+        <v>1785700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4174000</v>
+        <v>4139800</v>
       </c>
       <c r="E23" s="3">
-        <v>3172900</v>
+        <v>3146800</v>
       </c>
       <c r="F23" s="3">
-        <v>2266000</v>
+        <v>2247400</v>
       </c>
       <c r="G23" s="3">
-        <v>903100</v>
+        <v>895700</v>
       </c>
       <c r="H23" s="3">
-        <v>1338300</v>
+        <v>1327300</v>
       </c>
       <c r="I23" s="3">
-        <v>1683400</v>
+        <v>1669600</v>
       </c>
       <c r="J23" s="3">
-        <v>1743700</v>
+        <v>1729400</v>
       </c>
       <c r="K23" s="3">
         <v>2368700</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1031000</v>
+        <v>1022500</v>
       </c>
       <c r="E24" s="3">
-        <v>690500</v>
+        <v>684800</v>
       </c>
       <c r="F24" s="3">
-        <v>749700</v>
+        <v>743600</v>
       </c>
       <c r="G24" s="3">
-        <v>209600</v>
+        <v>207800</v>
       </c>
       <c r="H24" s="3">
-        <v>229000</v>
+        <v>227200</v>
       </c>
       <c r="I24" s="3">
-        <v>301000</v>
+        <v>298500</v>
       </c>
       <c r="J24" s="3">
-        <v>411700</v>
+        <v>408300</v>
       </c>
       <c r="K24" s="3">
         <v>696600</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3143000</v>
+        <v>3117300</v>
       </c>
       <c r="E26" s="3">
-        <v>2482400</v>
+        <v>2462000</v>
       </c>
       <c r="F26" s="3">
-        <v>1516200</v>
+        <v>1503800</v>
       </c>
       <c r="G26" s="3">
-        <v>693500</v>
+        <v>687800</v>
       </c>
       <c r="H26" s="3">
-        <v>1109200</v>
+        <v>1100100</v>
       </c>
       <c r="I26" s="3">
-        <v>1382400</v>
+        <v>1371000</v>
       </c>
       <c r="J26" s="3">
-        <v>1332000</v>
+        <v>1321100</v>
       </c>
       <c r="K26" s="3">
         <v>1672100</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3060900</v>
+        <v>3035800</v>
       </c>
       <c r="E27" s="3">
-        <v>2241000</v>
+        <v>2222700</v>
       </c>
       <c r="F27" s="3">
-        <v>1314000</v>
+        <v>1303200</v>
       </c>
       <c r="G27" s="3">
-        <v>518600</v>
+        <v>514300</v>
       </c>
       <c r="H27" s="3">
-        <v>940100</v>
+        <v>932400</v>
       </c>
       <c r="I27" s="3">
-        <v>1242000</v>
+        <v>1231800</v>
       </c>
       <c r="J27" s="3">
-        <v>1240900</v>
+        <v>1230800</v>
       </c>
       <c r="K27" s="3">
         <v>1582300</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-147800</v>
+        <v>-146600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1537600</v>
+        <v>1525000</v>
       </c>
       <c r="E32" s="3">
-        <v>1054800</v>
+        <v>1046100</v>
       </c>
       <c r="F32" s="3">
-        <v>1353800</v>
+        <v>1342700</v>
       </c>
       <c r="G32" s="3">
-        <v>645200</v>
+        <v>639900</v>
       </c>
       <c r="H32" s="3">
-        <v>109400</v>
+        <v>108500</v>
       </c>
       <c r="I32" s="3">
-        <v>-420600</v>
+        <v>-417200</v>
       </c>
       <c r="J32" s="3">
-        <v>399100</v>
+        <v>395800</v>
       </c>
       <c r="K32" s="3">
         <v>88000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3060900</v>
+        <v>3035800</v>
       </c>
       <c r="E33" s="3">
-        <v>2241000</v>
+        <v>2222700</v>
       </c>
       <c r="F33" s="3">
-        <v>1166100</v>
+        <v>1156600</v>
       </c>
       <c r="G33" s="3">
-        <v>518600</v>
+        <v>514300</v>
       </c>
       <c r="H33" s="3">
-        <v>940100</v>
+        <v>932400</v>
       </c>
       <c r="I33" s="3">
-        <v>1242000</v>
+        <v>1231800</v>
       </c>
       <c r="J33" s="3">
-        <v>1240900</v>
+        <v>1230800</v>
       </c>
       <c r="K33" s="3">
         <v>1582300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3060900</v>
+        <v>3035800</v>
       </c>
       <c r="E35" s="3">
-        <v>2241000</v>
+        <v>2222700</v>
       </c>
       <c r="F35" s="3">
-        <v>1166100</v>
+        <v>1156600</v>
       </c>
       <c r="G35" s="3">
-        <v>518600</v>
+        <v>514300</v>
       </c>
       <c r="H35" s="3">
-        <v>940100</v>
+        <v>932400</v>
       </c>
       <c r="I35" s="3">
-        <v>1242000</v>
+        <v>1231800</v>
       </c>
       <c r="J35" s="3">
-        <v>1240900</v>
+        <v>1230800</v>
       </c>
       <c r="K35" s="3">
         <v>1582300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11508400</v>
+        <v>11414000</v>
       </c>
       <c r="E41" s="3">
-        <v>9690700</v>
+        <v>9611200</v>
       </c>
       <c r="F41" s="3">
-        <v>6191100</v>
+        <v>6140400</v>
       </c>
       <c r="G41" s="3">
-        <v>6991600</v>
+        <v>6934300</v>
       </c>
       <c r="H41" s="3">
-        <v>6791800</v>
+        <v>6736100</v>
       </c>
       <c r="I41" s="3">
-        <v>7073800</v>
+        <v>7015800</v>
       </c>
       <c r="J41" s="3">
-        <v>6187100</v>
+        <v>6136300</v>
       </c>
       <c r="K41" s="3">
         <v>5980200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38745800</v>
+        <v>38427900</v>
       </c>
       <c r="E42" s="3">
-        <v>37024000</v>
+        <v>36720300</v>
       </c>
       <c r="F42" s="3">
-        <v>33376300</v>
+        <v>33102500</v>
       </c>
       <c r="G42" s="3">
-        <v>28999800</v>
+        <v>28761900</v>
       </c>
       <c r="H42" s="3">
-        <v>27169200</v>
+        <v>26946300</v>
       </c>
       <c r="I42" s="3">
-        <v>28252100</v>
+        <v>28020400</v>
       </c>
       <c r="J42" s="3">
-        <v>18696300</v>
+        <v>18542900</v>
       </c>
       <c r="K42" s="3">
         <v>22171000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>244300</v>
+        <v>242300</v>
       </c>
       <c r="E47" s="3">
-        <v>82000</v>
+        <v>81300</v>
       </c>
       <c r="F47" s="3">
-        <v>85000</v>
+        <v>84300</v>
       </c>
       <c r="G47" s="3">
-        <v>88900</v>
+        <v>88200</v>
       </c>
       <c r="H47" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="I47" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="J47" s="3">
-        <v>45100</v>
+        <v>44700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1292800</v>
+        <v>1282200</v>
       </c>
       <c r="E48" s="3">
-        <v>1317600</v>
+        <v>1306800</v>
       </c>
       <c r="F48" s="3">
-        <v>1268800</v>
+        <v>1258400</v>
       </c>
       <c r="G48" s="3">
-        <v>1177600</v>
+        <v>1167900</v>
       </c>
       <c r="H48" s="3">
-        <v>1153800</v>
+        <v>1144300</v>
       </c>
       <c r="I48" s="3">
-        <v>1138300</v>
+        <v>1129000</v>
       </c>
       <c r="J48" s="3">
-        <v>1062200</v>
+        <v>1053500</v>
       </c>
       <c r="K48" s="3">
         <v>758600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="G49" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="H49" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I49" s="3">
         <v>14300</v>
       </c>
-      <c r="I49" s="3">
-        <v>14400</v>
-      </c>
       <c r="J49" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>968900</v>
+        <v>961000</v>
       </c>
       <c r="E52" s="3">
-        <v>1137900</v>
+        <v>1128600</v>
       </c>
       <c r="F52" s="3">
-        <v>1073600</v>
+        <v>1064800</v>
       </c>
       <c r="G52" s="3">
-        <v>1333300</v>
+        <v>1322300</v>
       </c>
       <c r="H52" s="3">
-        <v>953100</v>
+        <v>945200</v>
       </c>
       <c r="I52" s="3">
-        <v>1368400</v>
+        <v>1357200</v>
       </c>
       <c r="J52" s="3">
-        <v>604800</v>
+        <v>599800</v>
       </c>
       <c r="K52" s="3">
         <v>208500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>213647000</v>
+        <v>211894000</v>
       </c>
       <c r="E54" s="3">
-        <v>191848000</v>
+        <v>190274000</v>
       </c>
       <c r="F54" s="3">
-        <v>167892000</v>
+        <v>166515000</v>
       </c>
       <c r="G54" s="3">
-        <v>151009000</v>
+        <v>149770000</v>
       </c>
       <c r="H54" s="3">
-        <v>137050000</v>
+        <v>135926000</v>
       </c>
       <c r="I54" s="3">
-        <v>120160000</v>
+        <v>119174000</v>
       </c>
       <c r="J54" s="3">
-        <v>111996000</v>
+        <v>111078000</v>
       </c>
       <c r="K54" s="3">
         <v>106729000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2852800</v>
+        <v>2829400</v>
       </c>
       <c r="E57" s="3">
-        <v>4790800</v>
+        <v>4751500</v>
       </c>
       <c r="F57" s="3">
-        <v>4646900</v>
+        <v>4608800</v>
       </c>
       <c r="G57" s="3">
-        <v>4554200</v>
+        <v>4516800</v>
       </c>
       <c r="H57" s="3">
-        <v>3842600</v>
+        <v>3811100</v>
       </c>
       <c r="I57" s="3">
-        <v>3232300</v>
+        <v>3205800</v>
       </c>
       <c r="J57" s="3">
-        <v>2432800</v>
+        <v>2412900</v>
       </c>
       <c r="K57" s="3">
         <v>2288200</v>
@@ -2495,13 +2495,13 @@
         <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
-        <v>400600</v>
+        <v>397300</v>
       </c>
       <c r="K59" s="3">
         <v>422500</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18598000</v>
+        <v>18445400</v>
       </c>
       <c r="E61" s="3">
-        <v>17027100</v>
+        <v>16887500</v>
       </c>
       <c r="F61" s="3">
-        <v>25673900</v>
+        <v>25463300</v>
       </c>
       <c r="G61" s="3">
-        <v>25405700</v>
+        <v>25197300</v>
       </c>
       <c r="H61" s="3">
-        <v>27806800</v>
+        <v>27578700</v>
       </c>
       <c r="I61" s="3">
-        <v>22805000</v>
+        <v>22617900</v>
       </c>
       <c r="J61" s="3">
-        <v>26758000</v>
+        <v>26538500</v>
       </c>
       <c r="K61" s="3">
         <v>27293800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>543500</v>
+        <v>539000</v>
       </c>
       <c r="E62" s="3">
-        <v>1399300</v>
+        <v>1387800</v>
       </c>
       <c r="F62" s="3">
-        <v>807400</v>
+        <v>800800</v>
       </c>
       <c r="G62" s="3">
-        <v>383900</v>
+        <v>380800</v>
       </c>
       <c r="H62" s="3">
-        <v>348300</v>
+        <v>345400</v>
       </c>
       <c r="I62" s="3">
-        <v>311100</v>
+        <v>308500</v>
       </c>
       <c r="J62" s="3">
-        <v>355700</v>
+        <v>352800</v>
       </c>
       <c r="K62" s="3">
         <v>329600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>191454000</v>
+        <v>189884000</v>
       </c>
       <c r="E66" s="3">
-        <v>172638000</v>
+        <v>171222000</v>
       </c>
       <c r="F66" s="3">
-        <v>152903000</v>
+        <v>151649000</v>
       </c>
       <c r="G66" s="3">
-        <v>137082000</v>
+        <v>135957000</v>
       </c>
       <c r="H66" s="3">
-        <v>123564000</v>
+        <v>122550000</v>
       </c>
       <c r="I66" s="3">
-        <v>107405000</v>
+        <v>106524000</v>
       </c>
       <c r="J66" s="3">
-        <v>100524000</v>
+        <v>99699600</v>
       </c>
       <c r="K66" s="3">
         <v>95785600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15130800</v>
+        <v>15006600</v>
       </c>
       <c r="E72" s="3">
-        <v>12318400</v>
+        <v>12217300</v>
       </c>
       <c r="F72" s="3">
-        <v>9874300</v>
+        <v>9793300</v>
       </c>
       <c r="G72" s="3">
-        <v>8993100</v>
+        <v>8919400</v>
       </c>
       <c r="H72" s="3">
-        <v>8737400</v>
+        <v>8665700</v>
       </c>
       <c r="I72" s="3">
-        <v>8054400</v>
+        <v>7988300</v>
       </c>
       <c r="J72" s="3">
-        <v>6815000</v>
+        <v>6759100</v>
       </c>
       <c r="K72" s="3">
         <v>6373200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22192200</v>
+        <v>22010100</v>
       </c>
       <c r="E76" s="3">
-        <v>19209900</v>
+        <v>19052300</v>
       </c>
       <c r="F76" s="3">
-        <v>14988800</v>
+        <v>14865900</v>
       </c>
       <c r="G76" s="3">
-        <v>13927500</v>
+        <v>13813200</v>
       </c>
       <c r="H76" s="3">
-        <v>13485800</v>
+        <v>13375100</v>
       </c>
       <c r="I76" s="3">
-        <v>12754600</v>
+        <v>12650000</v>
       </c>
       <c r="J76" s="3">
-        <v>11472100</v>
+        <v>11378000</v>
       </c>
       <c r="K76" s="3">
         <v>10943800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3060900</v>
+        <v>3035800</v>
       </c>
       <c r="E81" s="3">
-        <v>2241000</v>
+        <v>2222700</v>
       </c>
       <c r="F81" s="3">
-        <v>1166100</v>
+        <v>1156600</v>
       </c>
       <c r="G81" s="3">
-        <v>518600</v>
+        <v>514300</v>
       </c>
       <c r="H81" s="3">
-        <v>940100</v>
+        <v>932400</v>
       </c>
       <c r="I81" s="3">
-        <v>1242000</v>
+        <v>1231800</v>
       </c>
       <c r="J81" s="3">
-        <v>1240900</v>
+        <v>1230800</v>
       </c>
       <c r="K81" s="3">
         <v>1582300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="E83" s="3">
-        <v>179400</v>
+        <v>165600</v>
       </c>
       <c r="F83" s="3">
-        <v>167000</v>
+        <v>126400</v>
       </c>
       <c r="G83" s="3">
-        <v>127400</v>
+        <v>125600</v>
       </c>
       <c r="H83" s="3">
-        <v>126700</v>
+        <v>126300</v>
       </c>
       <c r="I83" s="3">
-        <v>127300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>116600</v>
+        <v>115700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7015700</v>
+        <v>16686000</v>
       </c>
       <c r="E89" s="3">
-        <v>16824100</v>
+        <v>9619400</v>
       </c>
       <c r="F89" s="3">
-        <v>9698900</v>
+        <v>5884300</v>
       </c>
       <c r="G89" s="3">
-        <v>5933000</v>
+        <v>2343400</v>
       </c>
       <c r="H89" s="3">
-        <v>2362800</v>
+        <v>6363600</v>
       </c>
       <c r="I89" s="3">
-        <v>6416300</v>
+        <v>2858700</v>
       </c>
       <c r="J89" s="3">
-        <v>2882400</v>
+        <v>-1483800</v>
       </c>
       <c r="K89" s="3">
         <v>874000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-226700</v>
+        <v>-204100</v>
       </c>
       <c r="E91" s="3">
-        <v>-205800</v>
+        <v>-226500</v>
       </c>
       <c r="F91" s="3">
-        <v>-228400</v>
+        <v>-138800</v>
       </c>
       <c r="G91" s="3">
-        <v>-140000</v>
+        <v>-126000</v>
       </c>
       <c r="H91" s="3">
-        <v>-127000</v>
+        <v>-159200</v>
       </c>
       <c r="I91" s="3">
-        <v>-160500</v>
+        <v>-102600</v>
       </c>
       <c r="J91" s="3">
-        <v>-103400</v>
+        <v>-150500</v>
       </c>
       <c r="K91" s="3">
         <v>-108200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4793300</v>
+        <v>-7615100</v>
       </c>
       <c r="E94" s="3">
-        <v>-7678100</v>
+        <v>-5115100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5157400</v>
+        <v>-3644800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3674900</v>
+        <v>-6114300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6164900</v>
+        <v>-194100</v>
       </c>
       <c r="I94" s="3">
-        <v>-195700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1440800</v>
+        <v>-1428900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-168900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-107200</v>
       </c>
       <c r="F96" s="3">
-        <v>-108000</v>
+        <v>-141300</v>
       </c>
       <c r="G96" s="3">
-        <v>-142500</v>
+        <v>-207500</v>
       </c>
       <c r="H96" s="3">
-        <v>-209200</v>
+        <v>-413900</v>
       </c>
       <c r="I96" s="3">
-        <v>-417300</v>
+        <v>-417400</v>
       </c>
       <c r="J96" s="3">
-        <v>-420900</v>
+        <v>-372900</v>
       </c>
       <c r="K96" s="3">
         <v>-349400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2127300</v>
+        <v>-6609200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6663900</v>
+        <v>361800</v>
       </c>
       <c r="F100" s="3">
-        <v>364700</v>
+        <v>-2417700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2437700</v>
+        <v>4796800</v>
       </c>
       <c r="H100" s="3">
-        <v>4836500</v>
+        <v>-4288300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4323700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>708700</v>
+        <v>702900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15500</v>
+        <v>-77900</v>
       </c>
       <c r="E101" s="3">
-        <v>-78500</v>
+        <v>25800</v>
       </c>
       <c r="F101" s="3">
-        <v>26000</v>
+        <v>-16300</v>
       </c>
       <c r="G101" s="3">
-        <v>-16400</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>-12700</v>
       </c>
       <c r="I101" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4334200</v>
+        <v>2383900</v>
       </c>
       <c r="E102" s="3">
-        <v>2403600</v>
+        <v>4891900</v>
       </c>
       <c r="F102" s="3">
-        <v>4932300</v>
+        <v>-194400</v>
       </c>
       <c r="G102" s="3">
-        <v>-196000</v>
+        <v>1028600</v>
       </c>
       <c r="H102" s="3">
-        <v>1037200</v>
+        <v>1868500</v>
       </c>
       <c r="I102" s="3">
-        <v>1884000</v>
+        <v>2103500</v>
       </c>
       <c r="J102" s="3">
-        <v>2120900</v>
+        <v>-75100</v>
       </c>
       <c r="K102" s="3">
         <v>-143800</v>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,106 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14637000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11534700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10779800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10256600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8702600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7515400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7367600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7168600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7101300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6798400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5933700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5494100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,48 +987,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-183100</v>
+      </c>
+      <c r="E15" s="3">
         <v>-160800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-162000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-141600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-114400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-111500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-110200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-101900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-103100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-98800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-82700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-97100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6781500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5869900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6586800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6666500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7167000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6079600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6115300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5043400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4644600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4423200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3944400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3768900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7855500</v>
+      </c>
+      <c r="E18" s="3">
         <v>5664700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4193000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3590100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1535600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1435800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1252400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2125200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2456700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2375200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1989300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1725200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,70 +1149,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2263100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1525000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1046100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1342700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-639900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-108500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>417200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-395800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-88000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-138100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-189200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-179900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4318400</v>
+        <v>5791400</v>
       </c>
       <c r="E21" s="3">
-        <v>3313100</v>
+        <v>4318600</v>
       </c>
       <c r="F21" s="3">
-        <v>2374300</v>
+        <v>3324700</v>
       </c>
       <c r="G21" s="3">
-        <v>1021800</v>
+        <v>2413000</v>
       </c>
       <c r="H21" s="3">
-        <v>1454100</v>
+        <v>1022000</v>
       </c>
       <c r="I21" s="3">
-        <v>1785700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>1452900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1795800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1191,12 +1227,15 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1654500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="E23" s="3">
         <v>4139800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3146800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2247400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>895700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1327300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1669600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1729400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2368700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2237100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1545300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1425800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1022500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>684800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>743600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>207800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>227200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>298500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>408300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>696600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>633300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>461000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>397500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4166600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3117300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2462000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1503800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>687800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1371000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1321100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1672100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1603700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1339200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1147800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3035800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2222700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1303200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>514300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>932400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1231800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1230800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1582300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1516400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1335900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1023900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,12 +1539,12 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-146600</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1500,15 +1560,18 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2263100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1525000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1046100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1342700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>639900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>108500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-417200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>395800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>88000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>138100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>189200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>179900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3035800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2222700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1156600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>514300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>932400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1231800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1230800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1582300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1516400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1335900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1023900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3035800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2222700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1156600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>514300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>932400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1231800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1230800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1582300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1516400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1335900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1023900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,86 +1904,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12283500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11414000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9611200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6140400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6934300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6736100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7015800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6136300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5980200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5999100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2554200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2997300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33173600</v>
+      </c>
+      <c r="E42" s="3">
         <v>38427900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36720300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33102500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28761900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26946300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28020400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18542900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22171000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22326800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,9 +2111,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,9 +2153,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2062,26 +2166,26 @@
         <v>242300</v>
       </c>
       <c r="E47" s="3">
+        <v>242300</v>
+      </c>
+      <c r="F47" s="3">
         <v>81300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>84300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>88200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>60200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2091,48 +2195,54 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1326200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1282200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1306800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1258400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1167900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1144300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1129000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1053500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>758600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>756600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>724100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>785500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2140,38 +2250,41 @@
         <v>14900</v>
       </c>
       <c r="E49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F49" s="3">
         <v>15000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>15200</v>
       </c>
       <c r="G49" s="3">
         <v>15200</v>
       </c>
       <c r="H49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I49" s="3">
         <v>14200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15200</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>19700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>921200</v>
+      </c>
+      <c r="E52" s="3">
         <v>961000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1128600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1064800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1322300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>945200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1357200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>599800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>208500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>354600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>405400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236782000</v>
+      </c>
+      <c r="E54" s="3">
         <v>211894000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>190274000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166515000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149770000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135926000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119174000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>111078000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106729000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102743000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89278900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89548900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,47 +2528,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3339500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2829400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4751500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4608800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4516800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3811100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3205800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2412900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2288200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2637600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2609300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2105500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2476,9 +2609,12 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2488,36 +2624,39 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>397300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>422500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>407000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>349000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>311500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,87 +2693,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21672500</v>
+      </c>
+      <c r="E61" s="3">
         <v>18445400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16887500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25463300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25197300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27578700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22617900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26538500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27293800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25218700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22873100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23323500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>603900</v>
+      </c>
+      <c r="E62" s="3">
         <v>539000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1387800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>380800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>345400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>308500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>352800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>329600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>294600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>210849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>189884000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>171222000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151649000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135957000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122550000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99699600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95785600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92241100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80181600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80688300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18718400</v>
+      </c>
+      <c r="E72" s="3">
         <v>15006600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12217300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9793300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8919400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8665700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7988300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6759100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6373200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5639000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4568300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4003000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25932800</v>
+      </c>
+      <c r="E76" s="3">
         <v>22010100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19052300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14865900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13813200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13375100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12650000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11378000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10943800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10501500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9097300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8860600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3035800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2222700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1156600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>514300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>932400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1231800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1230800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1582300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1516400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1335900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1023900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,32 +3493,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>178900</v>
+      </c>
+      <c r="F83" s="3">
         <v>177900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>165600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>126400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>125600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>126300</v>
       </c>
-      <c r="I83" s="3">
-        <v>115700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3331,12 +3529,15 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>109100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-455900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6958100</v>
+      </c>
+      <c r="F89" s="3">
         <v>16686000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9619400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5884300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2343400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6363600</v>
       </c>
-      <c r="I89" s="3">
-        <v>2858700</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1483800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>874000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>929500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2312700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-985300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-298300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-224900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-204100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-226500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-138800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-126000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-159200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-150500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-108200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,33 +3928,36 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8221800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4754000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7615100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5115100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3644800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6114300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-194100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1428900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3738,12 +3967,15 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3074600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-420700</v>
       </c>
       <c r="E96" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-107200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-141300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-207500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-413900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-417400</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-372900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-349400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-371500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-293400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-274900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,33 +4156,36 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2997200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2109800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6609200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>361800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2417700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4796800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4288300</v>
       </c>
-      <c r="I100" s="3">
-        <v>702900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3950,36 +4195,39 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>4256900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-77900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>25800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-16300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-12700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3989,49 +4237,55 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>59100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5642300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4298700</v>
+      </c>
+      <c r="F102" s="3">
         <v>2383900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4891900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-194400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1028600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1868500</v>
       </c>
-      <c r="I102" s="3">
-        <v>2103500</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-75100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-143800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1086000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>256100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBN_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14637000</v>
+        <v>14564300</v>
       </c>
       <c r="E8" s="3">
-        <v>11534700</v>
+        <v>11477400</v>
       </c>
       <c r="F8" s="3">
-        <v>10779800</v>
+        <v>10726300</v>
       </c>
       <c r="G8" s="3">
-        <v>10256600</v>
+        <v>10205700</v>
       </c>
       <c r="H8" s="3">
-        <v>8702600</v>
+        <v>8659400</v>
       </c>
       <c r="I8" s="3">
-        <v>7515400</v>
+        <v>7478100</v>
       </c>
       <c r="J8" s="3">
-        <v>7367600</v>
+        <v>7331100</v>
       </c>
       <c r="K8" s="3">
         <v>7168600</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-183100</v>
+        <v>-182200</v>
       </c>
       <c r="E15" s="3">
-        <v>-160800</v>
+        <v>-160000</v>
       </c>
       <c r="F15" s="3">
-        <v>-162000</v>
+        <v>-161200</v>
       </c>
       <c r="G15" s="3">
-        <v>-141600</v>
+        <v>-140900</v>
       </c>
       <c r="H15" s="3">
-        <v>-114400</v>
+        <v>-113800</v>
       </c>
       <c r="I15" s="3">
-        <v>-111500</v>
+        <v>-110900</v>
       </c>
       <c r="J15" s="3">
-        <v>-110200</v>
+        <v>-109700</v>
       </c>
       <c r="K15" s="3">
         <v>-101900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6781500</v>
+        <v>6747800</v>
       </c>
       <c r="E17" s="3">
-        <v>5869900</v>
+        <v>5840800</v>
       </c>
       <c r="F17" s="3">
-        <v>6586800</v>
+        <v>6554100</v>
       </c>
       <c r="G17" s="3">
-        <v>6666500</v>
+        <v>6633500</v>
       </c>
       <c r="H17" s="3">
-        <v>7167000</v>
+        <v>7131400</v>
       </c>
       <c r="I17" s="3">
-        <v>6079600</v>
+        <v>6049400</v>
       </c>
       <c r="J17" s="3">
-        <v>6115300</v>
+        <v>6084900</v>
       </c>
       <c r="K17" s="3">
         <v>5043400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7855500</v>
+        <v>7816500</v>
       </c>
       <c r="E18" s="3">
-        <v>5664700</v>
+        <v>5636600</v>
       </c>
       <c r="F18" s="3">
-        <v>4193000</v>
+        <v>4172100</v>
       </c>
       <c r="G18" s="3">
-        <v>3590100</v>
+        <v>3572300</v>
       </c>
       <c r="H18" s="3">
-        <v>1535600</v>
+        <v>1528000</v>
       </c>
       <c r="I18" s="3">
-        <v>1435800</v>
+        <v>1428700</v>
       </c>
       <c r="J18" s="3">
-        <v>1252400</v>
+        <v>1246200</v>
       </c>
       <c r="K18" s="3">
         <v>2125200</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2263100</v>
+        <v>-2251900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1525000</v>
+        <v>-1517400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1046100</v>
+        <v>-1040900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1342700</v>
+        <v>-1336100</v>
       </c>
       <c r="H20" s="3">
-        <v>-639900</v>
+        <v>-636800</v>
       </c>
       <c r="I20" s="3">
-        <v>-108500</v>
+        <v>-108000</v>
       </c>
       <c r="J20" s="3">
-        <v>417200</v>
+        <v>415100</v>
       </c>
       <c r="K20" s="3">
         <v>-395800</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5791400</v>
+        <v>5762500</v>
       </c>
       <c r="E21" s="3">
-        <v>4318600</v>
+        <v>4297100</v>
       </c>
       <c r="F21" s="3">
-        <v>3324700</v>
+        <v>3308100</v>
       </c>
       <c r="G21" s="3">
-        <v>2413000</v>
+        <v>2400800</v>
       </c>
       <c r="H21" s="3">
-        <v>1022000</v>
+        <v>1016900</v>
       </c>
       <c r="I21" s="3">
-        <v>1452900</v>
+        <v>1445600</v>
       </c>
       <c r="J21" s="3">
-        <v>1795800</v>
+        <v>1786800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5592400</v>
+        <v>5564700</v>
       </c>
       <c r="E23" s="3">
-        <v>4139800</v>
+        <v>4119200</v>
       </c>
       <c r="F23" s="3">
-        <v>3146800</v>
+        <v>3131200</v>
       </c>
       <c r="G23" s="3">
-        <v>2247400</v>
+        <v>2236200</v>
       </c>
       <c r="H23" s="3">
-        <v>895700</v>
+        <v>891200</v>
       </c>
       <c r="I23" s="3">
-        <v>1327300</v>
+        <v>1320700</v>
       </c>
       <c r="J23" s="3">
-        <v>1669600</v>
+        <v>1661300</v>
       </c>
       <c r="K23" s="3">
         <v>1729400</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1425800</v>
+        <v>1418800</v>
       </c>
       <c r="E24" s="3">
-        <v>1022500</v>
+        <v>1017400</v>
       </c>
       <c r="F24" s="3">
-        <v>684800</v>
+        <v>681400</v>
       </c>
       <c r="G24" s="3">
-        <v>743600</v>
+        <v>739900</v>
       </c>
       <c r="H24" s="3">
-        <v>207800</v>
+        <v>206800</v>
       </c>
       <c r="I24" s="3">
-        <v>227200</v>
+        <v>226000</v>
       </c>
       <c r="J24" s="3">
-        <v>298500</v>
+        <v>297000</v>
       </c>
       <c r="K24" s="3">
         <v>408300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4166600</v>
+        <v>4145900</v>
       </c>
       <c r="E26" s="3">
-        <v>3117300</v>
+        <v>3101800</v>
       </c>
       <c r="F26" s="3">
-        <v>2462000</v>
+        <v>2449800</v>
       </c>
       <c r="G26" s="3">
-        <v>1503800</v>
+        <v>1496300</v>
       </c>
       <c r="H26" s="3">
-        <v>687800</v>
+        <v>684400</v>
       </c>
       <c r="I26" s="3">
-        <v>1100100</v>
+        <v>1094700</v>
       </c>
       <c r="J26" s="3">
-        <v>1371000</v>
+        <v>1364200</v>
       </c>
       <c r="K26" s="3">
         <v>1321100</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4115000</v>
+        <v>4094600</v>
       </c>
       <c r="E27" s="3">
-        <v>3035800</v>
+        <v>3020700</v>
       </c>
       <c r="F27" s="3">
-        <v>2222700</v>
+        <v>2211600</v>
       </c>
       <c r="G27" s="3">
-        <v>1303200</v>
+        <v>1296700</v>
       </c>
       <c r="H27" s="3">
-        <v>514300</v>
+        <v>511800</v>
       </c>
       <c r="I27" s="3">
-        <v>932400</v>
+        <v>927800</v>
       </c>
       <c r="J27" s="3">
-        <v>1231800</v>
+        <v>1225700</v>
       </c>
       <c r="K27" s="3">
         <v>1230800</v>
@@ -1543,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-146600</v>
+        <v>-145900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2263100</v>
+        <v>2251900</v>
       </c>
       <c r="E32" s="3">
-        <v>1525000</v>
+        <v>1517400</v>
       </c>
       <c r="F32" s="3">
-        <v>1046100</v>
+        <v>1040900</v>
       </c>
       <c r="G32" s="3">
-        <v>1342700</v>
+        <v>1336100</v>
       </c>
       <c r="H32" s="3">
-        <v>639900</v>
+        <v>636800</v>
       </c>
       <c r="I32" s="3">
-        <v>108500</v>
+        <v>108000</v>
       </c>
       <c r="J32" s="3">
-        <v>-417200</v>
+        <v>-415100</v>
       </c>
       <c r="K32" s="3">
         <v>395800</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4115000</v>
+        <v>4094600</v>
       </c>
       <c r="E33" s="3">
-        <v>3035800</v>
+        <v>3020700</v>
       </c>
       <c r="F33" s="3">
-        <v>2222700</v>
+        <v>2211600</v>
       </c>
       <c r="G33" s="3">
-        <v>1156600</v>
+        <v>1150800</v>
       </c>
       <c r="H33" s="3">
-        <v>514300</v>
+        <v>511800</v>
       </c>
       <c r="I33" s="3">
-        <v>932400</v>
+        <v>927800</v>
       </c>
       <c r="J33" s="3">
-        <v>1231800</v>
+        <v>1225700</v>
       </c>
       <c r="K33" s="3">
         <v>1230800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4115000</v>
+        <v>4094600</v>
       </c>
       <c r="E35" s="3">
-        <v>3035800</v>
+        <v>3020700</v>
       </c>
       <c r="F35" s="3">
-        <v>2222700</v>
+        <v>2211600</v>
       </c>
       <c r="G35" s="3">
-        <v>1156600</v>
+        <v>1150800</v>
       </c>
       <c r="H35" s="3">
-        <v>514300</v>
+        <v>511800</v>
       </c>
       <c r="I35" s="3">
-        <v>932400</v>
+        <v>927800</v>
       </c>
       <c r="J35" s="3">
-        <v>1231800</v>
+        <v>1225700</v>
       </c>
       <c r="K35" s="3">
         <v>1230800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12283500</v>
+        <v>12222500</v>
       </c>
       <c r="E41" s="3">
-        <v>11414000</v>
+        <v>11357300</v>
       </c>
       <c r="F41" s="3">
-        <v>9611200</v>
+        <v>9563500</v>
       </c>
       <c r="G41" s="3">
-        <v>6140400</v>
+        <v>6109900</v>
       </c>
       <c r="H41" s="3">
-        <v>6934300</v>
+        <v>6899800</v>
       </c>
       <c r="I41" s="3">
-        <v>6736100</v>
+        <v>6702700</v>
       </c>
       <c r="J41" s="3">
-        <v>7015800</v>
+        <v>6981000</v>
       </c>
       <c r="K41" s="3">
         <v>6136300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33173600</v>
+        <v>33009000</v>
       </c>
       <c r="E42" s="3">
-        <v>38427900</v>
+        <v>38237200</v>
       </c>
       <c r="F42" s="3">
-        <v>36720300</v>
+        <v>36538100</v>
       </c>
       <c r="G42" s="3">
-        <v>33102500</v>
+        <v>32938200</v>
       </c>
       <c r="H42" s="3">
-        <v>28761900</v>
+        <v>28619200</v>
       </c>
       <c r="I42" s="3">
-        <v>26946300</v>
+        <v>26812600</v>
       </c>
       <c r="J42" s="3">
-        <v>28020400</v>
+        <v>27881300</v>
       </c>
       <c r="K42" s="3">
         <v>18542900</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>242300</v>
+        <v>241100</v>
       </c>
       <c r="E47" s="3">
-        <v>242300</v>
+        <v>241100</v>
       </c>
       <c r="F47" s="3">
-        <v>81300</v>
+        <v>80900</v>
       </c>
       <c r="G47" s="3">
-        <v>84300</v>
+        <v>83900</v>
       </c>
       <c r="H47" s="3">
-        <v>88200</v>
+        <v>87700</v>
       </c>
       <c r="I47" s="3">
-        <v>60200</v>
+        <v>59900</v>
       </c>
       <c r="J47" s="3">
-        <v>45400</v>
+        <v>45200</v>
       </c>
       <c r="K47" s="3">
         <v>44700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1326200</v>
+        <v>1319600</v>
       </c>
       <c r="E48" s="3">
-        <v>1282200</v>
+        <v>1275800</v>
       </c>
       <c r="F48" s="3">
-        <v>1306800</v>
+        <v>1300400</v>
       </c>
       <c r="G48" s="3">
-        <v>1258400</v>
+        <v>1252200</v>
       </c>
       <c r="H48" s="3">
-        <v>1167900</v>
+        <v>1162100</v>
       </c>
       <c r="I48" s="3">
-        <v>1144300</v>
+        <v>1138600</v>
       </c>
       <c r="J48" s="3">
-        <v>1129000</v>
+        <v>1123400</v>
       </c>
       <c r="K48" s="3">
         <v>1053500</v>
@@ -2253,7 +2253,7 @@
         <v>14900</v>
       </c>
       <c r="F49" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="G49" s="3">
         <v>15200</v>
@@ -2262,10 +2262,10 @@
         <v>15200</v>
       </c>
       <c r="I49" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J49" s="3">
         <v>14200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>14300</v>
       </c>
       <c r="K49" s="3">
         <v>15200</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>921200</v>
+        <v>916600</v>
       </c>
       <c r="E52" s="3">
-        <v>961000</v>
+        <v>956200</v>
       </c>
       <c r="F52" s="3">
-        <v>1128600</v>
+        <v>1123000</v>
       </c>
       <c r="G52" s="3">
-        <v>1064800</v>
+        <v>1059500</v>
       </c>
       <c r="H52" s="3">
-        <v>1322300</v>
+        <v>1315800</v>
       </c>
       <c r="I52" s="3">
-        <v>945200</v>
+        <v>940500</v>
       </c>
       <c r="J52" s="3">
-        <v>1357200</v>
+        <v>1350400</v>
       </c>
       <c r="K52" s="3">
         <v>599800</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236782000</v>
+        <v>235606000</v>
       </c>
       <c r="E54" s="3">
-        <v>211894000</v>
+        <v>210842000</v>
       </c>
       <c r="F54" s="3">
-        <v>190274000</v>
+        <v>189330000</v>
       </c>
       <c r="G54" s="3">
-        <v>166515000</v>
+        <v>165688000</v>
       </c>
       <c r="H54" s="3">
-        <v>149770000</v>
+        <v>149027000</v>
       </c>
       <c r="I54" s="3">
-        <v>135926000</v>
+        <v>135251000</v>
       </c>
       <c r="J54" s="3">
-        <v>119174000</v>
+        <v>118583000</v>
       </c>
       <c r="K54" s="3">
         <v>111078000</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3339500</v>
+        <v>3322900</v>
       </c>
       <c r="E57" s="3">
-        <v>2829400</v>
+        <v>2815400</v>
       </c>
       <c r="F57" s="3">
-        <v>4751500</v>
+        <v>4727900</v>
       </c>
       <c r="G57" s="3">
-        <v>4608800</v>
+        <v>4585900</v>
       </c>
       <c r="H57" s="3">
-        <v>4516800</v>
+        <v>4494400</v>
       </c>
       <c r="I57" s="3">
-        <v>3811100</v>
+        <v>3792200</v>
       </c>
       <c r="J57" s="3">
-        <v>3205800</v>
+        <v>3189900</v>
       </c>
       <c r="K57" s="3">
         <v>2412900</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I59" s="3">
         <v>4600</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21672500</v>
+        <v>21564900</v>
       </c>
       <c r="E61" s="3">
-        <v>18445400</v>
+        <v>18353900</v>
       </c>
       <c r="F61" s="3">
-        <v>16887500</v>
+        <v>16803600</v>
       </c>
       <c r="G61" s="3">
-        <v>25463300</v>
+        <v>25336900</v>
       </c>
       <c r="H61" s="3">
-        <v>25197300</v>
+        <v>25072300</v>
       </c>
       <c r="I61" s="3">
-        <v>27578700</v>
+        <v>27441800</v>
       </c>
       <c r="J61" s="3">
-        <v>22617900</v>
+        <v>22505700</v>
       </c>
       <c r="K61" s="3">
         <v>26538500</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>603900</v>
+        <v>600900</v>
       </c>
       <c r="E62" s="3">
-        <v>539000</v>
+        <v>536400</v>
       </c>
       <c r="F62" s="3">
-        <v>1387800</v>
+        <v>1381000</v>
       </c>
       <c r="G62" s="3">
-        <v>800800</v>
+        <v>796800</v>
       </c>
       <c r="H62" s="3">
-        <v>380800</v>
+        <v>378900</v>
       </c>
       <c r="I62" s="3">
-        <v>345400</v>
+        <v>343700</v>
       </c>
       <c r="J62" s="3">
-        <v>308500</v>
+        <v>307000</v>
       </c>
       <c r="K62" s="3">
         <v>352800</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>210849000</v>
+        <v>209802000</v>
       </c>
       <c r="E66" s="3">
-        <v>189884000</v>
+        <v>188941000</v>
       </c>
       <c r="F66" s="3">
-        <v>171222000</v>
+        <v>170372000</v>
       </c>
       <c r="G66" s="3">
-        <v>151649000</v>
+        <v>150896000</v>
       </c>
       <c r="H66" s="3">
-        <v>135957000</v>
+        <v>135282000</v>
       </c>
       <c r="I66" s="3">
-        <v>122550000</v>
+        <v>121942000</v>
       </c>
       <c r="J66" s="3">
-        <v>106524000</v>
+        <v>105995000</v>
       </c>
       <c r="K66" s="3">
         <v>99699600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18718400</v>
+        <v>18625500</v>
       </c>
       <c r="E72" s="3">
-        <v>15006600</v>
+        <v>14932200</v>
       </c>
       <c r="F72" s="3">
-        <v>12217300</v>
+        <v>12156700</v>
       </c>
       <c r="G72" s="3">
-        <v>9793300</v>
+        <v>9744700</v>
       </c>
       <c r="H72" s="3">
-        <v>8919400</v>
+        <v>8875100</v>
       </c>
       <c r="I72" s="3">
-        <v>8665700</v>
+        <v>8622700</v>
       </c>
       <c r="J72" s="3">
-        <v>7988300</v>
+        <v>7948700</v>
       </c>
       <c r="K72" s="3">
         <v>6759100</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25932800</v>
+        <v>25804100</v>
       </c>
       <c r="E76" s="3">
-        <v>22010100</v>
+        <v>21900900</v>
       </c>
       <c r="F76" s="3">
-        <v>19052300</v>
+        <v>18957800</v>
       </c>
       <c r="G76" s="3">
-        <v>14865900</v>
+        <v>14792100</v>
       </c>
       <c r="H76" s="3">
-        <v>13813200</v>
+        <v>13744700</v>
       </c>
       <c r="I76" s="3">
-        <v>13375100</v>
+        <v>13308800</v>
       </c>
       <c r="J76" s="3">
-        <v>12650000</v>
+        <v>12587200</v>
       </c>
       <c r="K76" s="3">
         <v>11378000</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4115000</v>
+        <v>4094600</v>
       </c>
       <c r="E81" s="3">
-        <v>3035800</v>
+        <v>3020700</v>
       </c>
       <c r="F81" s="3">
-        <v>2222700</v>
+        <v>2211600</v>
       </c>
       <c r="G81" s="3">
-        <v>1156600</v>
+        <v>1150800</v>
       </c>
       <c r="H81" s="3">
-        <v>514300</v>
+        <v>511800</v>
       </c>
       <c r="I81" s="3">
-        <v>932400</v>
+        <v>927800</v>
       </c>
       <c r="J81" s="3">
-        <v>1231800</v>
+        <v>1225700</v>
       </c>
       <c r="K81" s="3">
         <v>1230800</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>199000</v>
+        <v>198000</v>
       </c>
       <c r="E83" s="3">
-        <v>178900</v>
+        <v>178000</v>
       </c>
       <c r="F83" s="3">
-        <v>177900</v>
+        <v>177000</v>
       </c>
       <c r="G83" s="3">
-        <v>165600</v>
+        <v>164800</v>
       </c>
       <c r="H83" s="3">
-        <v>126400</v>
+        <v>125800</v>
       </c>
       <c r="I83" s="3">
+        <v>125000</v>
+      </c>
+      <c r="J83" s="3">
         <v>125600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>126300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-455900</v>
+        <v>-453700</v>
       </c>
       <c r="E89" s="3">
-        <v>6958100</v>
+        <v>6923600</v>
       </c>
       <c r="F89" s="3">
-        <v>16686000</v>
+        <v>16603200</v>
       </c>
       <c r="G89" s="3">
-        <v>9619400</v>
+        <v>9571600</v>
       </c>
       <c r="H89" s="3">
-        <v>5884300</v>
+        <v>5855100</v>
       </c>
       <c r="I89" s="3">
-        <v>2343400</v>
+        <v>2331800</v>
       </c>
       <c r="J89" s="3">
-        <v>6363600</v>
+        <v>6332100</v>
       </c>
       <c r="K89" s="3">
         <v>-1483800</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-298300</v>
+        <v>-296900</v>
       </c>
       <c r="E91" s="3">
-        <v>-224900</v>
+        <v>-223800</v>
       </c>
       <c r="F91" s="3">
-        <v>-204100</v>
+        <v>-203100</v>
       </c>
       <c r="G91" s="3">
-        <v>-226500</v>
+        <v>-225400</v>
       </c>
       <c r="H91" s="3">
-        <v>-138800</v>
+        <v>-138100</v>
       </c>
       <c r="I91" s="3">
-        <v>-126000</v>
+        <v>-125400</v>
       </c>
       <c r="J91" s="3">
-        <v>-159200</v>
+        <v>-158400</v>
       </c>
       <c r="K91" s="3">
         <v>-150500</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8221800</v>
+        <v>-8181000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4754000</v>
+        <v>-4730400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7615100</v>
+        <v>-7577300</v>
       </c>
       <c r="G94" s="3">
-        <v>-5115100</v>
+        <v>-5089700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3644800</v>
+        <v>-3626700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6114300</v>
+        <v>-6084000</v>
       </c>
       <c r="J94" s="3">
-        <v>-194100</v>
+        <v>-193200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-420700</v>
+        <v>-418600</v>
       </c>
       <c r="E96" s="3">
-        <v>-167500</v>
+        <v>-166600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-107200</v>
+        <v>-106600</v>
       </c>
       <c r="H96" s="3">
-        <v>-141300</v>
+        <v>-140600</v>
       </c>
       <c r="I96" s="3">
-        <v>-207500</v>
+        <v>-206400</v>
       </c>
       <c r="J96" s="3">
-        <v>-413900</v>
+        <v>-411800</v>
       </c>
       <c r="K96" s="3">
         <v>-372900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2997200</v>
+        <v>2982300</v>
       </c>
       <c r="E100" s="3">
-        <v>2109800</v>
+        <v>2099400</v>
       </c>
       <c r="F100" s="3">
-        <v>-6609200</v>
+        <v>-6576400</v>
       </c>
       <c r="G100" s="3">
-        <v>361800</v>
+        <v>360000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2417700</v>
+        <v>-2405700</v>
       </c>
       <c r="I100" s="3">
-        <v>4796800</v>
+        <v>4773000</v>
       </c>
       <c r="J100" s="3">
-        <v>-4288300</v>
+        <v>-4267000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4208,22 +4208,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38200</v>
+        <v>38100</v>
       </c>
       <c r="E101" s="3">
         <v>-15300</v>
       </c>
       <c r="F101" s="3">
-        <v>-77900</v>
+        <v>-77500</v>
       </c>
       <c r="G101" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="H101" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="I101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
         <v>-12700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5642300</v>
+        <v>-5614300</v>
       </c>
       <c r="E102" s="3">
-        <v>4298700</v>
+        <v>4277300</v>
       </c>
       <c r="F102" s="3">
-        <v>2383900</v>
+        <v>2372000</v>
       </c>
       <c r="G102" s="3">
-        <v>4891900</v>
+        <v>4867600</v>
       </c>
       <c r="H102" s="3">
-        <v>-194400</v>
+        <v>-193500</v>
       </c>
       <c r="I102" s="3">
-        <v>1028600</v>
+        <v>1023500</v>
       </c>
       <c r="J102" s="3">
-        <v>1868500</v>
+        <v>1859200</v>
       </c>
       <c r="K102" s="3">
         <v>-75100</v>
